--- a/DHTNMT-HN/Cao dang.xlsx
+++ b/DHTNMT-HN/Cao dang.xlsx
@@ -8,6 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="page 1" sheetId="1" r:id="rId3"/>
+    <sheet name="page 2" sheetId="2" r:id="rId4"/>
+    <sheet name="page 3" sheetId="3" r:id="rId5"/>
+    <sheet name="page 4" sheetId="4" r:id="rId6"/>
+    <sheet name="page 5" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -13900,7 +13904,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -13923,11 +13927,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -13943,6 +14007,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1" applyBorder="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyAlignment="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyAlignment="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyAlignment="1" applyBorder="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyAlignment="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyAlignment="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyAlignment="1" applyBorder="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyAlignment="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyAlignment="1" applyBorder="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyAlignment="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyAlignment="1" applyBorder="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14238,7 +14362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L145"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15268,4241 +15392,4349 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" ht="24.390000" customHeight="1">
-      <c r="A29" t="s" s="1">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.761905" customWidth="1"/>
+    <col min="2" max="2" width="12.000000" customWidth="1"/>
+    <col min="3" max="3" width="29.142857" customWidth="1"/>
+    <col min="4" max="4" width="12.000000" customWidth="1"/>
+    <col min="5" max="5" width="22.476190" customWidth="1"/>
+    <col min="6" max="6" width="12.952381" customWidth="1"/>
+    <col min="7" max="7" width="5.523810" customWidth="1"/>
+    <col min="8" max="8" width="5.333333" customWidth="1"/>
+    <col min="9" max="9" width="10.666667" customWidth="1"/>
+    <col min="10" max="10" width="10.095238" customWidth="1"/>
+    <col min="11" max="11" width="10.666667" customWidth="1"/>
+    <col min="12" max="12" width="16.380952" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24.390000" customHeight="1">
+      <c r="A1" t="s" s="6">
         <v>0</v>
       </c>
-      <c r="B29" t="s" s="1">
+      <c r="B1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="C29" t="s" s="1">
+      <c r="C1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="D29" t="s" s="1">
+      <c r="D1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="E29" t="s" s="1">
+      <c r="E1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="F29" t="s" s="1">
+      <c r="F1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="G29" t="s" s="1">
+      <c r="G1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="H29" t="s" s="1">
+      <c r="H1" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I1" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="J29" t="s" s="1">
+      <c r="J1" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="K29" t="s" s="1">
+      <c r="K1" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="L29" t="s" s="1">
+      <c r="L1" t="s" s="6">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="15.000000" customHeight="1">
+      <c r="A2" s="8">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s" s="8">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s" s="8">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s" s="8">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s" s="8">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s" s="8">
+        <v>137</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10">
+        <v>13</v>
+      </c>
+      <c r="J2" s="8">
+        <v>14.5</v>
+      </c>
+      <c r="K2" t="s" s="8">
+        <v>110</v>
+      </c>
+      <c r="L2" t="s" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="15.000000" customHeight="1">
+      <c r="A3" s="8">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="8">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s" s="8">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s" s="8">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10">
+        <v>2</v>
+      </c>
+      <c r="I3" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="J3" s="8">
+        <v>12.75</v>
+      </c>
+      <c r="K3" t="s" s="8">
+        <v>141</v>
+      </c>
+      <c r="L3" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="14.999990" customHeight="1">
+      <c r="A4" s="8">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="8">
+        <v>142</v>
+      </c>
+      <c r="C4" t="s" s="8">
+        <v>143</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>144</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="F4" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10">
+        <v>2</v>
+      </c>
+      <c r="I4" s="10">
+        <v>13</v>
+      </c>
+      <c r="J4" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="K4" t="s" s="8">
+        <v>141</v>
+      </c>
+      <c r="L4" t="s" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" ht="15.030010" customHeight="1">
+      <c r="A5" s="8">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s" s="8">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s" s="8">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s" s="8">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s" s="8">
+        <v>148</v>
+      </c>
+      <c r="F5" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10">
+        <v>2</v>
+      </c>
+      <c r="I5" s="8">
+        <v>11.75</v>
+      </c>
+      <c r="J5" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="K5" t="s" s="8">
+        <v>141</v>
+      </c>
+      <c r="L5" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="15.000000" customHeight="1">
+      <c r="A6" s="8">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s" s="8">
+        <v>149</v>
+      </c>
+      <c r="C6" t="s" s="8">
+        <v>150</v>
+      </c>
+      <c r="D6" t="s" s="8">
+        <v>151</v>
+      </c>
+      <c r="E6" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10">
+        <v>2</v>
+      </c>
+      <c r="I6" s="10">
+        <v>12</v>
+      </c>
+      <c r="J6" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="K6" t="s" s="8">
+        <v>141</v>
+      </c>
+      <c r="L6" t="s" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="15.000000" customHeight="1">
+      <c r="A7" s="8">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s" s="8">
+        <v>152</v>
+      </c>
+      <c r="C7" t="s" s="8">
+        <v>153</v>
+      </c>
+      <c r="D7" t="s" s="8">
+        <v>154</v>
+      </c>
+      <c r="E7" t="s" s="8">
+        <v>155</v>
+      </c>
+      <c r="F7" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10">
+        <v>2</v>
+      </c>
+      <c r="I7" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="J7" s="10">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s" s="8">
+        <v>141</v>
+      </c>
+      <c r="L7" t="s" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="15.000000" customHeight="1">
+      <c r="A8" s="8">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s" s="8">
+        <v>156</v>
+      </c>
+      <c r="C8" t="s" s="8">
+        <v>157</v>
+      </c>
+      <c r="D8" t="s" s="8">
+        <v>158</v>
+      </c>
+      <c r="E8" t="s" s="8">
+        <v>159</v>
+      </c>
+      <c r="F8" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10">
+        <v>2</v>
+      </c>
+      <c r="I8" s="8">
+        <v>11.75</v>
+      </c>
+      <c r="J8" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="K8" t="s" s="8">
+        <v>141</v>
+      </c>
+      <c r="L8" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="15.000000" customHeight="1">
+      <c r="A9" s="8">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>160</v>
+      </c>
+      <c r="C9" t="s" s="8">
+        <v>161</v>
+      </c>
+      <c r="D9" t="s" s="8">
+        <v>162</v>
+      </c>
+      <c r="E9" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10">
+        <v>3</v>
+      </c>
+      <c r="I9" s="8">
+        <v>14.5</v>
+      </c>
+      <c r="J9" s="8">
+        <v>14.5</v>
+      </c>
+      <c r="K9" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="L9" t="s" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="15.000000" customHeight="1">
+      <c r="A10" s="8">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s" s="8">
+        <v>164</v>
+      </c>
+      <c r="C10" t="s" s="8">
+        <v>165</v>
+      </c>
+      <c r="D10" t="s" s="8">
+        <v>166</v>
+      </c>
+      <c r="E10" t="s" s="8">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="I10" s="10">
+        <v>15</v>
+      </c>
+      <c r="J10" s="10">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="L10" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="14.999990" customHeight="1">
+      <c r="A11" s="8">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s" s="8">
+        <v>167</v>
+      </c>
+      <c r="C11" t="s" s="8">
+        <v>168</v>
+      </c>
+      <c r="D11" t="s" s="8">
+        <v>169</v>
+      </c>
+      <c r="E11" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10">
+        <v>3</v>
+      </c>
+      <c r="I11" s="8">
+        <v>13.25</v>
+      </c>
+      <c r="J11" s="8">
+        <v>13.25</v>
+      </c>
+      <c r="K11" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="L11" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="15.020020" customHeight="1">
+      <c r="A12" s="8">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s" s="8">
+        <v>170</v>
+      </c>
+      <c r="C12" t="s" s="8">
+        <v>171</v>
+      </c>
+      <c r="D12" t="s" s="8">
+        <v>172</v>
+      </c>
+      <c r="E12" t="s" s="8">
+        <v>173</v>
+      </c>
+      <c r="F12" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10">
+        <v>2</v>
+      </c>
+      <c r="I12" s="8">
+        <v>14.5</v>
+      </c>
+      <c r="J12" s="10">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="L12" t="s" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" ht="15.000000" customHeight="1">
+      <c r="A13" s="8">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s" s="8">
+        <v>174</v>
+      </c>
+      <c r="C13" t="s" s="8">
+        <v>175</v>
+      </c>
+      <c r="D13" t="s" s="8">
+        <v>176</v>
+      </c>
+      <c r="E13" t="s" s="8">
+        <v>177</v>
+      </c>
+      <c r="F13" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10">
+        <v>3</v>
+      </c>
+      <c r="I13" s="10">
+        <v>14</v>
+      </c>
+      <c r="J13" s="10">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="L13" t="s" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" ht="15.000000" customHeight="1">
+      <c r="A14" s="8">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s" s="8">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s" s="8">
+        <v>179</v>
+      </c>
+      <c r="D14" t="s" s="8">
+        <v>180</v>
+      </c>
+      <c r="E14" t="s" s="8">
+        <v>181</v>
+      </c>
+      <c r="F14" t="s" s="8">
+        <v>106</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="I14" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="J14" s="8">
+        <v>15.25</v>
+      </c>
+      <c r="K14" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="L14" t="s" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="15.000000" customHeight="1">
+      <c r="A15" s="8">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s" s="8">
+        <v>182</v>
+      </c>
+      <c r="C15" t="s" s="8">
+        <v>183</v>
+      </c>
+      <c r="D15" t="s" s="8">
+        <v>184</v>
+      </c>
+      <c r="E15" t="s" s="8">
+        <v>185</v>
+      </c>
+      <c r="F15" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10">
+        <v>3</v>
+      </c>
+      <c r="I15" s="8">
+        <v>13.25</v>
+      </c>
+      <c r="J15" s="8">
+        <v>13.25</v>
+      </c>
+      <c r="K15" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="15.000000" customHeight="1">
+      <c r="A16" s="8">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s" s="8">
+        <v>186</v>
+      </c>
+      <c r="C16" t="s" s="8">
+        <v>187</v>
+      </c>
+      <c r="D16" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s" s="8">
+        <v>105</v>
+      </c>
+      <c r="F16" t="s" s="8">
+        <v>106</v>
+      </c>
+      <c r="G16" s="8">
+        <v>06</v>
+      </c>
+      <c r="H16" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="I16" s="8">
+        <v>11.5</v>
+      </c>
+      <c r="J16" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="K16" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" ht="15.000000" customHeight="1">
+      <c r="A17" s="8">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s" s="8">
+        <v>188</v>
+      </c>
+      <c r="C17" t="s" s="8">
+        <v>189</v>
+      </c>
+      <c r="D17" t="s" s="8">
+        <v>190</v>
+      </c>
+      <c r="E17" t="s" s="8">
+        <v>191</v>
+      </c>
+      <c r="F17" t="s" s="8">
+        <v>192</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
+        <v>13</v>
+      </c>
+      <c r="J17" s="8">
+        <v>14.5</v>
+      </c>
+      <c r="K17" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="L17" t="s" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="15.000000" customHeight="1">
+      <c r="A18" s="8">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s" s="8">
+        <v>193</v>
+      </c>
+      <c r="C18" t="s" s="8">
+        <v>194</v>
+      </c>
+      <c r="D18" t="s" s="8">
+        <v>195</v>
+      </c>
+      <c r="E18" t="s" s="8">
+        <v>196</v>
+      </c>
+      <c r="F18" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10">
+        <v>3</v>
+      </c>
+      <c r="I18" s="8">
+        <v>15.25</v>
+      </c>
+      <c r="J18" s="8">
+        <v>15.25</v>
+      </c>
+      <c r="K18" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="L18" t="s" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="15.019980" customHeight="1">
+      <c r="A19" s="8">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s" s="8">
+        <v>197</v>
+      </c>
+      <c r="C19" t="s" s="8">
+        <v>198</v>
+      </c>
+      <c r="D19" t="s" s="8">
+        <v>199</v>
+      </c>
+      <c r="E19" t="s" s="8">
+        <v>200</v>
+      </c>
+      <c r="F19" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10">
+        <v>2</v>
+      </c>
+      <c r="I19" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="J19" s="8">
+        <v>14.75</v>
+      </c>
+      <c r="K19" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" ht="15.000000" customHeight="1">
+      <c r="A20" s="8">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s" s="8">
+        <v>201</v>
+      </c>
+      <c r="C20" t="s" s="8">
+        <v>202</v>
+      </c>
+      <c r="D20" t="s" s="8">
+        <v>203</v>
+      </c>
+      <c r="E20" t="s" s="8">
+        <v>204</v>
+      </c>
+      <c r="F20" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="I20" s="10">
+        <v>12</v>
+      </c>
+      <c r="J20" s="10">
+        <v>13</v>
+      </c>
+      <c r="K20" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="L20" t="s" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" ht="15.000000" customHeight="1">
+      <c r="A21" s="8">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s" s="8">
+        <v>205</v>
+      </c>
+      <c r="C21" t="s" s="8">
+        <v>206</v>
+      </c>
+      <c r="D21" t="s" s="8">
+        <v>207</v>
+      </c>
+      <c r="E21" t="s" s="8">
+        <v>208</v>
+      </c>
+      <c r="F21" t="s" s="8">
+        <v>101</v>
+      </c>
+      <c r="G21" s="8">
+        <v>03</v>
+      </c>
+      <c r="H21" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="I21" s="8">
+        <v>11.25</v>
+      </c>
+      <c r="J21" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="K21" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="L21" t="s" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" ht="15.000000" customHeight="1">
+      <c r="A22" s="8">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s" s="8">
+        <v>209</v>
+      </c>
+      <c r="C22" t="s" s="8">
+        <v>210</v>
+      </c>
+      <c r="D22" t="s" s="8">
+        <v>211</v>
+      </c>
+      <c r="E22" t="s" s="8">
+        <v>212</v>
+      </c>
+      <c r="F22" t="s" s="8">
+        <v>213</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10">
+        <v>2</v>
+      </c>
+      <c r="I22" s="10">
+        <v>13</v>
+      </c>
+      <c r="J22" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="K22" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="L22" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="15.000000" customHeight="1">
+      <c r="A23" s="8">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s" s="8">
+        <v>214</v>
+      </c>
+      <c r="C23" t="s" s="8">
+        <v>215</v>
+      </c>
+      <c r="D23" t="s" s="8">
+        <v>216</v>
+      </c>
+      <c r="E23" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="F23" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10">
+        <v>2</v>
+      </c>
+      <c r="I23" s="10">
+        <v>12</v>
+      </c>
+      <c r="J23" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="K23" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="L23" t="s" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" ht="15.000000" customHeight="1">
+      <c r="A24" s="8">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s" s="8">
+        <v>217</v>
+      </c>
+      <c r="C24" t="s" s="8">
+        <v>218</v>
+      </c>
+      <c r="D24" t="s" s="8">
+        <v>219</v>
+      </c>
+      <c r="E24" t="s" s="8">
+        <v>220</v>
+      </c>
+      <c r="F24" t="s" s="8">
+        <v>221</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10">
+        <v>2</v>
+      </c>
+      <c r="I24" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="J24" s="8">
+        <v>12.75</v>
+      </c>
+      <c r="K24" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="L24" t="s" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" ht="15.000000" customHeight="1">
+      <c r="A25" s="8">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s" s="8">
+        <v>222</v>
+      </c>
+      <c r="C25" t="s" s="8">
+        <v>223</v>
+      </c>
+      <c r="D25" t="s" s="8">
+        <v>224</v>
+      </c>
+      <c r="E25" t="s" s="8">
+        <v>225</v>
+      </c>
+      <c r="F25" t="s" s="8">
+        <v>226</v>
+      </c>
+      <c r="G25" s="8">
+        <v>01</v>
+      </c>
+      <c r="H25" s="10">
+        <v>1</v>
+      </c>
+      <c r="I25" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="J25" s="10">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="L25" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" ht="15.020000" customHeight="1">
+      <c r="A26" s="8">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s" s="8">
+        <v>227</v>
+      </c>
+      <c r="C26" t="s" s="8">
+        <v>228</v>
+      </c>
+      <c r="D26" t="s" s="8">
+        <v>229</v>
+      </c>
+      <c r="E26" t="s" s="8">
+        <v>196</v>
+      </c>
+      <c r="F26" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10">
+        <v>3</v>
+      </c>
+      <c r="I26" s="10">
+        <v>15</v>
+      </c>
+      <c r="J26" s="10">
+        <v>15</v>
+      </c>
+      <c r="K26" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="L26" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" ht="15.000000" customHeight="1">
+      <c r="A27" s="8">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s" s="8">
+        <v>230</v>
+      </c>
+      <c r="C27" t="s" s="8">
+        <v>231</v>
+      </c>
+      <c r="D27" t="s" s="8">
+        <v>232</v>
+      </c>
+      <c r="E27" t="s" s="8">
+        <v>233</v>
+      </c>
+      <c r="F27" t="s" s="8">
+        <v>234</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="I27" s="8">
+        <v>11.75</v>
+      </c>
+      <c r="J27" s="8">
+        <v>12.75</v>
+      </c>
+      <c r="K27" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="L27" t="s" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" ht="15.000000" customHeight="1">
+      <c r="A28" s="8">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s" s="8">
+        <v>235</v>
+      </c>
+      <c r="C28" t="s" s="8">
+        <v>236</v>
+      </c>
+      <c r="D28" t="s" s="8">
+        <v>237</v>
+      </c>
+      <c r="E28" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10">
+        <v>3</v>
+      </c>
+      <c r="I28" s="10">
+        <v>13</v>
+      </c>
+      <c r="J28" s="10">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="L28" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" ht="15.000020" customHeight="1">
+      <c r="A29" s="8">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s" s="8">
+        <v>238</v>
+      </c>
+      <c r="C29" t="s" s="8">
+        <v>239</v>
+      </c>
+      <c r="D29" t="s" s="8">
+        <v>240</v>
+      </c>
+      <c r="E29" t="s" s="8">
+        <v>241</v>
+      </c>
+      <c r="F29" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10">
+        <v>2</v>
+      </c>
+      <c r="I29" s="8">
+        <v>11.75</v>
+      </c>
+      <c r="J29" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="K29" t="s" s="8">
+        <v>242</v>
+      </c>
+      <c r="L29" t="s" s="8">
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="15.000000" customHeight="1">
-      <c r="A30" s="4">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s" s="4">
-        <v>133</v>
-      </c>
-      <c r="C30" t="s" s="4">
-        <v>134</v>
-      </c>
-      <c r="D30" t="s" s="4">
-        <v>135</v>
-      </c>
-      <c r="E30" t="s" s="4">
-        <v>136</v>
-      </c>
-      <c r="F30" t="s" s="4">
-        <v>137</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="3">
+      <c r="A30" s="8">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s" s="8">
+        <v>243</v>
+      </c>
+      <c r="C30" t="s" s="8">
+        <v>244</v>
+      </c>
+      <c r="D30" t="s" s="8">
+        <v>245</v>
+      </c>
+      <c r="E30" t="s" s="8">
+        <v>246</v>
+      </c>
+      <c r="F30" t="s" s="8">
+        <v>247</v>
+      </c>
+      <c r="G30" s="8">
+        <v>01</v>
+      </c>
+      <c r="H30" s="10">
         <v>1</v>
       </c>
-      <c r="I30" s="3">
-        <v>13</v>
-      </c>
-      <c r="J30" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="K30" t="s" s="4">
-        <v>110</v>
-      </c>
-      <c r="L30" t="s" s="4">
+      <c r="I30" s="8">
+        <v>9.25</v>
+      </c>
+      <c r="J30" s="8">
+        <v>12.75</v>
+      </c>
+      <c r="K30" t="s" s="8">
+        <v>242</v>
+      </c>
+      <c r="L30" t="s" s="8">
         <v>24</v>
       </c>
     </row>
     <row r="31" ht="15.000000" customHeight="1">
-      <c r="A31" s="4">
+      <c r="A31" s="8">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s" s="8">
+        <v>248</v>
+      </c>
+      <c r="C31" t="s" s="8">
+        <v>249</v>
+      </c>
+      <c r="D31" t="s" s="8">
+        <v>250</v>
+      </c>
+      <c r="E31" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F31" t="s" s="8">
         <v>29</v>
       </c>
-      <c r="B31" t="s" s="4">
+      <c r="G31" s="9"/>
+      <c r="H31" s="10">
+        <v>2</v>
+      </c>
+      <c r="I31" s="10">
+        <v>12</v>
+      </c>
+      <c r="J31" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="K31" t="s" s="8">
+        <v>242</v>
+      </c>
+      <c r="L31" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" ht="15.000000" customHeight="1">
+      <c r="A32" s="8">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s" s="8">
+        <v>251</v>
+      </c>
+      <c r="C32" t="s" s="8">
+        <v>252</v>
+      </c>
+      <c r="D32" t="s" s="8">
+        <v>253</v>
+      </c>
+      <c r="E32" t="s" s="8">
+        <v>254</v>
+      </c>
+      <c r="F32" t="s" s="8">
+        <v>45</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10">
+        <v>2</v>
+      </c>
+      <c r="I32" s="10">
+        <v>16</v>
+      </c>
+      <c r="J32" s="8">
+        <v>16.5</v>
+      </c>
+      <c r="K32" t="s" s="8">
+        <v>242</v>
+      </c>
+      <c r="L32" t="s" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" ht="15.023000" customHeight="1">
+      <c r="A33" s="8">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s" s="8">
+        <v>255</v>
+      </c>
+      <c r="C33" t="s" s="8">
+        <v>256</v>
+      </c>
+      <c r="D33" t="s" s="8">
+        <v>257</v>
+      </c>
+      <c r="E33" t="s" s="8">
+        <v>258</v>
+      </c>
+      <c r="F33" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10">
+        <v>2</v>
+      </c>
+      <c r="I33" s="8">
+        <v>11.75</v>
+      </c>
+      <c r="J33" s="8">
+        <v>12.25</v>
+      </c>
+      <c r="K33" t="s" s="8">
+        <v>242</v>
+      </c>
+      <c r="L33" t="s" s="8">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.761905" customWidth="1"/>
+    <col min="2" max="2" width="12.000000" customWidth="1"/>
+    <col min="3" max="3" width="29.142857" customWidth="1"/>
+    <col min="4" max="4" width="12.000000" customWidth="1"/>
+    <col min="5" max="5" width="22.476190" customWidth="1"/>
+    <col min="6" max="6" width="12.952381" customWidth="1"/>
+    <col min="7" max="7" width="5.523810" customWidth="1"/>
+    <col min="8" max="8" width="5.333333" customWidth="1"/>
+    <col min="9" max="9" width="10.666667" customWidth="1"/>
+    <col min="10" max="10" width="10.095238" customWidth="1"/>
+    <col min="11" max="11" width="10.666667" customWidth="1"/>
+    <col min="12" max="12" width="16.380952" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24.390000" customHeight="1">
+      <c r="A1" t="s" s="11">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="11">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="11">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="11">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="15.000000" customHeight="1">
+      <c r="A2" s="13">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s" s="13">
+        <v>259</v>
+      </c>
+      <c r="C2" t="s" s="13">
+        <v>260</v>
+      </c>
+      <c r="D2" t="s" s="13">
+        <v>261</v>
+      </c>
+      <c r="E2" t="s" s="13">
+        <v>262</v>
+      </c>
+      <c r="F2" t="s" s="13">
+        <v>213</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15">
+        <v>2</v>
+      </c>
+      <c r="I2" s="13">
+        <v>13.25</v>
+      </c>
+      <c r="J2" s="13">
+        <v>13.75</v>
+      </c>
+      <c r="K2" t="s" s="13">
+        <v>242</v>
+      </c>
+      <c r="L2" t="s" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="15.000000" customHeight="1">
+      <c r="A3" s="13">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s" s="13">
+        <v>263</v>
+      </c>
+      <c r="C3" t="s" s="13">
+        <v>264</v>
+      </c>
+      <c r="D3" t="s" s="13">
+        <v>265</v>
+      </c>
+      <c r="E3" t="s" s="13">
+        <v>241</v>
+      </c>
+      <c r="F3" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15">
+        <v>2</v>
+      </c>
+      <c r="I3" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="J3" s="15">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s" s="13">
+        <v>242</v>
+      </c>
+      <c r="L3" t="s" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="14.999990" customHeight="1">
+      <c r="A4" s="13">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s" s="13">
+        <v>266</v>
+      </c>
+      <c r="C4" t="s" s="13">
+        <v>267</v>
+      </c>
+      <c r="D4" t="s" s="13">
+        <v>268</v>
+      </c>
+      <c r="E4" t="s" s="13">
+        <v>269</v>
+      </c>
+      <c r="F4" t="s" s="13">
+        <v>192</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15">
+        <v>1</v>
+      </c>
+      <c r="I4" s="15">
+        <v>11</v>
+      </c>
+      <c r="J4" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="K4" t="s" s="13">
+        <v>242</v>
+      </c>
+      <c r="L4" t="s" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="15.030010" customHeight="1">
+      <c r="A5" s="13">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s" s="13">
+        <v>270</v>
+      </c>
+      <c r="C5" t="s" s="13">
+        <v>271</v>
+      </c>
+      <c r="D5" t="s" s="13">
+        <v>272</v>
+      </c>
+      <c r="E5" t="s" s="13">
+        <v>273</v>
+      </c>
+      <c r="F5" t="s" s="13">
+        <v>106</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15">
+        <v>2</v>
+      </c>
+      <c r="I5" s="15">
+        <v>12</v>
+      </c>
+      <c r="J5" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="K5" t="s" s="13">
+        <v>242</v>
+      </c>
+      <c r="L5" t="s" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" ht="15.000000" customHeight="1">
+      <c r="A6" s="13">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s" s="13">
+        <v>274</v>
+      </c>
+      <c r="C6" t="s" s="13">
+        <v>275</v>
+      </c>
+      <c r="D6" t="s" s="13">
+        <v>276</v>
+      </c>
+      <c r="E6" t="s" s="13">
+        <v>277</v>
+      </c>
+      <c r="F6" t="s" s="13">
+        <v>23</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="I6" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="J6" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="K6" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L6" t="s" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="15.000000" customHeight="1">
+      <c r="A7" s="13">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s" s="13">
+        <v>279</v>
+      </c>
+      <c r="C7" t="s" s="13">
+        <v>280</v>
+      </c>
+      <c r="D7" t="s" s="13">
+        <v>281</v>
+      </c>
+      <c r="E7" t="s" s="13">
+        <v>282</v>
+      </c>
+      <c r="F7" t="s" s="13">
+        <v>283</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>3</v>
+      </c>
+      <c r="I7" s="13">
+        <v>14.75</v>
+      </c>
+      <c r="J7" s="13">
+        <v>14.75</v>
+      </c>
+      <c r="K7" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L7" t="s" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="15.000000" customHeight="1">
+      <c r="A8" s="13">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s" s="13">
+        <v>284</v>
+      </c>
+      <c r="C8" t="s" s="13">
+        <v>285</v>
+      </c>
+      <c r="D8" t="s" s="13">
+        <v>286</v>
+      </c>
+      <c r="E8" t="s" s="13">
+        <v>287</v>
+      </c>
+      <c r="F8" t="s" s="13">
+        <v>137</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13">
+        <v>11.75</v>
+      </c>
+      <c r="J8" s="13">
+        <v>13.25</v>
+      </c>
+      <c r="K8" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L8" t="s" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="15.000000" customHeight="1">
+      <c r="A9" s="13">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s" s="13">
+        <v>288</v>
+      </c>
+      <c r="C9" t="s" s="13">
+        <v>289</v>
+      </c>
+      <c r="D9" t="s" s="13">
+        <v>290</v>
+      </c>
+      <c r="E9" t="s" s="13">
+        <v>291</v>
+      </c>
+      <c r="F9" t="s" s="13">
+        <v>192</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13">
+        <v>12.75</v>
+      </c>
+      <c r="J9" s="13">
+        <v>14.25</v>
+      </c>
+      <c r="K9" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L9" t="s" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="15.000000" customHeight="1">
+      <c r="A10" s="13">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s" s="13">
+        <v>292</v>
+      </c>
+      <c r="C10" t="s" s="13">
+        <v>293</v>
+      </c>
+      <c r="D10" t="s" s="13">
+        <v>294</v>
+      </c>
+      <c r="E10" t="s" s="13">
+        <v>295</v>
+      </c>
+      <c r="F10" t="s" s="13">
+        <v>23</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="13">
+        <v>12.75</v>
+      </c>
+      <c r="J10" s="13">
+        <v>14.25</v>
+      </c>
+      <c r="K10" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L10" t="s" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="14.999990" customHeight="1">
+      <c r="A11" s="13">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s" s="13">
+        <v>296</v>
+      </c>
+      <c r="C11" t="s" s="13">
+        <v>297</v>
+      </c>
+      <c r="D11" t="s" s="13">
+        <v>298</v>
+      </c>
+      <c r="E11" t="s" s="13">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s" s="13">
+        <v>101</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="I11" s="13">
+        <v>12.75</v>
+      </c>
+      <c r="J11" s="13">
+        <v>13.75</v>
+      </c>
+      <c r="K11" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L11" t="s" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" ht="15.020020" customHeight="1">
+      <c r="A12" s="13">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s" s="13">
+        <v>299</v>
+      </c>
+      <c r="C12" t="s" s="13">
+        <v>300</v>
+      </c>
+      <c r="D12" t="s" s="13">
+        <v>301</v>
+      </c>
+      <c r="E12" t="s" s="13">
+        <v>302</v>
+      </c>
+      <c r="F12" t="s" s="13">
+        <v>132</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15">
+        <v>1</v>
+      </c>
+      <c r="I12" s="13">
+        <v>11.75</v>
+      </c>
+      <c r="J12" s="13">
+        <v>13.25</v>
+      </c>
+      <c r="K12" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L12" t="s" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="15.000000" customHeight="1">
+      <c r="A13" s="13">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s" s="13">
+        <v>303</v>
+      </c>
+      <c r="C13" t="s" s="13">
+        <v>304</v>
+      </c>
+      <c r="D13" t="s" s="13">
+        <v>305</v>
+      </c>
+      <c r="E13" t="s" s="13">
+        <v>306</v>
+      </c>
+      <c r="F13" t="s" s="13">
+        <v>307</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="I13" s="13">
+        <v>13.25</v>
+      </c>
+      <c r="J13" s="13">
+        <v>14.25</v>
+      </c>
+      <c r="K13" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L13" t="s" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" ht="15.000000" customHeight="1">
+      <c r="A14" s="13">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s" s="13">
+        <v>308</v>
+      </c>
+      <c r="C14" t="s" s="13">
+        <v>309</v>
+      </c>
+      <c r="D14" t="s" s="13">
+        <v>310</v>
+      </c>
+      <c r="E14" t="s" s="13">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15">
+        <v>2</v>
+      </c>
+      <c r="I14" s="13">
+        <v>13.75</v>
+      </c>
+      <c r="J14" s="13">
+        <v>14.25</v>
+      </c>
+      <c r="K14" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L14" t="s" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="15.000000" customHeight="1">
+      <c r="A15" s="13">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s" s="13">
+        <v>311</v>
+      </c>
+      <c r="C15" t="s" s="13">
+        <v>312</v>
+      </c>
+      <c r="D15" t="s" s="13">
+        <v>313</v>
+      </c>
+      <c r="E15" t="s" s="13">
+        <v>314</v>
+      </c>
+      <c r="F15" t="s" s="13">
+        <v>315</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="I15" s="13">
+        <v>14.75</v>
+      </c>
+      <c r="J15" s="13">
+        <v>15.75</v>
+      </c>
+      <c r="K15" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L15" t="s" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="15.000000" customHeight="1">
+      <c r="A16" s="13">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s" s="13">
+        <v>316</v>
+      </c>
+      <c r="C16" t="s" s="13">
+        <v>317</v>
+      </c>
+      <c r="D16" t="s" s="13">
+        <v>318</v>
+      </c>
+      <c r="E16" t="s" s="13">
+        <v>254</v>
+      </c>
+      <c r="F16" t="s" s="13">
+        <v>45</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15">
+        <v>2</v>
+      </c>
+      <c r="I16" s="15">
+        <v>15</v>
+      </c>
+      <c r="J16" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="K16" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L16" t="s" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="15.000000" customHeight="1">
+      <c r="A17" s="13">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s" s="13">
+        <v>319</v>
+      </c>
+      <c r="C17" t="s" s="13">
+        <v>320</v>
+      </c>
+      <c r="D17" t="s" s="13">
+        <v>321</v>
+      </c>
+      <c r="E17" t="s" s="13">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15">
+        <v>2</v>
+      </c>
+      <c r="I17" s="13">
+        <v>12.75</v>
+      </c>
+      <c r="J17" s="13">
+        <v>13.25</v>
+      </c>
+      <c r="K17" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L17" t="s" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="15.000000" customHeight="1">
+      <c r="A18" s="13">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s" s="13">
+        <v>322</v>
+      </c>
+      <c r="C18" t="s" s="13">
+        <v>323</v>
+      </c>
+      <c r="D18" t="s" s="13">
+        <v>324</v>
+      </c>
+      <c r="E18" t="s" s="13">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s" s="13">
+        <v>45</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="I18" s="13">
+        <v>13.25</v>
+      </c>
+      <c r="J18" s="13">
+        <v>14.25</v>
+      </c>
+      <c r="K18" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L18" t="s" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" ht="15.019980" customHeight="1">
+      <c r="A19" s="13">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s" s="13">
+        <v>325</v>
+      </c>
+      <c r="C19" t="s" s="13">
+        <v>326</v>
+      </c>
+      <c r="D19" t="s" s="13">
+        <v>327</v>
+      </c>
+      <c r="E19" t="s" s="13">
+        <v>328</v>
+      </c>
+      <c r="F19" t="s" s="13">
+        <v>329</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15">
+        <v>1</v>
+      </c>
+      <c r="I19" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="J19" s="15">
+        <v>15</v>
+      </c>
+      <c r="K19" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L19" t="s" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="15.000000" customHeight="1">
+      <c r="A20" s="13">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s" s="13">
+        <v>330</v>
+      </c>
+      <c r="C20" t="s" s="13">
+        <v>331</v>
+      </c>
+      <c r="D20" t="s" s="13">
+        <v>332</v>
+      </c>
+      <c r="E20" t="s" s="13">
+        <v>333</v>
+      </c>
+      <c r="F20" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15">
+        <v>2</v>
+      </c>
+      <c r="I20" s="15">
+        <v>15</v>
+      </c>
+      <c r="J20" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="K20" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L20" t="s" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" ht="15.000000" customHeight="1">
+      <c r="A21" s="13">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s" s="13">
+        <v>334</v>
+      </c>
+      <c r="C21" t="s" s="13">
+        <v>335</v>
+      </c>
+      <c r="D21" t="s" s="13">
+        <v>336</v>
+      </c>
+      <c r="E21" t="s" s="13">
+        <v>337</v>
+      </c>
+      <c r="F21" t="s" s="13">
+        <v>132</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15">
+        <v>1</v>
+      </c>
+      <c r="I21" s="13">
+        <v>12.75</v>
+      </c>
+      <c r="J21" s="13">
+        <v>14.25</v>
+      </c>
+      <c r="K21" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L21" t="s" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" ht="15.000000" customHeight="1">
+      <c r="A22" s="13">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s" s="13">
+        <v>338</v>
+      </c>
+      <c r="C22" t="s" s="13">
+        <v>339</v>
+      </c>
+      <c r="D22" t="s" s="13">
+        <v>340</v>
+      </c>
+      <c r="E22" t="s" s="13">
+        <v>204</v>
+      </c>
+      <c r="F22" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="I22" s="13">
+        <v>13.25</v>
+      </c>
+      <c r="J22" s="13">
+        <v>14.25</v>
+      </c>
+      <c r="K22" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L22" t="s" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="15.000000" customHeight="1">
+      <c r="A23" s="13">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s" s="13">
+        <v>341</v>
+      </c>
+      <c r="C23" t="s" s="13">
+        <v>342</v>
+      </c>
+      <c r="D23" t="s" s="13">
+        <v>343</v>
+      </c>
+      <c r="E23" t="s" s="13">
+        <v>262</v>
+      </c>
+      <c r="F23" t="s" s="13">
+        <v>213</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15">
+        <v>2</v>
+      </c>
+      <c r="I23" s="13">
+        <v>14.25</v>
+      </c>
+      <c r="J23" s="13">
+        <v>14.75</v>
+      </c>
+      <c r="K23" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L23" t="s" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" ht="15.000000" customHeight="1">
+      <c r="A24" s="13">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s" s="13">
+        <v>344</v>
+      </c>
+      <c r="C24" t="s" s="13">
+        <v>345</v>
+      </c>
+      <c r="D24" t="s" s="13">
+        <v>346</v>
+      </c>
+      <c r="E24" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s" s="13">
+        <v>23</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15">
+        <v>2</v>
+      </c>
+      <c r="I24" s="13">
+        <v>13.75</v>
+      </c>
+      <c r="J24" s="13">
+        <v>14.25</v>
+      </c>
+      <c r="K24" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L24" t="s" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="15.000000" customHeight="1">
+      <c r="A25" s="13">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s" s="13">
+        <v>347</v>
+      </c>
+      <c r="C25" t="s" s="13">
+        <v>348</v>
+      </c>
+      <c r="D25" t="s" s="13">
+        <v>349</v>
+      </c>
+      <c r="E25" t="s" s="13">
+        <v>350</v>
+      </c>
+      <c r="F25" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15">
+        <v>2</v>
+      </c>
+      <c r="I25" s="13">
+        <v>14.75</v>
+      </c>
+      <c r="J25" s="13">
+        <v>15.25</v>
+      </c>
+      <c r="K25" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L25" t="s" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" ht="15.020000" customHeight="1">
+      <c r="A26" s="13">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s" s="13">
+        <v>351</v>
+      </c>
+      <c r="C26" t="s" s="13">
+        <v>352</v>
+      </c>
+      <c r="D26" t="s" s="13">
+        <v>353</v>
+      </c>
+      <c r="E26" t="s" s="13">
+        <v>258</v>
+      </c>
+      <c r="F26" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15">
+        <v>2</v>
+      </c>
+      <c r="I26" s="13">
+        <v>12.75</v>
+      </c>
+      <c r="J26" s="13">
+        <v>13.25</v>
+      </c>
+      <c r="K26" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L26" t="s" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" ht="15.000000" customHeight="1">
+      <c r="A27" s="13">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s" s="13">
+        <v>354</v>
+      </c>
+      <c r="C27" t="s" s="13">
+        <v>355</v>
+      </c>
+      <c r="D27" t="s" s="13">
+        <v>343</v>
+      </c>
+      <c r="E27" t="s" s="13">
+        <v>356</v>
+      </c>
+      <c r="F27" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15">
+        <v>3</v>
+      </c>
+      <c r="I27" s="13">
+        <v>14.75</v>
+      </c>
+      <c r="J27" s="13">
+        <v>14.75</v>
+      </c>
+      <c r="K27" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L27" t="s" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" ht="15.000000" customHeight="1">
+      <c r="A28" s="13">
+        <v>86</v>
+      </c>
+      <c r="B28" t="s" s="13">
+        <v>357</v>
+      </c>
+      <c r="C28" t="s" s="13">
+        <v>358</v>
+      </c>
+      <c r="D28" t="s" s="13">
+        <v>359</v>
+      </c>
+      <c r="E28" t="s" s="13">
+        <v>360</v>
+      </c>
+      <c r="F28" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15">
+        <v>2</v>
+      </c>
+      <c r="I28" s="13">
+        <v>14.25</v>
+      </c>
+      <c r="J28" s="13">
+        <v>14.75</v>
+      </c>
+      <c r="K28" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L28" t="s" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" ht="15.000020" customHeight="1">
+      <c r="A29" s="13">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s" s="13">
+        <v>361</v>
+      </c>
+      <c r="C29" t="s" s="13">
+        <v>362</v>
+      </c>
+      <c r="D29" t="s" s="13">
+        <v>363</v>
+      </c>
+      <c r="E29" t="s" s="13">
+        <v>364</v>
+      </c>
+      <c r="F29" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15">
+        <v>2</v>
+      </c>
+      <c r="I29" s="15">
+        <v>13</v>
+      </c>
+      <c r="J29" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="K29" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L29" t="s" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" ht="15.000000" customHeight="1">
+      <c r="A30" s="13">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s" s="13">
+        <v>365</v>
+      </c>
+      <c r="C30" t="s" s="13">
+        <v>366</v>
+      </c>
+      <c r="D30" t="s" s="13">
+        <v>367</v>
+      </c>
+      <c r="E30" t="s" s="13">
+        <v>368</v>
+      </c>
+      <c r="F30" t="s" s="13">
+        <v>369</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15">
+        <v>1</v>
+      </c>
+      <c r="I30" s="13">
+        <v>13.25</v>
+      </c>
+      <c r="J30" s="13">
+        <v>14.75</v>
+      </c>
+      <c r="K30" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L30" t="s" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" ht="15.000000" customHeight="1">
+      <c r="A31" s="13">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s" s="13">
+        <v>370</v>
+      </c>
+      <c r="C31" t="s" s="13">
+        <v>371</v>
+      </c>
+      <c r="D31" t="s" s="13">
+        <v>372</v>
+      </c>
+      <c r="E31" t="s" s="13">
+        <v>291</v>
+      </c>
+      <c r="F31" t="s" s="13">
+        <v>192</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15">
+        <v>1</v>
+      </c>
+      <c r="I31" s="15">
+        <v>13</v>
+      </c>
+      <c r="J31" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="K31" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L31" t="s" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" ht="15.000000" customHeight="1">
+      <c r="A32" s="13">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s" s="13">
+        <v>373</v>
+      </c>
+      <c r="C32" t="s" s="13">
+        <v>374</v>
+      </c>
+      <c r="D32" t="s" s="13">
+        <v>375</v>
+      </c>
+      <c r="E32" t="s" s="13">
+        <v>376</v>
+      </c>
+      <c r="F32" t="s" s="13">
+        <v>377</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15">
+        <v>1</v>
+      </c>
+      <c r="I32" s="15">
+        <v>12</v>
+      </c>
+      <c r="J32" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="K32" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L32" t="s" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" ht="15.023000" customHeight="1">
+      <c r="A33" s="13">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s" s="13">
+        <v>378</v>
+      </c>
+      <c r="C33" t="s" s="13">
+        <v>379</v>
+      </c>
+      <c r="D33" t="s" s="13">
+        <v>380</v>
+      </c>
+      <c r="E33" t="s" s="13">
+        <v>314</v>
+      </c>
+      <c r="F33" t="s" s="13">
+        <v>315</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="I33" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="J33" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="K33" t="s" s="13">
+        <v>278</v>
+      </c>
+      <c r="L33" t="s" s="13">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.761905" customWidth="1"/>
+    <col min="2" max="2" width="12.000000" customWidth="1"/>
+    <col min="3" max="3" width="29.142857" customWidth="1"/>
+    <col min="4" max="4" width="12.000000" customWidth="1"/>
+    <col min="5" max="5" width="22.476190" customWidth="1"/>
+    <col min="6" max="6" width="12.952381" customWidth="1"/>
+    <col min="7" max="7" width="5.523810" customWidth="1"/>
+    <col min="8" max="8" width="5.333333" customWidth="1"/>
+    <col min="9" max="9" width="10.666667" customWidth="1"/>
+    <col min="10" max="10" width="10.095238" customWidth="1"/>
+    <col min="11" max="11" width="10.666667" customWidth="1"/>
+    <col min="12" max="12" width="16.380952" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24.390000" customHeight="1">
+      <c r="A1" t="s" s="16">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="16">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="16">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="16">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="16">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="16">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="16">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="17">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="16">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="16">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="15.000000" customHeight="1">
+      <c r="A2" s="18">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s" s="18">
+        <v>381</v>
+      </c>
+      <c r="C2" t="s" s="18">
+        <v>382</v>
+      </c>
+      <c r="D2" t="s" s="18">
+        <v>383</v>
+      </c>
+      <c r="E2" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="F2" t="s" s="18">
+        <v>101</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" t="s" s="18">
+        <v>36</v>
+      </c>
+      <c r="I2" s="18">
+        <v>13.75</v>
+      </c>
+      <c r="J2" s="18">
+        <v>14.75</v>
+      </c>
+      <c r="K2" t="s" s="18">
+        <v>278</v>
+      </c>
+      <c r="L2" t="s" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="15.000000" customHeight="1">
+      <c r="A3" s="18">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s" s="18">
+        <v>384</v>
+      </c>
+      <c r="C3" t="s" s="18">
+        <v>385</v>
+      </c>
+      <c r="D3" t="s" s="18">
+        <v>386</v>
+      </c>
+      <c r="E3" t="s" s="18">
+        <v>258</v>
+      </c>
+      <c r="F3" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20">
+        <v>2</v>
+      </c>
+      <c r="I3" s="20">
+        <v>14</v>
+      </c>
+      <c r="J3" s="18">
+        <v>14.5</v>
+      </c>
+      <c r="K3" t="s" s="18">
+        <v>278</v>
+      </c>
+      <c r="L3" t="s" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="14.999990" customHeight="1">
+      <c r="A4" s="18">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s" s="18">
+        <v>387</v>
+      </c>
+      <c r="C4" t="s" s="18">
+        <v>388</v>
+      </c>
+      <c r="D4" t="s" s="18">
+        <v>389</v>
+      </c>
+      <c r="E4" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20">
+        <v>2</v>
+      </c>
+      <c r="I4" s="18">
+        <v>13.25</v>
+      </c>
+      <c r="J4" s="18">
+        <v>13.75</v>
+      </c>
+      <c r="K4" t="s" s="18">
+        <v>278</v>
+      </c>
+      <c r="L4" t="s" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" ht="15.030010" customHeight="1">
+      <c r="A5" s="18">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s" s="18">
+        <v>390</v>
+      </c>
+      <c r="C5" t="s" s="18">
+        <v>391</v>
+      </c>
+      <c r="D5" t="s" s="18">
+        <v>199</v>
+      </c>
+      <c r="E5" t="s" s="18">
+        <v>392</v>
+      </c>
+      <c r="F5" t="s" s="18">
+        <v>213</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20">
+        <v>1</v>
+      </c>
+      <c r="I5" s="20">
+        <v>13</v>
+      </c>
+      <c r="J5" s="18">
+        <v>14.5</v>
+      </c>
+      <c r="K5" t="s" s="18">
+        <v>278</v>
+      </c>
+      <c r="L5" t="s" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" ht="15.000000" customHeight="1">
+      <c r="A6" s="18">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s" s="18">
+        <v>393</v>
+      </c>
+      <c r="C6" t="s" s="18">
+        <v>394</v>
+      </c>
+      <c r="D6" t="s" s="18">
+        <v>395</v>
+      </c>
+      <c r="E6" t="s" s="18">
+        <v>396</v>
+      </c>
+      <c r="F6" t="s" s="18">
+        <v>234</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" t="s" s="18">
+        <v>36</v>
+      </c>
+      <c r="I6" s="18">
+        <v>13.75</v>
+      </c>
+      <c r="J6" s="18">
+        <v>14.75</v>
+      </c>
+      <c r="K6" t="s" s="18">
+        <v>278</v>
+      </c>
+      <c r="L6" t="s" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="15.000000" customHeight="1">
+      <c r="A7" s="18">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s" s="18">
+        <v>397</v>
+      </c>
+      <c r="C7" t="s" s="18">
+        <v>398</v>
+      </c>
+      <c r="D7" t="s" s="18">
+        <v>399</v>
+      </c>
+      <c r="E7" t="s" s="18">
+        <v>196</v>
+      </c>
+      <c r="F7" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20">
+        <v>3</v>
+      </c>
+      <c r="I7" s="18">
+        <v>12.25</v>
+      </c>
+      <c r="J7" s="18">
+        <v>12.25</v>
+      </c>
+      <c r="K7" t="s" s="18">
+        <v>400</v>
+      </c>
+      <c r="L7" t="s" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="15.000000" customHeight="1">
+      <c r="A8" s="18">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s" s="18">
+        <v>401</v>
+      </c>
+      <c r="C8" t="s" s="18">
+        <v>402</v>
+      </c>
+      <c r="D8" t="s" s="18">
+        <v>403</v>
+      </c>
+      <c r="E8" t="s" s="18">
+        <v>200</v>
+      </c>
+      <c r="F8" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18">
+        <v>12.25</v>
+      </c>
+      <c r="J8" s="18">
+        <v>12.75</v>
+      </c>
+      <c r="K8" t="s" s="18">
+        <v>400</v>
+      </c>
+      <c r="L8" t="s" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="15.000000" customHeight="1">
+      <c r="A9" s="18">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s" s="18">
+        <v>404</v>
+      </c>
+      <c r="C9" t="s" s="18">
+        <v>405</v>
+      </c>
+      <c r="D9" t="s" s="18">
+        <v>406</v>
+      </c>
+      <c r="E9" t="s" s="18">
+        <v>407</v>
+      </c>
+      <c r="F9" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20">
+        <v>2</v>
+      </c>
+      <c r="I9" s="20">
+        <v>12</v>
+      </c>
+      <c r="J9" s="18">
+        <v>12.5</v>
+      </c>
+      <c r="K9" t="s" s="18">
+        <v>400</v>
+      </c>
+      <c r="L9" t="s" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="15.000000" customHeight="1">
+      <c r="A10" s="18">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s" s="18">
+        <v>408</v>
+      </c>
+      <c r="C10" t="s" s="18">
+        <v>409</v>
+      </c>
+      <c r="D10" t="s" s="18">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s" s="18">
+        <v>410</v>
+      </c>
+      <c r="F10" t="s" s="18">
+        <v>137</v>
+      </c>
+      <c r="G10" s="18">
+        <v>01</v>
+      </c>
+      <c r="H10" s="20">
+        <v>1</v>
+      </c>
+      <c r="I10" s="20">
+        <v>9</v>
+      </c>
+      <c r="J10" s="18">
+        <v>12.5</v>
+      </c>
+      <c r="K10" t="s" s="18">
+        <v>400</v>
+      </c>
+      <c r="L10" t="s" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="14.999990" customHeight="1">
+      <c r="A11" s="18">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s" s="18">
+        <v>411</v>
+      </c>
+      <c r="C11" t="s" s="18">
+        <v>412</v>
+      </c>
+      <c r="D11" t="s" s="18">
+        <v>413</v>
+      </c>
+      <c r="E11" t="s" s="18">
+        <v>414</v>
+      </c>
+      <c r="F11" t="s" s="18">
+        <v>247</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20">
+        <v>1</v>
+      </c>
+      <c r="I11" s="20">
+        <v>11</v>
+      </c>
+      <c r="J11" s="18">
+        <v>12.5</v>
+      </c>
+      <c r="K11" t="s" s="18">
+        <v>400</v>
+      </c>
+      <c r="L11" t="s" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" ht="15.020020" customHeight="1">
+      <c r="A12" s="18">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s" s="18">
+        <v>415</v>
+      </c>
+      <c r="C12" t="s" s="18">
+        <v>416</v>
+      </c>
+      <c r="D12" t="s" s="18">
+        <v>417</v>
+      </c>
+      <c r="E12" t="s" s="18">
+        <v>418</v>
+      </c>
+      <c r="F12" t="s" s="18">
+        <v>192</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20">
+        <v>1</v>
+      </c>
+      <c r="I12" s="20">
+        <v>12</v>
+      </c>
+      <c r="J12" s="18">
+        <v>13.5</v>
+      </c>
+      <c r="K12" t="s" s="18">
+        <v>400</v>
+      </c>
+      <c r="L12" t="s" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="15.000000" customHeight="1">
+      <c r="A13" s="18">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s" s="18">
+        <v>419</v>
+      </c>
+      <c r="C13" t="s" s="18">
+        <v>420</v>
+      </c>
+      <c r="D13" t="s" s="18">
+        <v>421</v>
+      </c>
+      <c r="E13" t="s" s="18">
+        <v>422</v>
+      </c>
+      <c r="F13" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20">
+        <v>2</v>
+      </c>
+      <c r="I13" s="18">
+        <v>11.5</v>
+      </c>
+      <c r="J13" s="20">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s" s="18">
+        <v>400</v>
+      </c>
+      <c r="L13" t="s" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="15.000000" customHeight="1">
+      <c r="A14" s="18">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s" s="18">
+        <v>423</v>
+      </c>
+      <c r="C14" t="s" s="18">
+        <v>424</v>
+      </c>
+      <c r="D14" t="s" s="18">
+        <v>425</v>
+      </c>
+      <c r="E14" t="s" s="18">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20">
+        <v>2</v>
+      </c>
+      <c r="I14" s="20">
+        <v>13</v>
+      </c>
+      <c r="J14" s="18">
+        <v>13.5</v>
+      </c>
+      <c r="K14" t="s" s="18">
+        <v>400</v>
+      </c>
+      <c r="L14" t="s" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="15.000000" customHeight="1">
+      <c r="A15" s="18">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s" s="18">
+        <v>426</v>
+      </c>
+      <c r="C15" t="s" s="18">
+        <v>427</v>
+      </c>
+      <c r="D15" t="s" s="18">
+        <v>151</v>
+      </c>
+      <c r="E15" t="s" s="18">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20">
+        <v>2</v>
+      </c>
+      <c r="I15" s="20">
+        <v>12</v>
+      </c>
+      <c r="J15" s="18">
+        <v>12.5</v>
+      </c>
+      <c r="K15" t="s" s="18">
+        <v>400</v>
+      </c>
+      <c r="L15" t="s" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="15.000000" customHeight="1">
+      <c r="A16" s="18">
+        <v>106</v>
+      </c>
+      <c r="B16" t="s" s="18">
+        <v>428</v>
+      </c>
+      <c r="C16" t="s" s="18">
+        <v>429</v>
+      </c>
+      <c r="D16" t="s" s="18">
+        <v>430</v>
+      </c>
+      <c r="E16" t="s" s="18">
+        <v>431</v>
+      </c>
+      <c r="F16" t="s" s="18">
+        <v>432</v>
+      </c>
+      <c r="G16" s="18">
+        <v>01</v>
+      </c>
+      <c r="H16" s="20">
+        <v>1</v>
+      </c>
+      <c r="I16" s="18">
+        <v>10.25</v>
+      </c>
+      <c r="J16" s="18">
+        <v>13.75</v>
+      </c>
+      <c r="K16" t="s" s="18">
+        <v>400</v>
+      </c>
+      <c r="L16" t="s" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" ht="15.000000" customHeight="1">
+      <c r="A17" s="18">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s" s="18">
+        <v>433</v>
+      </c>
+      <c r="C17" t="s" s="18">
+        <v>434</v>
+      </c>
+      <c r="D17" t="s" s="18">
+        <v>435</v>
+      </c>
+      <c r="E17" t="s" s="18">
+        <v>241</v>
+      </c>
+      <c r="F17" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20">
+        <v>2</v>
+      </c>
+      <c r="I17" s="18">
+        <v>11.5</v>
+      </c>
+      <c r="J17" s="20">
+        <v>12</v>
+      </c>
+      <c r="K17" t="s" s="18">
+        <v>436</v>
+      </c>
+      <c r="L17" t="s" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="15.000000" customHeight="1">
+      <c r="A18" s="18">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s" s="18">
+        <v>437</v>
+      </c>
+      <c r="C18" t="s" s="18">
+        <v>438</v>
+      </c>
+      <c r="D18" t="s" s="18">
+        <v>439</v>
+      </c>
+      <c r="E18" t="s" s="18">
+        <v>273</v>
+      </c>
+      <c r="F18" t="s" s="18">
+        <v>106</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20">
+        <v>2</v>
+      </c>
+      <c r="I18" s="18">
+        <v>13.25</v>
+      </c>
+      <c r="J18" s="18">
+        <v>13.75</v>
+      </c>
+      <c r="K18" t="s" s="18">
+        <v>436</v>
+      </c>
+      <c r="L18" t="s" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" ht="15.019980" customHeight="1">
+      <c r="A19" s="18">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s" s="18">
+        <v>440</v>
+      </c>
+      <c r="C19" t="s" s="18">
+        <v>441</v>
+      </c>
+      <c r="D19" t="s" s="18">
+        <v>442</v>
+      </c>
+      <c r="E19" t="s" s="18">
+        <v>443</v>
+      </c>
+      <c r="F19" t="s" s="18">
+        <v>213</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20">
+        <v>2</v>
+      </c>
+      <c r="I19" s="18">
+        <v>11.75</v>
+      </c>
+      <c r="J19" s="18">
+        <v>12.25</v>
+      </c>
+      <c r="K19" t="s" s="18">
+        <v>436</v>
+      </c>
+      <c r="L19" t="s" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="15.000000" customHeight="1">
+      <c r="A20" s="18">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s" s="18">
+        <v>444</v>
+      </c>
+      <c r="C20" t="s" s="18">
+        <v>445</v>
+      </c>
+      <c r="D20" t="s" s="18">
+        <v>446</v>
+      </c>
+      <c r="E20" t="s" s="18">
+        <v>196</v>
+      </c>
+      <c r="F20" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20">
+        <v>3</v>
+      </c>
+      <c r="I20" s="18">
+        <v>13.75</v>
+      </c>
+      <c r="J20" s="18">
+        <v>13.75</v>
+      </c>
+      <c r="K20" t="s" s="18">
+        <v>436</v>
+      </c>
+      <c r="L20" t="s" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="15.000000" customHeight="1">
+      <c r="A21" s="18">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s" s="18">
+        <v>447</v>
+      </c>
+      <c r="C21" t="s" s="18">
+        <v>448</v>
+      </c>
+      <c r="D21" t="s" s="18">
+        <v>324</v>
+      </c>
+      <c r="E21" t="s" s="18">
+        <v>449</v>
+      </c>
+      <c r="F21" t="s" s="18">
+        <v>106</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" t="s" s="18">
+        <v>36</v>
+      </c>
+      <c r="I21" s="20">
+        <v>14</v>
+      </c>
+      <c r="J21" s="20">
+        <v>15</v>
+      </c>
+      <c r="K21" t="s" s="18">
+        <v>450</v>
+      </c>
+      <c r="L21" t="s" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" ht="15.000000" customHeight="1">
+      <c r="A22" s="18">
+        <v>112</v>
+      </c>
+      <c r="B22" t="s" s="18">
+        <v>451</v>
+      </c>
+      <c r="C22" t="s" s="18">
+        <v>452</v>
+      </c>
+      <c r="D22" t="s" s="18">
+        <v>453</v>
+      </c>
+      <c r="E22" t="s" s="18">
+        <v>196</v>
+      </c>
+      <c r="F22" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20">
+        <v>3</v>
+      </c>
+      <c r="I22" s="18">
+        <v>17.25</v>
+      </c>
+      <c r="J22" s="18">
+        <v>17.25</v>
+      </c>
+      <c r="K22" t="s" s="18">
+        <v>450</v>
+      </c>
+      <c r="L22" t="s" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" ht="15.000000" customHeight="1">
+      <c r="A23" s="18">
+        <v>113</v>
+      </c>
+      <c r="B23" t="s" s="18">
+        <v>454</v>
+      </c>
+      <c r="C23" t="s" s="18">
+        <v>455</v>
+      </c>
+      <c r="D23" t="s" s="18">
+        <v>456</v>
+      </c>
+      <c r="E23" t="s" s="18">
+        <v>457</v>
+      </c>
+      <c r="F23" t="s" s="18">
+        <v>213</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20">
+        <v>1</v>
+      </c>
+      <c r="I23" s="18">
+        <v>13.25</v>
+      </c>
+      <c r="J23" s="18">
+        <v>14.75</v>
+      </c>
+      <c r="K23" t="s" s="18">
+        <v>450</v>
+      </c>
+      <c r="L23" t="s" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" ht="15.000000" customHeight="1">
+      <c r="A24" s="18">
+        <v>114</v>
+      </c>
+      <c r="B24" t="s" s="18">
+        <v>458</v>
+      </c>
+      <c r="C24" t="s" s="18">
+        <v>459</v>
+      </c>
+      <c r="D24" t="s" s="18">
+        <v>460</v>
+      </c>
+      <c r="E24" t="s" s="18">
+        <v>350</v>
+      </c>
+      <c r="F24" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20">
+        <v>3</v>
+      </c>
+      <c r="I24" s="18">
+        <v>14.75</v>
+      </c>
+      <c r="J24" s="18">
+        <v>14.75</v>
+      </c>
+      <c r="K24" t="s" s="18">
+        <v>450</v>
+      </c>
+      <c r="L24" t="s" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" ht="15.000000" customHeight="1">
+      <c r="A25" s="18">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s" s="18">
+        <v>461</v>
+      </c>
+      <c r="C25" t="s" s="18">
+        <v>462</v>
+      </c>
+      <c r="D25" t="s" s="18">
+        <v>406</v>
+      </c>
+      <c r="E25" t="s" s="18">
+        <v>291</v>
+      </c>
+      <c r="F25" t="s" s="18">
+        <v>192</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20">
+        <v>1</v>
+      </c>
+      <c r="I25" s="20">
+        <v>13</v>
+      </c>
+      <c r="J25" s="18">
+        <v>14.5</v>
+      </c>
+      <c r="K25" t="s" s="18">
+        <v>450</v>
+      </c>
+      <c r="L25" t="s" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" ht="15.020000" customHeight="1">
+      <c r="A26" s="18">
+        <v>116</v>
+      </c>
+      <c r="B26" t="s" s="18">
+        <v>463</v>
+      </c>
+      <c r="C26" t="s" s="18">
+        <v>464</v>
+      </c>
+      <c r="D26" t="s" s="18">
+        <v>113</v>
+      </c>
+      <c r="E26" t="s" s="18">
+        <v>208</v>
+      </c>
+      <c r="F26" t="s" s="18">
+        <v>101</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" t="s" s="18">
+        <v>36</v>
+      </c>
+      <c r="I26" s="20">
+        <v>14</v>
+      </c>
+      <c r="J26" s="20">
+        <v>15</v>
+      </c>
+      <c r="K26" t="s" s="18">
+        <v>450</v>
+      </c>
+      <c r="L26" t="s" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" ht="15.000000" customHeight="1">
+      <c r="A27" s="18">
+        <v>117</v>
+      </c>
+      <c r="B27" t="s" s="18">
+        <v>465</v>
+      </c>
+      <c r="C27" t="s" s="18">
+        <v>466</v>
+      </c>
+      <c r="D27" t="s" s="18">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s" s="18">
+        <v>333</v>
+      </c>
+      <c r="F27" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20">
+        <v>3</v>
+      </c>
+      <c r="I27" s="18">
+        <v>14.5</v>
+      </c>
+      <c r="J27" s="18">
+        <v>14.5</v>
+      </c>
+      <c r="K27" t="s" s="18">
+        <v>450</v>
+      </c>
+      <c r="L27" t="s" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" ht="15.000000" customHeight="1">
+      <c r="A28" s="18">
+        <v>118</v>
+      </c>
+      <c r="B28" t="s" s="18">
+        <v>467</v>
+      </c>
+      <c r="C28" t="s" s="18">
+        <v>468</v>
+      </c>
+      <c r="D28" t="s" s="18">
+        <v>469</v>
+      </c>
+      <c r="E28" t="s" s="18">
+        <v>470</v>
+      </c>
+      <c r="F28" t="s" s="18">
+        <v>471</v>
+      </c>
+      <c r="G28" s="18">
+        <v>01</v>
+      </c>
+      <c r="H28" s="20">
+        <v>1</v>
+      </c>
+      <c r="I28" s="18">
+        <v>11.75</v>
+      </c>
+      <c r="J28" s="18">
+        <v>15.25</v>
+      </c>
+      <c r="K28" t="s" s="18">
+        <v>450</v>
+      </c>
+      <c r="L28" t="s" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" ht="15.000020" customHeight="1">
+      <c r="A29" s="18">
+        <v>119</v>
+      </c>
+      <c r="B29" t="s" s="18">
+        <v>472</v>
+      </c>
+      <c r="C29" t="s" s="18">
+        <v>473</v>
+      </c>
+      <c r="D29" t="s" s="18">
+        <v>147</v>
+      </c>
+      <c r="E29" t="s" s="18">
+        <v>177</v>
+      </c>
+      <c r="F29" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20">
+        <v>3</v>
+      </c>
+      <c r="I29" s="20">
+        <v>15</v>
+      </c>
+      <c r="J29" s="20">
+        <v>15</v>
+      </c>
+      <c r="K29" t="s" s="18">
+        <v>450</v>
+      </c>
+      <c r="L29" t="s" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" ht="15.000000" customHeight="1">
+      <c r="A30" s="18">
+        <v>120</v>
+      </c>
+      <c r="B30" t="s" s="18">
+        <v>474</v>
+      </c>
+      <c r="C30" t="s" s="18">
+        <v>475</v>
+      </c>
+      <c r="D30" t="s" s="18">
+        <v>476</v>
+      </c>
+      <c r="E30" t="s" s="18">
+        <v>155</v>
+      </c>
+      <c r="F30" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20">
+        <v>2</v>
+      </c>
+      <c r="I30" s="18">
+        <v>16.5</v>
+      </c>
+      <c r="J30" s="20">
+        <v>17</v>
+      </c>
+      <c r="K30" t="s" s="18">
+        <v>450</v>
+      </c>
+      <c r="L30" t="s" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" ht="15.000000" customHeight="1">
+      <c r="A31" s="18">
+        <v>121</v>
+      </c>
+      <c r="B31" t="s" s="18">
+        <v>477</v>
+      </c>
+      <c r="C31" t="s" s="18">
+        <v>478</v>
+      </c>
+      <c r="D31" t="s" s="18">
+        <v>435</v>
+      </c>
+      <c r="E31" t="s" s="18">
+        <v>258</v>
+      </c>
+      <c r="F31" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20">
+        <v>2</v>
+      </c>
+      <c r="I31" s="18">
+        <v>14.5</v>
+      </c>
+      <c r="J31" s="20">
+        <v>15</v>
+      </c>
+      <c r="K31" t="s" s="18">
+        <v>450</v>
+      </c>
+      <c r="L31" t="s" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" ht="15.000000" customHeight="1">
+      <c r="A32" s="18">
+        <v>122</v>
+      </c>
+      <c r="B32" t="s" s="18">
+        <v>479</v>
+      </c>
+      <c r="C32" t="s" s="18">
+        <v>480</v>
+      </c>
+      <c r="D32" t="s" s="18">
+        <v>240</v>
+      </c>
+      <c r="E32" t="s" s="18">
+        <v>262</v>
+      </c>
+      <c r="F32" t="s" s="18">
+        <v>213</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20">
+        <v>2</v>
+      </c>
+      <c r="I32" s="18">
+        <v>14.25</v>
+      </c>
+      <c r="J32" s="18">
+        <v>14.75</v>
+      </c>
+      <c r="K32" t="s" s="18">
+        <v>450</v>
+      </c>
+      <c r="L32" t="s" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" ht="15.023000" customHeight="1">
+      <c r="A33" s="18">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s" s="18">
+        <v>481</v>
+      </c>
+      <c r="C33" t="s" s="18">
+        <v>482</v>
+      </c>
+      <c r="D33" t="s" s="18">
+        <v>483</v>
+      </c>
+      <c r="E33" t="s" s="18">
+        <v>484</v>
+      </c>
+      <c r="F33" t="s" s="18">
+        <v>315</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" t="s" s="18">
+        <v>36</v>
+      </c>
+      <c r="I33" s="20">
+        <v>14</v>
+      </c>
+      <c r="J33" s="20">
+        <v>15</v>
+      </c>
+      <c r="K33" t="s" s="18">
+        <v>450</v>
+      </c>
+      <c r="L33" t="s" s="18">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.761905" customWidth="1"/>
+    <col min="2" max="2" width="12.000000" customWidth="1"/>
+    <col min="3" max="3" width="29.142857" customWidth="1"/>
+    <col min="4" max="4" width="12.000000" customWidth="1"/>
+    <col min="5" max="5" width="22.476190" customWidth="1"/>
+    <col min="6" max="6" width="12.952381" customWidth="1"/>
+    <col min="7" max="7" width="5.523810" customWidth="1"/>
+    <col min="8" max="8" width="5.333333" customWidth="1"/>
+    <col min="9" max="9" width="10.666667" customWidth="1"/>
+    <col min="10" max="10" width="10.095238" customWidth="1"/>
+    <col min="11" max="11" width="10.666667" customWidth="1"/>
+    <col min="12" max="12" width="16.380952" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24.390000" customHeight="1">
+      <c r="A1" t="s" s="21">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="21">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="21">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="21">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="21">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="21">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="21">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="21">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="22">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="21">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="21">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="15.000000" customHeight="1">
+      <c r="A2" s="23">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s" s="23">
+        <v>485</v>
+      </c>
+      <c r="C2" t="s" s="23">
+        <v>486</v>
+      </c>
+      <c r="D2" t="s" s="23">
+        <v>487</v>
+      </c>
+      <c r="E2" t="s" s="23">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s" s="23">
+        <v>137</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25">
+        <v>1</v>
+      </c>
+      <c r="I2" s="23">
+        <v>13.25</v>
+      </c>
+      <c r="J2" s="23">
+        <v>14.75</v>
+      </c>
+      <c r="K2" t="s" s="23">
+        <v>450</v>
+      </c>
+      <c r="L2" t="s" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="15.000000" customHeight="1">
+      <c r="A3" s="23">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s" s="23">
+        <v>488</v>
+      </c>
+      <c r="C3" t="s" s="23">
+        <v>489</v>
+      </c>
+      <c r="D3" t="s" s="23">
+        <v>490</v>
+      </c>
+      <c r="E3" t="s" s="23">
+        <v>491</v>
+      </c>
+      <c r="F3" t="s" s="23">
+        <v>329</v>
+      </c>
+      <c r="G3" s="23">
+        <v>01</v>
+      </c>
+      <c r="H3" s="25">
+        <v>1</v>
+      </c>
+      <c r="I3" s="23">
+        <v>11.5</v>
+      </c>
+      <c r="J3" s="25">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s" s="23">
+        <v>450</v>
+      </c>
+      <c r="L3" t="s" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="14.999990" customHeight="1">
+      <c r="A4" s="23">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s" s="23">
+        <v>492</v>
+      </c>
+      <c r="C4" t="s" s="23">
+        <v>493</v>
+      </c>
+      <c r="D4" t="s" s="23">
+        <v>298</v>
+      </c>
+      <c r="E4" t="s" s="23">
+        <v>494</v>
+      </c>
+      <c r="F4" t="s" s="23">
+        <v>377</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25">
+        <v>1</v>
+      </c>
+      <c r="I4" s="25">
+        <v>13</v>
+      </c>
+      <c r="J4" s="23">
+        <v>14.5</v>
+      </c>
+      <c r="K4" t="s" s="23">
+        <v>450</v>
+      </c>
+      <c r="L4" t="s" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" ht="15.030010" customHeight="1">
+      <c r="A5" s="23">
+        <v>127</v>
+      </c>
+      <c r="B5" t="s" s="23">
+        <v>495</v>
+      </c>
+      <c r="C5" t="s" s="23">
+        <v>496</v>
+      </c>
+      <c r="D5" t="s" s="23">
+        <v>497</v>
+      </c>
+      <c r="E5" t="s" s="23">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25">
+        <v>2</v>
+      </c>
+      <c r="I5" s="25">
+        <v>14</v>
+      </c>
+      <c r="J5" s="23">
+        <v>14.5</v>
+      </c>
+      <c r="K5" t="s" s="23">
+        <v>450</v>
+      </c>
+      <c r="L5" t="s" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" ht="15.000000" customHeight="1">
+      <c r="A6" s="23">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s" s="23">
+        <v>498</v>
+      </c>
+      <c r="C6" t="s" s="23">
+        <v>499</v>
+      </c>
+      <c r="D6" t="s" s="23">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s" s="23">
+        <v>418</v>
+      </c>
+      <c r="F6" t="s" s="23">
+        <v>192</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25">
+        <v>1</v>
+      </c>
+      <c r="I6" s="23">
+        <v>13.5</v>
+      </c>
+      <c r="J6" s="25">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s" s="23">
+        <v>450</v>
+      </c>
+      <c r="L6" t="s" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="15.000000" customHeight="1">
+      <c r="A7" s="23">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s" s="23">
+        <v>500</v>
+      </c>
+      <c r="C7" t="s" s="23">
+        <v>501</v>
+      </c>
+      <c r="D7" t="s" s="23">
+        <v>313</v>
+      </c>
+      <c r="E7" t="s" s="23">
+        <v>502</v>
+      </c>
+      <c r="F7" t="s" s="23">
+        <v>247</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25">
+        <v>1</v>
+      </c>
+      <c r="I7" s="23">
+        <v>18.75</v>
+      </c>
+      <c r="J7" s="23">
+        <v>20.25</v>
+      </c>
+      <c r="K7" t="s" s="23">
+        <v>450</v>
+      </c>
+      <c r="L7" t="s" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="15.000000" customHeight="1">
+      <c r="A8" s="23">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s" s="23">
+        <v>503</v>
+      </c>
+      <c r="C8" t="s" s="23">
+        <v>504</v>
+      </c>
+      <c r="D8" t="s" s="23">
+        <v>505</v>
+      </c>
+      <c r="E8" t="s" s="23">
+        <v>502</v>
+      </c>
+      <c r="F8" t="s" s="23">
+        <v>247</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23">
+        <v>13.75</v>
+      </c>
+      <c r="J8" s="23">
+        <v>15.25</v>
+      </c>
+      <c r="K8" t="s" s="23">
+        <v>450</v>
+      </c>
+      <c r="L8" t="s" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="15.000000" customHeight="1">
+      <c r="A9" s="23">
+        <v>131</v>
+      </c>
+      <c r="B9" t="s" s="23">
+        <v>506</v>
+      </c>
+      <c r="C9" t="s" s="23">
+        <v>507</v>
+      </c>
+      <c r="D9" t="s" s="23">
+        <v>508</v>
+      </c>
+      <c r="E9" t="s" s="23">
+        <v>509</v>
+      </c>
+      <c r="F9" t="s" s="23">
+        <v>213</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" t="s" s="23">
+        <v>36</v>
+      </c>
+      <c r="I9" s="25">
+        <v>14</v>
+      </c>
+      <c r="J9" s="25">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s" s="23">
+        <v>450</v>
+      </c>
+      <c r="L9" t="s" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="15.000000" customHeight="1">
+      <c r="A10" s="23">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s" s="23">
+        <v>510</v>
+      </c>
+      <c r="C10" t="s" s="23">
+        <v>511</v>
+      </c>
+      <c r="D10" t="s" s="23">
+        <v>512</v>
+      </c>
+      <c r="E10" t="s" s="23">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25">
+        <v>1</v>
+      </c>
+      <c r="I10" s="23">
+        <v>14.75</v>
+      </c>
+      <c r="J10" s="23">
+        <v>16.25</v>
+      </c>
+      <c r="K10" t="s" s="23">
+        <v>450</v>
+      </c>
+      <c r="L10" t="s" s="23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="14.999990" customHeight="1">
+      <c r="A11" s="23">
+        <v>133</v>
+      </c>
+      <c r="B11" t="s" s="23">
+        <v>513</v>
+      </c>
+      <c r="C11" t="s" s="23">
+        <v>514</v>
+      </c>
+      <c r="D11" t="s" s="23">
+        <v>515</v>
+      </c>
+      <c r="E11" t="s" s="23">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25">
+        <v>2</v>
+      </c>
+      <c r="I11" s="23">
+        <v>14.5</v>
+      </c>
+      <c r="J11" s="25">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s" s="23">
+        <v>450</v>
+      </c>
+      <c r="L11" t="s" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" ht="15.020020" customHeight="1">
+      <c r="A12" s="23">
+        <v>134</v>
+      </c>
+      <c r="B12" t="s" s="23">
+        <v>516</v>
+      </c>
+      <c r="C12" t="s" s="23">
+        <v>517</v>
+      </c>
+      <c r="D12" t="s" s="23">
+        <v>518</v>
+      </c>
+      <c r="E12" t="s" s="23">
+        <v>422</v>
+      </c>
+      <c r="F12" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25">
+        <v>2</v>
+      </c>
+      <c r="I12" s="23">
+        <v>15.25</v>
+      </c>
+      <c r="J12" s="23">
+        <v>15.75</v>
+      </c>
+      <c r="K12" t="s" s="23">
+        <v>450</v>
+      </c>
+      <c r="L12" t="s" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" ht="15.000000" customHeight="1">
+      <c r="A13" s="23">
+        <v>135</v>
+      </c>
+      <c r="B13" t="s" s="23">
+        <v>519</v>
+      </c>
+      <c r="C13" t="s" s="23">
+        <v>520</v>
+      </c>
+      <c r="D13" t="s" s="23">
+        <v>126</v>
+      </c>
+      <c r="E13" t="s" s="23">
+        <v>291</v>
+      </c>
+      <c r="F13" t="s" s="23">
+        <v>192</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25">
+        <v>1</v>
+      </c>
+      <c r="I13" s="25">
+        <v>14</v>
+      </c>
+      <c r="J13" s="23">
+        <v>15.5</v>
+      </c>
+      <c r="K13" t="s" s="23">
+        <v>450</v>
+      </c>
+      <c r="L13" t="s" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" ht="15.000000" customHeight="1">
+      <c r="A14" s="23">
+        <v>136</v>
+      </c>
+      <c r="B14" t="s" s="23">
+        <v>521</v>
+      </c>
+      <c r="C14" t="s" s="23">
+        <v>522</v>
+      </c>
+      <c r="D14" t="s" s="23">
+        <v>523</v>
+      </c>
+      <c r="E14" t="s" s="23">
+        <v>524</v>
+      </c>
+      <c r="F14" t="s" s="23">
+        <v>137</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25">
+        <v>1</v>
+      </c>
+      <c r="I14" s="25">
+        <v>14</v>
+      </c>
+      <c r="J14" s="23">
+        <v>15.5</v>
+      </c>
+      <c r="K14" t="s" s="23">
+        <v>450</v>
+      </c>
+      <c r="L14" t="s" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="15.000000" customHeight="1">
+      <c r="A15" s="23">
+        <v>137</v>
+      </c>
+      <c r="B15" t="s" s="23">
+        <v>525</v>
+      </c>
+      <c r="C15" t="s" s="23">
+        <v>526</v>
+      </c>
+      <c r="D15" t="s" s="23">
+        <v>527</v>
+      </c>
+      <c r="E15" t="s" s="23">
+        <v>528</v>
+      </c>
+      <c r="F15" t="s" s="23">
+        <v>529</v>
+      </c>
+      <c r="G15" s="23">
+        <v>01</v>
+      </c>
+      <c r="H15" s="25">
+        <v>1</v>
+      </c>
+      <c r="I15" s="25">
+        <v>12</v>
+      </c>
+      <c r="J15" s="23">
+        <v>15.5</v>
+      </c>
+      <c r="K15" t="s" s="23">
+        <v>450</v>
+      </c>
+      <c r="L15" t="s" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="15.000000" customHeight="1">
+      <c r="A16" s="23">
         <v>138</v>
       </c>
-      <c r="C31" t="s" s="4">
+      <c r="B16" t="s" s="23">
+        <v>530</v>
+      </c>
+      <c r="C16" t="s" s="23">
+        <v>531</v>
+      </c>
+      <c r="D16" t="s" s="23">
+        <v>324</v>
+      </c>
+      <c r="E16" t="s" s="23">
+        <v>532</v>
+      </c>
+      <c r="F16" t="s" s="23">
+        <v>101</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" t="s" s="23">
+        <v>36</v>
+      </c>
+      <c r="I16" s="23">
+        <v>13.75</v>
+      </c>
+      <c r="J16" s="23">
+        <v>14.75</v>
+      </c>
+      <c r="K16" t="s" s="23">
+        <v>450</v>
+      </c>
+      <c r="L16" t="s" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" ht="15.000000" customHeight="1">
+      <c r="A17" s="23">
         <v>139</v>
       </c>
-      <c r="D31" t="s" s="4">
+      <c r="B17" t="s" s="23">
+        <v>533</v>
+      </c>
+      <c r="C17" t="s" s="23">
+        <v>534</v>
+      </c>
+      <c r="D17" t="s" s="23">
+        <v>121</v>
+      </c>
+      <c r="E17" t="s" s="23">
+        <v>535</v>
+      </c>
+      <c r="F17" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25">
+        <v>2</v>
+      </c>
+      <c r="I17" s="23">
+        <v>15.25</v>
+      </c>
+      <c r="J17" s="23">
+        <v>15.75</v>
+      </c>
+      <c r="K17" t="s" s="23">
+        <v>450</v>
+      </c>
+      <c r="L17" t="s" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="15.000000" customHeight="1">
+      <c r="A18" s="23">
         <v>140</v>
       </c>
-      <c r="E31" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="F31" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="3">
-        <v>2</v>
-      </c>
-      <c r="I31" s="4">
-        <v>12.25</v>
-      </c>
-      <c r="J31" s="4">
-        <v>12.75</v>
-      </c>
-      <c r="K31" t="s" s="4">
-        <v>141</v>
-      </c>
-      <c r="L31" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" ht="14.999990" customHeight="1">
-      <c r="A32" s="4">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s" s="4">
-        <v>142</v>
-      </c>
-      <c r="C32" t="s" s="4">
-        <v>143</v>
-      </c>
-      <c r="D32" t="s" s="4">
-        <v>144</v>
-      </c>
-      <c r="E32" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="F32" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="3">
-        <v>2</v>
-      </c>
-      <c r="I32" s="3">
-        <v>13</v>
-      </c>
-      <c r="J32" s="4">
-        <v>13.5</v>
-      </c>
-      <c r="K32" t="s" s="4">
-        <v>141</v>
-      </c>
-      <c r="L32" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" ht="15.030010" customHeight="1">
-      <c r="A33" s="4">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s" s="4">
-        <v>145</v>
-      </c>
-      <c r="C33" t="s" s="4">
-        <v>146</v>
-      </c>
-      <c r="D33" t="s" s="4">
-        <v>147</v>
-      </c>
-      <c r="E33" t="s" s="4">
-        <v>148</v>
-      </c>
-      <c r="F33" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="3">
-        <v>2</v>
-      </c>
-      <c r="I33" s="4">
-        <v>11.75</v>
-      </c>
-      <c r="J33" s="4">
-        <v>12.25</v>
-      </c>
-      <c r="K33" t="s" s="4">
-        <v>141</v>
-      </c>
-      <c r="L33" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" ht="15.000000" customHeight="1">
-      <c r="A34" s="4">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s" s="4">
-        <v>149</v>
-      </c>
-      <c r="C34" t="s" s="4">
-        <v>150</v>
-      </c>
-      <c r="D34" t="s" s="4">
-        <v>151</v>
-      </c>
-      <c r="E34" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="F34" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="3">
-        <v>2</v>
-      </c>
-      <c r="I34" s="3">
-        <v>12</v>
-      </c>
-      <c r="J34" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="K34" t="s" s="4">
-        <v>141</v>
-      </c>
-      <c r="L34" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" ht="15.000000" customHeight="1">
-      <c r="A35" s="4">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s" s="4">
-        <v>152</v>
-      </c>
-      <c r="C35" t="s" s="4">
-        <v>153</v>
-      </c>
-      <c r="D35" t="s" s="4">
-        <v>154</v>
-      </c>
-      <c r="E35" t="s" s="4">
-        <v>155</v>
-      </c>
-      <c r="F35" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="3">
-        <v>2</v>
-      </c>
-      <c r="I35" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="J35" s="3">
-        <v>13</v>
-      </c>
-      <c r="K35" t="s" s="4">
-        <v>141</v>
-      </c>
-      <c r="L35" t="s" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" ht="15.000000" customHeight="1">
-      <c r="A36" s="4">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s" s="4">
-        <v>156</v>
-      </c>
-      <c r="C36" t="s" s="4">
-        <v>157</v>
-      </c>
-      <c r="D36" t="s" s="4">
-        <v>158</v>
-      </c>
-      <c r="E36" t="s" s="4">
-        <v>159</v>
-      </c>
-      <c r="F36" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="3">
-        <v>2</v>
-      </c>
-      <c r="I36" s="4">
-        <v>11.75</v>
-      </c>
-      <c r="J36" s="4">
-        <v>12.25</v>
-      </c>
-      <c r="K36" t="s" s="4">
-        <v>141</v>
-      </c>
-      <c r="L36" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" ht="15.000000" customHeight="1">
-      <c r="A37" s="4">
+      <c r="B18" t="s" s="23">
+        <v>536</v>
+      </c>
+      <c r="C18" t="s" s="23">
+        <v>537</v>
+      </c>
+      <c r="D18" t="s" s="23">
+        <v>538</v>
+      </c>
+      <c r="E18" t="s" s="23">
+        <v>539</v>
+      </c>
+      <c r="F18" t="s" s="23">
         <v>35</v>
       </c>
-      <c r="B37" t="s" s="4">
-        <v>160</v>
-      </c>
-      <c r="C37" t="s" s="4">
-        <v>161</v>
-      </c>
-      <c r="D37" t="s" s="4">
-        <v>162</v>
-      </c>
-      <c r="E37" t="s" s="4">
-        <v>61</v>
-      </c>
-      <c r="F37" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="3">
-        <v>3</v>
-      </c>
-      <c r="I37" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="J37" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="K37" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="L37" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" ht="15.000000" customHeight="1">
-      <c r="A38" s="4">
+      <c r="G18" s="24"/>
+      <c r="H18" t="s" s="23">
         <v>36</v>
       </c>
-      <c r="B38" t="s" s="4">
-        <v>164</v>
-      </c>
-      <c r="C38" t="s" s="4">
-        <v>165</v>
-      </c>
-      <c r="D38" t="s" s="4">
-        <v>166</v>
-      </c>
-      <c r="E38" t="s" s="4">
-        <v>49</v>
-      </c>
-      <c r="F38" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="I38" s="3">
+      <c r="I18" s="25">
+        <v>14</v>
+      </c>
+      <c r="J18" s="25">
         <v>15</v>
       </c>
-      <c r="J38" s="3">
-        <v>16</v>
-      </c>
-      <c r="K38" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="L38" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" ht="14.999990" customHeight="1">
-      <c r="A39" s="4">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s" s="4">
-        <v>167</v>
-      </c>
-      <c r="C39" t="s" s="4">
-        <v>168</v>
-      </c>
-      <c r="D39" t="s" s="4">
-        <v>169</v>
-      </c>
-      <c r="E39" t="s" s="4">
-        <v>61</v>
-      </c>
-      <c r="F39" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="3">
-        <v>3</v>
-      </c>
-      <c r="I39" s="4">
-        <v>13.25</v>
-      </c>
-      <c r="J39" s="4">
-        <v>13.25</v>
-      </c>
-      <c r="K39" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="L39" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" ht="15.020020" customHeight="1">
-      <c r="A40" s="4">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s" s="4">
-        <v>170</v>
-      </c>
-      <c r="C40" t="s" s="4">
-        <v>171</v>
-      </c>
-      <c r="D40" t="s" s="4">
-        <v>172</v>
-      </c>
-      <c r="E40" t="s" s="4">
-        <v>173</v>
-      </c>
-      <c r="F40" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="3">
-        <v>2</v>
-      </c>
-      <c r="I40" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="J40" s="3">
-        <v>15</v>
-      </c>
-      <c r="K40" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="L40" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" ht="15.000000" customHeight="1">
-      <c r="A41" s="4">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s" s="4">
-        <v>174</v>
-      </c>
-      <c r="C41" t="s" s="4">
-        <v>175</v>
-      </c>
-      <c r="D41" t="s" s="4">
-        <v>176</v>
-      </c>
-      <c r="E41" t="s" s="4">
-        <v>177</v>
-      </c>
-      <c r="F41" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="3">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3">
-        <v>14</v>
-      </c>
-      <c r="J41" s="3">
-        <v>14</v>
-      </c>
-      <c r="K41" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="L41" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" ht="15.000000" customHeight="1">
-      <c r="A42" s="4">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s" s="4">
-        <v>178</v>
-      </c>
-      <c r="C42" t="s" s="4">
-        <v>179</v>
-      </c>
-      <c r="D42" t="s" s="4">
-        <v>180</v>
-      </c>
-      <c r="E42" t="s" s="4">
-        <v>181</v>
-      </c>
-      <c r="F42" t="s" s="4">
-        <v>106</v>
-      </c>
-      <c r="G42" s="5"/>
-      <c r="H42" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="I42" s="4">
-        <v>14.25</v>
-      </c>
-      <c r="J42" s="4">
-        <v>15.25</v>
-      </c>
-      <c r="K42" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="L42" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" ht="15.000000" customHeight="1">
-      <c r="A43" s="4">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s" s="4">
-        <v>182</v>
-      </c>
-      <c r="C43" t="s" s="4">
-        <v>183</v>
-      </c>
-      <c r="D43" t="s" s="4">
-        <v>184</v>
-      </c>
-      <c r="E43" t="s" s="4">
-        <v>185</v>
-      </c>
-      <c r="F43" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="3">
-        <v>3</v>
-      </c>
-      <c r="I43" s="4">
-        <v>13.25</v>
-      </c>
-      <c r="J43" s="4">
-        <v>13.25</v>
-      </c>
-      <c r="K43" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="L43" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" ht="15.000000" customHeight="1">
-      <c r="A44" s="4">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s" s="4">
-        <v>186</v>
-      </c>
-      <c r="C44" t="s" s="4">
-        <v>187</v>
-      </c>
-      <c r="D44" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="E44" t="s" s="4">
-        <v>105</v>
-      </c>
-      <c r="F44" t="s" s="4">
-        <v>106</v>
-      </c>
-      <c r="G44" s="4">
-        <v>06</v>
-      </c>
-      <c r="H44" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="I44" s="4">
-        <v>11.5</v>
-      </c>
-      <c r="J44" s="4">
-        <v>13.5</v>
-      </c>
-      <c r="K44" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="L44" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" ht="15.000000" customHeight="1">
-      <c r="A45" s="4">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s" s="4">
-        <v>188</v>
-      </c>
-      <c r="C45" t="s" s="4">
-        <v>189</v>
-      </c>
-      <c r="D45" t="s" s="4">
-        <v>190</v>
-      </c>
-      <c r="E45" t="s" s="4">
-        <v>191</v>
-      </c>
-      <c r="F45" t="s" s="4">
-        <v>192</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="3">
-        <v>1</v>
-      </c>
-      <c r="I45" s="3">
-        <v>13</v>
-      </c>
-      <c r="J45" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="K45" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="L45" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" ht="15.000000" customHeight="1">
-      <c r="A46" s="4">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s" s="4">
-        <v>193</v>
-      </c>
-      <c r="C46" t="s" s="4">
-        <v>194</v>
-      </c>
-      <c r="D46" t="s" s="4">
-        <v>195</v>
-      </c>
-      <c r="E46" t="s" s="4">
-        <v>196</v>
-      </c>
-      <c r="F46" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="3">
-        <v>3</v>
-      </c>
-      <c r="I46" s="4">
-        <v>15.25</v>
-      </c>
-      <c r="J46" s="4">
-        <v>15.25</v>
-      </c>
-      <c r="K46" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="L46" t="s" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" ht="15.019980" customHeight="1">
-      <c r="A47" s="4">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s" s="4">
-        <v>197</v>
-      </c>
-      <c r="C47" t="s" s="4">
-        <v>198</v>
-      </c>
-      <c r="D47" t="s" s="4">
-        <v>199</v>
-      </c>
-      <c r="E47" t="s" s="4">
-        <v>200</v>
-      </c>
-      <c r="F47" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="3">
-        <v>2</v>
-      </c>
-      <c r="I47" s="4">
-        <v>14.25</v>
-      </c>
-      <c r="J47" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="K47" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="L47" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" ht="15.000000" customHeight="1">
-      <c r="A48" s="4">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s" s="4">
-        <v>201</v>
-      </c>
-      <c r="C48" t="s" s="4">
-        <v>202</v>
-      </c>
-      <c r="D48" t="s" s="4">
-        <v>203</v>
-      </c>
-      <c r="E48" t="s" s="4">
-        <v>204</v>
-      </c>
-      <c r="F48" t="s" s="4">
-        <v>35</v>
-      </c>
-      <c r="G48" s="5"/>
-      <c r="H48" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="I48" s="3">
-        <v>12</v>
-      </c>
-      <c r="J48" s="3">
-        <v>13</v>
-      </c>
-      <c r="K48" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="L48" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" ht="15.000000" customHeight="1">
-      <c r="A49" s="4">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s" s="4">
-        <v>205</v>
-      </c>
-      <c r="C49" t="s" s="4">
-        <v>206</v>
-      </c>
-      <c r="D49" t="s" s="4">
-        <v>207</v>
-      </c>
-      <c r="E49" t="s" s="4">
-        <v>208</v>
-      </c>
-      <c r="F49" t="s" s="4">
-        <v>101</v>
-      </c>
-      <c r="G49" s="4">
-        <v>03</v>
-      </c>
-      <c r="H49" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="I49" s="4">
-        <v>11.25</v>
-      </c>
-      <c r="J49" s="4">
-        <v>14.25</v>
-      </c>
-      <c r="K49" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="L49" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" ht="15.000000" customHeight="1">
-      <c r="A50" s="4">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s" s="4">
-        <v>209</v>
-      </c>
-      <c r="C50" t="s" s="4">
-        <v>210</v>
-      </c>
-      <c r="D50" t="s" s="4">
-        <v>211</v>
-      </c>
-      <c r="E50" t="s" s="4">
-        <v>212</v>
-      </c>
-      <c r="F50" t="s" s="4">
-        <v>213</v>
-      </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="3">
-        <v>2</v>
-      </c>
-      <c r="I50" s="3">
-        <v>13</v>
-      </c>
-      <c r="J50" s="4">
-        <v>13.5</v>
-      </c>
-      <c r="K50" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="L50" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" ht="15.000000" customHeight="1">
-      <c r="A51" s="4">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s" s="4">
-        <v>214</v>
-      </c>
-      <c r="C51" t="s" s="4">
-        <v>215</v>
-      </c>
-      <c r="D51" t="s" s="4">
-        <v>216</v>
-      </c>
-      <c r="E51" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="F51" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="3">
-        <v>2</v>
-      </c>
-      <c r="I51" s="3">
-        <v>12</v>
-      </c>
-      <c r="J51" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="K51" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="L51" t="s" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" ht="15.000000" customHeight="1">
-      <c r="A52" s="4">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s" s="4">
-        <v>217</v>
-      </c>
-      <c r="C52" t="s" s="4">
-        <v>218</v>
-      </c>
-      <c r="D52" t="s" s="4">
-        <v>219</v>
-      </c>
-      <c r="E52" t="s" s="4">
-        <v>220</v>
-      </c>
-      <c r="F52" t="s" s="4">
-        <v>221</v>
-      </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="3">
-        <v>2</v>
-      </c>
-      <c r="I52" s="4">
-        <v>12.25</v>
-      </c>
-      <c r="J52" s="4">
-        <v>12.75</v>
-      </c>
-      <c r="K52" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="L52" t="s" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" ht="15.000000" customHeight="1">
-      <c r="A53" s="4">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s" s="4">
-        <v>222</v>
-      </c>
-      <c r="C53" t="s" s="4">
-        <v>223</v>
-      </c>
-      <c r="D53" t="s" s="4">
-        <v>224</v>
-      </c>
-      <c r="E53" t="s" s="4">
-        <v>225</v>
-      </c>
-      <c r="F53" t="s" s="4">
-        <v>226</v>
-      </c>
-      <c r="G53" s="4">
-        <v>01</v>
-      </c>
-      <c r="H53" s="3">
-        <v>1</v>
-      </c>
-      <c r="I53" s="4">
-        <v>10.5</v>
-      </c>
-      <c r="J53" s="3">
-        <v>14</v>
-      </c>
-      <c r="K53" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="L53" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" ht="15.020000" customHeight="1">
-      <c r="A54" s="4">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s" s="4">
-        <v>227</v>
-      </c>
-      <c r="C54" t="s" s="4">
-        <v>228</v>
-      </c>
-      <c r="D54" t="s" s="4">
-        <v>229</v>
-      </c>
-      <c r="E54" t="s" s="4">
-        <v>196</v>
-      </c>
-      <c r="F54" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="3">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3">
-        <v>15</v>
-      </c>
-      <c r="J54" s="3">
-        <v>15</v>
-      </c>
-      <c r="K54" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="L54" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" ht="15.000000" customHeight="1">
-      <c r="A55" s="4">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s" s="4">
-        <v>230</v>
-      </c>
-      <c r="C55" t="s" s="4">
-        <v>231</v>
-      </c>
-      <c r="D55" t="s" s="4">
-        <v>232</v>
-      </c>
-      <c r="E55" t="s" s="4">
-        <v>233</v>
-      </c>
-      <c r="F55" t="s" s="4">
-        <v>234</v>
-      </c>
-      <c r="G55" s="5"/>
-      <c r="H55" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="I55" s="4">
-        <v>11.75</v>
-      </c>
-      <c r="J55" s="4">
-        <v>12.75</v>
-      </c>
-      <c r="K55" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="L55" t="s" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" ht="15.000000" customHeight="1">
-      <c r="A56" s="4">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s" s="4">
-        <v>235</v>
-      </c>
-      <c r="C56" t="s" s="4">
-        <v>236</v>
-      </c>
-      <c r="D56" t="s" s="4">
-        <v>237</v>
-      </c>
-      <c r="E56" t="s" s="4">
-        <v>28</v>
-      </c>
-      <c r="F56" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="3">
-        <v>3</v>
-      </c>
-      <c r="I56" s="3">
-        <v>13</v>
-      </c>
-      <c r="J56" s="3">
-        <v>13</v>
-      </c>
-      <c r="K56" t="s" s="4">
-        <v>163</v>
-      </c>
-      <c r="L56" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" ht="15.000020" customHeight="1">
-      <c r="A57" s="4">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s" s="4">
-        <v>238</v>
-      </c>
-      <c r="C57" t="s" s="4">
-        <v>239</v>
-      </c>
-      <c r="D57" t="s" s="4">
-        <v>240</v>
-      </c>
-      <c r="E57" t="s" s="4">
-        <v>241</v>
-      </c>
-      <c r="F57" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="3">
-        <v>2</v>
-      </c>
-      <c r="I57" s="4">
-        <v>11.75</v>
-      </c>
-      <c r="J57" s="4">
-        <v>12.25</v>
-      </c>
-      <c r="K57" t="s" s="4">
-        <v>242</v>
-      </c>
-      <c r="L57" t="s" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" ht="15.000000" customHeight="1">
-      <c r="A58" s="4">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s" s="4">
-        <v>243</v>
-      </c>
-      <c r="C58" t="s" s="4">
-        <v>244</v>
-      </c>
-      <c r="D58" t="s" s="4">
-        <v>245</v>
-      </c>
-      <c r="E58" t="s" s="4">
-        <v>246</v>
-      </c>
-      <c r="F58" t="s" s="4">
-        <v>247</v>
-      </c>
-      <c r="G58" s="4">
-        <v>01</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1</v>
-      </c>
-      <c r="I58" s="4">
-        <v>9.25</v>
-      </c>
-      <c r="J58" s="4">
-        <v>12.75</v>
-      </c>
-      <c r="K58" t="s" s="4">
-        <v>242</v>
-      </c>
-      <c r="L58" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" ht="15.000000" customHeight="1">
-      <c r="A59" s="4">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s" s="4">
-        <v>248</v>
-      </c>
-      <c r="C59" t="s" s="4">
-        <v>249</v>
-      </c>
-      <c r="D59" t="s" s="4">
-        <v>250</v>
-      </c>
-      <c r="E59" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="F59" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="3">
-        <v>2</v>
-      </c>
-      <c r="I59" s="3">
-        <v>12</v>
-      </c>
-      <c r="J59" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="K59" t="s" s="4">
-        <v>242</v>
-      </c>
-      <c r="L59" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" ht="15.000000" customHeight="1">
-      <c r="A60" s="4">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s" s="4">
-        <v>251</v>
-      </c>
-      <c r="C60" t="s" s="4">
-        <v>252</v>
-      </c>
-      <c r="D60" t="s" s="4">
-        <v>253</v>
-      </c>
-      <c r="E60" t="s" s="4">
-        <v>254</v>
-      </c>
-      <c r="F60" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="3">
-        <v>2</v>
-      </c>
-      <c r="I60" s="3">
-        <v>16</v>
-      </c>
-      <c r="J60" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="K60" t="s" s="4">
-        <v>242</v>
-      </c>
-      <c r="L60" t="s" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" ht="15.023000" customHeight="1">
-      <c r="A61" s="4">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s" s="4">
-        <v>255</v>
-      </c>
-      <c r="C61" t="s" s="4">
-        <v>256</v>
-      </c>
-      <c r="D61" t="s" s="4">
-        <v>257</v>
-      </c>
-      <c r="E61" t="s" s="4">
-        <v>258</v>
-      </c>
-      <c r="F61" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="3">
-        <v>2</v>
-      </c>
-      <c r="I61" s="4">
-        <v>11.75</v>
-      </c>
-      <c r="J61" s="4">
-        <v>12.25</v>
-      </c>
-      <c r="K61" t="s" s="4">
-        <v>242</v>
-      </c>
-      <c r="L61" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" ht="24.390000" customHeight="1">
-      <c r="A62" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B62" t="s" s="1">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="E62" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="F62" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="G62" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="H62" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="J62" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="K62" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="L62" t="s" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" ht="15.000000" customHeight="1">
-      <c r="A63" s="4">
-        <v>60</v>
-      </c>
-      <c r="B63" t="s" s="4">
-        <v>259</v>
-      </c>
-      <c r="C63" t="s" s="4">
-        <v>260</v>
-      </c>
-      <c r="D63" t="s" s="4">
-        <v>261</v>
-      </c>
-      <c r="E63" t="s" s="4">
-        <v>262</v>
-      </c>
-      <c r="F63" t="s" s="4">
-        <v>213</v>
-      </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="3">
-        <v>2</v>
-      </c>
-      <c r="I63" s="4">
-        <v>13.25</v>
-      </c>
-      <c r="J63" s="4">
-        <v>13.75</v>
-      </c>
-      <c r="K63" t="s" s="4">
-        <v>242</v>
-      </c>
-      <c r="L63" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" ht="15.000000" customHeight="1">
-      <c r="A64" s="4">
-        <v>61</v>
-      </c>
-      <c r="B64" t="s" s="4">
-        <v>263</v>
-      </c>
-      <c r="C64" t="s" s="4">
-        <v>264</v>
-      </c>
-      <c r="D64" t="s" s="4">
-        <v>265</v>
-      </c>
-      <c r="E64" t="s" s="4">
-        <v>241</v>
-      </c>
-      <c r="F64" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="3">
-        <v>2</v>
-      </c>
-      <c r="I64" s="4">
-        <v>13.5</v>
-      </c>
-      <c r="J64" s="3">
-        <v>14</v>
-      </c>
-      <c r="K64" t="s" s="4">
-        <v>242</v>
-      </c>
-      <c r="L64" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" ht="14.999990" customHeight="1">
-      <c r="A65" s="4">
-        <v>62</v>
-      </c>
-      <c r="B65" t="s" s="4">
-        <v>266</v>
-      </c>
-      <c r="C65" t="s" s="4">
-        <v>267</v>
-      </c>
-      <c r="D65" t="s" s="4">
-        <v>268</v>
-      </c>
-      <c r="E65" t="s" s="4">
-        <v>269</v>
-      </c>
-      <c r="F65" t="s" s="4">
-        <v>192</v>
-      </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="3">
-        <v>1</v>
-      </c>
-      <c r="I65" s="3">
-        <v>11</v>
-      </c>
-      <c r="J65" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="K65" t="s" s="4">
-        <v>242</v>
-      </c>
-      <c r="L65" t="s" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" ht="15.030010" customHeight="1">
-      <c r="A66" s="4">
-        <v>63</v>
-      </c>
-      <c r="B66" t="s" s="4">
-        <v>270</v>
-      </c>
-      <c r="C66" t="s" s="4">
-        <v>271</v>
-      </c>
-      <c r="D66" t="s" s="4">
-        <v>272</v>
-      </c>
-      <c r="E66" t="s" s="4">
-        <v>273</v>
-      </c>
-      <c r="F66" t="s" s="4">
-        <v>106</v>
-      </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="3">
-        <v>2</v>
-      </c>
-      <c r="I66" s="3">
-        <v>12</v>
-      </c>
-      <c r="J66" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="K66" t="s" s="4">
-        <v>242</v>
-      </c>
-      <c r="L66" t="s" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" ht="15.000000" customHeight="1">
-      <c r="A67" s="4">
-        <v>64</v>
-      </c>
-      <c r="B67" t="s" s="4">
-        <v>274</v>
-      </c>
-      <c r="C67" t="s" s="4">
-        <v>275</v>
-      </c>
-      <c r="D67" t="s" s="4">
-        <v>276</v>
-      </c>
-      <c r="E67" t="s" s="4">
-        <v>277</v>
-      </c>
-      <c r="F67" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="G67" s="5"/>
-      <c r="H67" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="I67" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="J67" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="K67" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L67" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" ht="15.000000" customHeight="1">
-      <c r="A68" s="4">
-        <v>65</v>
-      </c>
-      <c r="B68" t="s" s="4">
-        <v>279</v>
-      </c>
-      <c r="C68" t="s" s="4">
-        <v>280</v>
-      </c>
-      <c r="D68" t="s" s="4">
-        <v>281</v>
-      </c>
-      <c r="E68" t="s" s="4">
-        <v>282</v>
-      </c>
-      <c r="F68" t="s" s="4">
-        <v>283</v>
-      </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="3">
-        <v>3</v>
-      </c>
-      <c r="I68" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="J68" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="K68" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L68" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" ht="15.000000" customHeight="1">
-      <c r="A69" s="4">
-        <v>66</v>
-      </c>
-      <c r="B69" t="s" s="4">
-        <v>284</v>
-      </c>
-      <c r="C69" t="s" s="4">
-        <v>285</v>
-      </c>
-      <c r="D69" t="s" s="4">
-        <v>286</v>
-      </c>
-      <c r="E69" t="s" s="4">
-        <v>287</v>
-      </c>
-      <c r="F69" t="s" s="4">
-        <v>137</v>
-      </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="3">
-        <v>1</v>
-      </c>
-      <c r="I69" s="4">
-        <v>11.75</v>
-      </c>
-      <c r="J69" s="4">
-        <v>13.25</v>
-      </c>
-      <c r="K69" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L69" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" ht="15.000000" customHeight="1">
-      <c r="A70" s="4">
-        <v>67</v>
-      </c>
-      <c r="B70" t="s" s="4">
-        <v>288</v>
-      </c>
-      <c r="C70" t="s" s="4">
-        <v>289</v>
-      </c>
-      <c r="D70" t="s" s="4">
-        <v>290</v>
-      </c>
-      <c r="E70" t="s" s="4">
-        <v>291</v>
-      </c>
-      <c r="F70" t="s" s="4">
-        <v>192</v>
-      </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="3">
-        <v>1</v>
-      </c>
-      <c r="I70" s="4">
-        <v>12.75</v>
-      </c>
-      <c r="J70" s="4">
-        <v>14.25</v>
-      </c>
-      <c r="K70" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L70" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" ht="15.000000" customHeight="1">
-      <c r="A71" s="4">
-        <v>68</v>
-      </c>
-      <c r="B71" t="s" s="4">
-        <v>292</v>
-      </c>
-      <c r="C71" t="s" s="4">
-        <v>293</v>
-      </c>
-      <c r="D71" t="s" s="4">
-        <v>294</v>
-      </c>
-      <c r="E71" t="s" s="4">
-        <v>295</v>
-      </c>
-      <c r="F71" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="3">
-        <v>1</v>
-      </c>
-      <c r="I71" s="4">
-        <v>12.75</v>
-      </c>
-      <c r="J71" s="4">
-        <v>14.25</v>
-      </c>
-      <c r="K71" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L71" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" ht="14.999990" customHeight="1">
-      <c r="A72" s="4">
-        <v>69</v>
-      </c>
-      <c r="B72" t="s" s="4">
-        <v>296</v>
-      </c>
-      <c r="C72" t="s" s="4">
-        <v>297</v>
-      </c>
-      <c r="D72" t="s" s="4">
-        <v>298</v>
-      </c>
-      <c r="E72" t="s" s="4">
-        <v>100</v>
-      </c>
-      <c r="F72" t="s" s="4">
-        <v>101</v>
-      </c>
-      <c r="G72" s="5"/>
-      <c r="H72" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="I72" s="4">
-        <v>12.75</v>
-      </c>
-      <c r="J72" s="4">
-        <v>13.75</v>
-      </c>
-      <c r="K72" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L72" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" ht="15.020020" customHeight="1">
-      <c r="A73" s="4">
-        <v>70</v>
-      </c>
-      <c r="B73" t="s" s="4">
-        <v>299</v>
-      </c>
-      <c r="C73" t="s" s="4">
-        <v>300</v>
-      </c>
-      <c r="D73" t="s" s="4">
-        <v>301</v>
-      </c>
-      <c r="E73" t="s" s="4">
-        <v>302</v>
-      </c>
-      <c r="F73" t="s" s="4">
-        <v>132</v>
-      </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="3">
-        <v>1</v>
-      </c>
-      <c r="I73" s="4">
-        <v>11.75</v>
-      </c>
-      <c r="J73" s="4">
-        <v>13.25</v>
-      </c>
-      <c r="K73" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L73" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" ht="15.000000" customHeight="1">
-      <c r="A74" s="4">
-        <v>71</v>
-      </c>
-      <c r="B74" t="s" s="4">
-        <v>303</v>
-      </c>
-      <c r="C74" t="s" s="4">
-        <v>304</v>
-      </c>
-      <c r="D74" t="s" s="4">
-        <v>305</v>
-      </c>
-      <c r="E74" t="s" s="4">
-        <v>306</v>
-      </c>
-      <c r="F74" t="s" s="4">
-        <v>307</v>
-      </c>
-      <c r="G74" s="5"/>
-      <c r="H74" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="I74" s="4">
-        <v>13.25</v>
-      </c>
-      <c r="J74" s="4">
-        <v>14.25</v>
-      </c>
-      <c r="K74" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L74" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" ht="15.000000" customHeight="1">
-      <c r="A75" s="4">
-        <v>72</v>
-      </c>
-      <c r="B75" t="s" s="4">
-        <v>308</v>
-      </c>
-      <c r="C75" t="s" s="4">
-        <v>309</v>
-      </c>
-      <c r="D75" t="s" s="4">
-        <v>310</v>
-      </c>
-      <c r="E75" t="s" s="4">
-        <v>61</v>
-      </c>
-      <c r="F75" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="3">
-        <v>2</v>
-      </c>
-      <c r="I75" s="4">
-        <v>13.75</v>
-      </c>
-      <c r="J75" s="4">
-        <v>14.25</v>
-      </c>
-      <c r="K75" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L75" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" ht="15.000000" customHeight="1">
-      <c r="A76" s="4">
-        <v>73</v>
-      </c>
-      <c r="B76" t="s" s="4">
-        <v>311</v>
-      </c>
-      <c r="C76" t="s" s="4">
-        <v>312</v>
-      </c>
-      <c r="D76" t="s" s="4">
-        <v>313</v>
-      </c>
-      <c r="E76" t="s" s="4">
-        <v>314</v>
-      </c>
-      <c r="F76" t="s" s="4">
-        <v>315</v>
-      </c>
-      <c r="G76" s="5"/>
-      <c r="H76" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="I76" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="J76" s="4">
-        <v>15.75</v>
-      </c>
-      <c r="K76" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L76" t="s" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77" ht="15.000000" customHeight="1">
-      <c r="A77" s="4">
-        <v>74</v>
-      </c>
-      <c r="B77" t="s" s="4">
-        <v>316</v>
-      </c>
-      <c r="C77" t="s" s="4">
-        <v>317</v>
-      </c>
-      <c r="D77" t="s" s="4">
-        <v>318</v>
-      </c>
-      <c r="E77" t="s" s="4">
-        <v>254</v>
-      </c>
-      <c r="F77" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="3">
-        <v>2</v>
-      </c>
-      <c r="I77" s="3">
-        <v>15</v>
-      </c>
-      <c r="J77" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="K77" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L77" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" ht="15.000000" customHeight="1">
-      <c r="A78" s="4">
-        <v>75</v>
-      </c>
-      <c r="B78" t="s" s="4">
-        <v>319</v>
-      </c>
-      <c r="C78" t="s" s="4">
-        <v>320</v>
-      </c>
-      <c r="D78" t="s" s="4">
-        <v>321</v>
-      </c>
-      <c r="E78" t="s" s="4">
-        <v>61</v>
-      </c>
-      <c r="F78" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="3">
-        <v>2</v>
-      </c>
-      <c r="I78" s="4">
-        <v>12.75</v>
-      </c>
-      <c r="J78" s="4">
-        <v>13.25</v>
-      </c>
-      <c r="K78" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L78" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" ht="15.000000" customHeight="1">
-      <c r="A79" s="4">
-        <v>76</v>
-      </c>
-      <c r="B79" t="s" s="4">
-        <v>322</v>
-      </c>
-      <c r="C79" t="s" s="4">
-        <v>323</v>
-      </c>
-      <c r="D79" t="s" s="4">
-        <v>324</v>
-      </c>
-      <c r="E79" t="s" s="4">
-        <v>118</v>
-      </c>
-      <c r="F79" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="G79" s="5"/>
-      <c r="H79" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="I79" s="4">
-        <v>13.25</v>
-      </c>
-      <c r="J79" s="4">
-        <v>14.25</v>
-      </c>
-      <c r="K79" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L79" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" ht="15.019980" customHeight="1">
-      <c r="A80" s="4">
-        <v>77</v>
-      </c>
-      <c r="B80" t="s" s="4">
-        <v>325</v>
-      </c>
-      <c r="C80" t="s" s="4">
-        <v>326</v>
-      </c>
-      <c r="D80" t="s" s="4">
-        <v>327</v>
-      </c>
-      <c r="E80" t="s" s="4">
-        <v>328</v>
-      </c>
-      <c r="F80" t="s" s="4">
-        <v>329</v>
-      </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="3">
-        <v>1</v>
-      </c>
-      <c r="I80" s="4">
-        <v>13.5</v>
-      </c>
-      <c r="J80" s="3">
-        <v>15</v>
-      </c>
-      <c r="K80" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L80" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" ht="15.000000" customHeight="1">
-      <c r="A81" s="4">
-        <v>78</v>
-      </c>
-      <c r="B81" t="s" s="4">
-        <v>330</v>
-      </c>
-      <c r="C81" t="s" s="4">
-        <v>331</v>
-      </c>
-      <c r="D81" t="s" s="4">
-        <v>332</v>
-      </c>
-      <c r="E81" t="s" s="4">
-        <v>333</v>
-      </c>
-      <c r="F81" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G81" s="5"/>
-      <c r="H81" s="3">
-        <v>2</v>
-      </c>
-      <c r="I81" s="3">
-        <v>15</v>
-      </c>
-      <c r="J81" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="K81" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L81" t="s" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" ht="15.000000" customHeight="1">
-      <c r="A82" s="4">
-        <v>79</v>
-      </c>
-      <c r="B82" t="s" s="4">
-        <v>334</v>
-      </c>
-      <c r="C82" t="s" s="4">
-        <v>335</v>
-      </c>
-      <c r="D82" t="s" s="4">
-        <v>336</v>
-      </c>
-      <c r="E82" t="s" s="4">
-        <v>337</v>
-      </c>
-      <c r="F82" t="s" s="4">
-        <v>132</v>
-      </c>
-      <c r="G82" s="5"/>
-      <c r="H82" s="3">
-        <v>1</v>
-      </c>
-      <c r="I82" s="4">
-        <v>12.75</v>
-      </c>
-      <c r="J82" s="4">
-        <v>14.25</v>
-      </c>
-      <c r="K82" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L82" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" ht="15.000000" customHeight="1">
-      <c r="A83" s="4">
-        <v>80</v>
-      </c>
-      <c r="B83" t="s" s="4">
-        <v>338</v>
-      </c>
-      <c r="C83" t="s" s="4">
-        <v>339</v>
-      </c>
-      <c r="D83" t="s" s="4">
-        <v>340</v>
-      </c>
-      <c r="E83" t="s" s="4">
-        <v>204</v>
-      </c>
-      <c r="F83" t="s" s="4">
-        <v>35</v>
-      </c>
-      <c r="G83" s="5"/>
-      <c r="H83" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="I83" s="4">
-        <v>13.25</v>
-      </c>
-      <c r="J83" s="4">
-        <v>14.25</v>
-      </c>
-      <c r="K83" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L83" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" ht="15.000000" customHeight="1">
-      <c r="A84" s="4">
-        <v>81</v>
-      </c>
-      <c r="B84" t="s" s="4">
-        <v>341</v>
-      </c>
-      <c r="C84" t="s" s="4">
-        <v>342</v>
-      </c>
-      <c r="D84" t="s" s="4">
-        <v>343</v>
-      </c>
-      <c r="E84" t="s" s="4">
-        <v>262</v>
-      </c>
-      <c r="F84" t="s" s="4">
-        <v>213</v>
-      </c>
-      <c r="G84" s="5"/>
-      <c r="H84" s="3">
-        <v>2</v>
-      </c>
-      <c r="I84" s="4">
-        <v>14.25</v>
-      </c>
-      <c r="J84" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="K84" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L84" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" ht="15.000000" customHeight="1">
-      <c r="A85" s="4">
-        <v>82</v>
-      </c>
-      <c r="B85" t="s" s="4">
-        <v>344</v>
-      </c>
-      <c r="C85" t="s" s="4">
-        <v>345</v>
-      </c>
-      <c r="D85" t="s" s="4">
-        <v>346</v>
-      </c>
-      <c r="E85" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="F85" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="G85" s="5"/>
-      <c r="H85" s="3">
-        <v>2</v>
-      </c>
-      <c r="I85" s="4">
-        <v>13.75</v>
-      </c>
-      <c r="J85" s="4">
-        <v>14.25</v>
-      </c>
-      <c r="K85" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L85" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" ht="15.000000" customHeight="1">
-      <c r="A86" s="4">
-        <v>83</v>
-      </c>
-      <c r="B86" t="s" s="4">
-        <v>347</v>
-      </c>
-      <c r="C86" t="s" s="4">
-        <v>348</v>
-      </c>
-      <c r="D86" t="s" s="4">
-        <v>349</v>
-      </c>
-      <c r="E86" t="s" s="4">
-        <v>350</v>
-      </c>
-      <c r="F86" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G86" s="5"/>
-      <c r="H86" s="3">
-        <v>2</v>
-      </c>
-      <c r="I86" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="J86" s="4">
-        <v>15.25</v>
-      </c>
-      <c r="K86" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L86" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="87" ht="15.020000" customHeight="1">
-      <c r="A87" s="4">
-        <v>84</v>
-      </c>
-      <c r="B87" t="s" s="4">
-        <v>351</v>
-      </c>
-      <c r="C87" t="s" s="4">
-        <v>352</v>
-      </c>
-      <c r="D87" t="s" s="4">
-        <v>353</v>
-      </c>
-      <c r="E87" t="s" s="4">
-        <v>258</v>
-      </c>
-      <c r="F87" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G87" s="5"/>
-      <c r="H87" s="3">
-        <v>2</v>
-      </c>
-      <c r="I87" s="4">
-        <v>12.75</v>
-      </c>
-      <c r="J87" s="4">
-        <v>13.25</v>
-      </c>
-      <c r="K87" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L87" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="88" ht="15.000000" customHeight="1">
-      <c r="A88" s="4">
-        <v>85</v>
-      </c>
-      <c r="B88" t="s" s="4">
-        <v>354</v>
-      </c>
-      <c r="C88" t="s" s="4">
-        <v>355</v>
-      </c>
-      <c r="D88" t="s" s="4">
-        <v>343</v>
-      </c>
-      <c r="E88" t="s" s="4">
-        <v>356</v>
-      </c>
-      <c r="F88" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G88" s="5"/>
-      <c r="H88" s="3">
-        <v>3</v>
-      </c>
-      <c r="I88" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="J88" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="K88" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L88" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="89" ht="15.000000" customHeight="1">
-      <c r="A89" s="4">
-        <v>86</v>
-      </c>
-      <c r="B89" t="s" s="4">
-        <v>357</v>
-      </c>
-      <c r="C89" t="s" s="4">
-        <v>358</v>
-      </c>
-      <c r="D89" t="s" s="4">
-        <v>359</v>
-      </c>
-      <c r="E89" t="s" s="4">
-        <v>360</v>
-      </c>
-      <c r="F89" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G89" s="5"/>
-      <c r="H89" s="3">
-        <v>2</v>
-      </c>
-      <c r="I89" s="4">
-        <v>14.25</v>
-      </c>
-      <c r="J89" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="K89" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L89" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" ht="15.000020" customHeight="1">
-      <c r="A90" s="4">
-        <v>87</v>
-      </c>
-      <c r="B90" t="s" s="4">
-        <v>361</v>
-      </c>
-      <c r="C90" t="s" s="4">
-        <v>362</v>
-      </c>
-      <c r="D90" t="s" s="4">
-        <v>363</v>
-      </c>
-      <c r="E90" t="s" s="4">
-        <v>364</v>
-      </c>
-      <c r="F90" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G90" s="5"/>
-      <c r="H90" s="3">
-        <v>2</v>
-      </c>
-      <c r="I90" s="3">
-        <v>13</v>
-      </c>
-      <c r="J90" s="4">
-        <v>13.5</v>
-      </c>
-      <c r="K90" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L90" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" ht="15.000000" customHeight="1">
-      <c r="A91" s="4">
-        <v>88</v>
-      </c>
-      <c r="B91" t="s" s="4">
-        <v>365</v>
-      </c>
-      <c r="C91" t="s" s="4">
-        <v>366</v>
-      </c>
-      <c r="D91" t="s" s="4">
-        <v>367</v>
-      </c>
-      <c r="E91" t="s" s="4">
-        <v>368</v>
-      </c>
-      <c r="F91" t="s" s="4">
-        <v>369</v>
-      </c>
-      <c r="G91" s="5"/>
-      <c r="H91" s="3">
-        <v>1</v>
-      </c>
-      <c r="I91" s="4">
-        <v>13.25</v>
-      </c>
-      <c r="J91" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="K91" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L91" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="92" ht="15.000000" customHeight="1">
-      <c r="A92" s="4">
-        <v>89</v>
-      </c>
-      <c r="B92" t="s" s="4">
-        <v>370</v>
-      </c>
-      <c r="C92" t="s" s="4">
-        <v>371</v>
-      </c>
-      <c r="D92" t="s" s="4">
-        <v>372</v>
-      </c>
-      <c r="E92" t="s" s="4">
-        <v>291</v>
-      </c>
-      <c r="F92" t="s" s="4">
-        <v>192</v>
-      </c>
-      <c r="G92" s="5"/>
-      <c r="H92" s="3">
-        <v>1</v>
-      </c>
-      <c r="I92" s="3">
-        <v>13</v>
-      </c>
-      <c r="J92" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="K92" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L92" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="93" ht="15.000000" customHeight="1">
-      <c r="A93" s="4">
-        <v>90</v>
-      </c>
-      <c r="B93" t="s" s="4">
-        <v>373</v>
-      </c>
-      <c r="C93" t="s" s="4">
-        <v>374</v>
-      </c>
-      <c r="D93" t="s" s="4">
-        <v>375</v>
-      </c>
-      <c r="E93" t="s" s="4">
-        <v>376</v>
-      </c>
-      <c r="F93" t="s" s="4">
-        <v>377</v>
-      </c>
-      <c r="G93" s="5"/>
-      <c r="H93" s="3">
-        <v>1</v>
-      </c>
-      <c r="I93" s="3">
-        <v>12</v>
-      </c>
-      <c r="J93" s="4">
-        <v>13.5</v>
-      </c>
-      <c r="K93" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L93" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" ht="15.023000" customHeight="1">
-      <c r="A94" s="4">
-        <v>91</v>
-      </c>
-      <c r="B94" t="s" s="4">
-        <v>378</v>
-      </c>
-      <c r="C94" t="s" s="4">
-        <v>379</v>
-      </c>
-      <c r="D94" t="s" s="4">
-        <v>380</v>
-      </c>
-      <c r="E94" t="s" s="4">
-        <v>314</v>
-      </c>
-      <c r="F94" t="s" s="4">
-        <v>315</v>
-      </c>
-      <c r="G94" s="5"/>
-      <c r="H94" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="I94" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="J94" s="4">
-        <v>13.5</v>
-      </c>
-      <c r="K94" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L94" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="95" ht="24.390000" customHeight="1">
-      <c r="A95" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B95" t="s" s="1">
-        <v>1</v>
-      </c>
-      <c r="C95" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="D95" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="E95" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="F95" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="G95" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="H95" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="J95" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="K95" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="L95" t="s" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" ht="15.000000" customHeight="1">
-      <c r="A96" s="4">
-        <v>92</v>
-      </c>
-      <c r="B96" t="s" s="4">
-        <v>381</v>
-      </c>
-      <c r="C96" t="s" s="4">
-        <v>382</v>
-      </c>
-      <c r="D96" t="s" s="4">
-        <v>383</v>
-      </c>
-      <c r="E96" t="s" s="4">
-        <v>114</v>
-      </c>
-      <c r="F96" t="s" s="4">
-        <v>101</v>
-      </c>
-      <c r="G96" s="5"/>
-      <c r="H96" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="I96" s="4">
-        <v>13.75</v>
-      </c>
-      <c r="J96" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="K96" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L96" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="97" ht="15.000000" customHeight="1">
-      <c r="A97" s="4">
-        <v>93</v>
-      </c>
-      <c r="B97" t="s" s="4">
-        <v>384</v>
-      </c>
-      <c r="C97" t="s" s="4">
-        <v>385</v>
-      </c>
-      <c r="D97" t="s" s="4">
-        <v>386</v>
-      </c>
-      <c r="E97" t="s" s="4">
-        <v>258</v>
-      </c>
-      <c r="F97" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G97" s="5"/>
-      <c r="H97" s="3">
-        <v>2</v>
-      </c>
-      <c r="I97" s="3">
-        <v>14</v>
-      </c>
-      <c r="J97" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="K97" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L97" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" ht="14.999990" customHeight="1">
-      <c r="A98" s="4">
-        <v>94</v>
-      </c>
-      <c r="B98" t="s" s="4">
-        <v>387</v>
-      </c>
-      <c r="C98" t="s" s="4">
-        <v>388</v>
-      </c>
-      <c r="D98" t="s" s="4">
-        <v>389</v>
-      </c>
-      <c r="E98" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="F98" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G98" s="5"/>
-      <c r="H98" s="3">
-        <v>2</v>
-      </c>
-      <c r="I98" s="4">
-        <v>13.25</v>
-      </c>
-      <c r="J98" s="4">
-        <v>13.75</v>
-      </c>
-      <c r="K98" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L98" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99" ht="15.030010" customHeight="1">
-      <c r="A99" s="4">
-        <v>95</v>
-      </c>
-      <c r="B99" t="s" s="4">
-        <v>390</v>
-      </c>
-      <c r="C99" t="s" s="4">
-        <v>391</v>
-      </c>
-      <c r="D99" t="s" s="4">
-        <v>199</v>
-      </c>
-      <c r="E99" t="s" s="4">
-        <v>392</v>
-      </c>
-      <c r="F99" t="s" s="4">
-        <v>213</v>
-      </c>
-      <c r="G99" s="5"/>
-      <c r="H99" s="3">
-        <v>1</v>
-      </c>
-      <c r="I99" s="3">
-        <v>13</v>
-      </c>
-      <c r="J99" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="K99" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L99" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="100" ht="15.000000" customHeight="1">
-      <c r="A100" s="4">
-        <v>96</v>
-      </c>
-      <c r="B100" t="s" s="4">
-        <v>393</v>
-      </c>
-      <c r="C100" t="s" s="4">
-        <v>394</v>
-      </c>
-      <c r="D100" t="s" s="4">
-        <v>395</v>
-      </c>
-      <c r="E100" t="s" s="4">
-        <v>396</v>
-      </c>
-      <c r="F100" t="s" s="4">
-        <v>234</v>
-      </c>
-      <c r="G100" s="5"/>
-      <c r="H100" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="I100" s="4">
-        <v>13.75</v>
-      </c>
-      <c r="J100" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="K100" t="s" s="4">
-        <v>278</v>
-      </c>
-      <c r="L100" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="101" ht="15.000000" customHeight="1">
-      <c r="A101" s="4">
-        <v>97</v>
-      </c>
-      <c r="B101" t="s" s="4">
-        <v>397</v>
-      </c>
-      <c r="C101" t="s" s="4">
-        <v>398</v>
-      </c>
-      <c r="D101" t="s" s="4">
-        <v>399</v>
-      </c>
-      <c r="E101" t="s" s="4">
-        <v>196</v>
-      </c>
-      <c r="F101" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G101" s="5"/>
-      <c r="H101" s="3">
-        <v>3</v>
-      </c>
-      <c r="I101" s="4">
-        <v>12.25</v>
-      </c>
-      <c r="J101" s="4">
-        <v>12.25</v>
-      </c>
-      <c r="K101" t="s" s="4">
-        <v>400</v>
-      </c>
-      <c r="L101" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="102" ht="15.000000" customHeight="1">
-      <c r="A102" s="4">
-        <v>98</v>
-      </c>
-      <c r="B102" t="s" s="4">
-        <v>401</v>
-      </c>
-      <c r="C102" t="s" s="4">
-        <v>402</v>
-      </c>
-      <c r="D102" t="s" s="4">
-        <v>403</v>
-      </c>
-      <c r="E102" t="s" s="4">
-        <v>200</v>
-      </c>
-      <c r="F102" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G102" s="5"/>
-      <c r="H102" s="3">
-        <v>2</v>
-      </c>
-      <c r="I102" s="4">
-        <v>12.25</v>
-      </c>
-      <c r="J102" s="4">
-        <v>12.75</v>
-      </c>
-      <c r="K102" t="s" s="4">
-        <v>400</v>
-      </c>
-      <c r="L102" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" ht="15.000000" customHeight="1">
-      <c r="A103" s="4">
-        <v>99</v>
-      </c>
-      <c r="B103" t="s" s="4">
-        <v>404</v>
-      </c>
-      <c r="C103" t="s" s="4">
-        <v>405</v>
-      </c>
-      <c r="D103" t="s" s="4">
-        <v>406</v>
-      </c>
-      <c r="E103" t="s" s="4">
-        <v>407</v>
-      </c>
-      <c r="F103" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G103" s="5"/>
-      <c r="H103" s="3">
-        <v>2</v>
-      </c>
-      <c r="I103" s="3">
-        <v>12</v>
-      </c>
-      <c r="J103" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="K103" t="s" s="4">
-        <v>400</v>
-      </c>
-      <c r="L103" t="s" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="104" ht="15.000000" customHeight="1">
-      <c r="A104" s="4">
-        <v>100</v>
-      </c>
-      <c r="B104" t="s" s="4">
-        <v>408</v>
-      </c>
-      <c r="C104" t="s" s="4">
-        <v>409</v>
-      </c>
-      <c r="D104" t="s" s="4">
-        <v>99</v>
-      </c>
-      <c r="E104" t="s" s="4">
-        <v>410</v>
-      </c>
-      <c r="F104" t="s" s="4">
-        <v>137</v>
-      </c>
-      <c r="G104" s="4">
-        <v>01</v>
-      </c>
-      <c r="H104" s="3">
-        <v>1</v>
-      </c>
-      <c r="I104" s="3">
-        <v>9</v>
-      </c>
-      <c r="J104" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="K104" t="s" s="4">
-        <v>400</v>
-      </c>
-      <c r="L104" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" ht="14.999990" customHeight="1">
-      <c r="A105" s="4">
-        <v>101</v>
-      </c>
-      <c r="B105" t="s" s="4">
-        <v>411</v>
-      </c>
-      <c r="C105" t="s" s="4">
-        <v>412</v>
-      </c>
-      <c r="D105" t="s" s="4">
-        <v>413</v>
-      </c>
-      <c r="E105" t="s" s="4">
-        <v>414</v>
-      </c>
-      <c r="F105" t="s" s="4">
-        <v>247</v>
-      </c>
-      <c r="G105" s="5"/>
-      <c r="H105" s="3">
-        <v>1</v>
-      </c>
-      <c r="I105" s="3">
-        <v>11</v>
-      </c>
-      <c r="J105" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="K105" t="s" s="4">
-        <v>400</v>
-      </c>
-      <c r="L105" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" ht="15.020020" customHeight="1">
-      <c r="A106" s="4">
-        <v>102</v>
-      </c>
-      <c r="B106" t="s" s="4">
-        <v>415</v>
-      </c>
-      <c r="C106" t="s" s="4">
-        <v>416</v>
-      </c>
-      <c r="D106" t="s" s="4">
-        <v>417</v>
-      </c>
-      <c r="E106" t="s" s="4">
-        <v>418</v>
-      </c>
-      <c r="F106" t="s" s="4">
-        <v>192</v>
-      </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="3">
-        <v>1</v>
-      </c>
-      <c r="I106" s="3">
-        <v>12</v>
-      </c>
-      <c r="J106" s="4">
-        <v>13.5</v>
-      </c>
-      <c r="K106" t="s" s="4">
-        <v>400</v>
-      </c>
-      <c r="L106" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" ht="15.000000" customHeight="1">
-      <c r="A107" s="4">
-        <v>103</v>
-      </c>
-      <c r="B107" t="s" s="4">
-        <v>419</v>
-      </c>
-      <c r="C107" t="s" s="4">
-        <v>420</v>
-      </c>
-      <c r="D107" t="s" s="4">
-        <v>421</v>
-      </c>
-      <c r="E107" t="s" s="4">
-        <v>422</v>
-      </c>
-      <c r="F107" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G107" s="5"/>
-      <c r="H107" s="3">
-        <v>2</v>
-      </c>
-      <c r="I107" s="4">
-        <v>11.5</v>
-      </c>
-      <c r="J107" s="3">
-        <v>12</v>
-      </c>
-      <c r="K107" t="s" s="4">
-        <v>400</v>
-      </c>
-      <c r="L107" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="108" ht="15.000000" customHeight="1">
-      <c r="A108" s="4">
-        <v>104</v>
-      </c>
-      <c r="B108" t="s" s="4">
-        <v>423</v>
-      </c>
-      <c r="C108" t="s" s="4">
-        <v>424</v>
-      </c>
-      <c r="D108" t="s" s="4">
-        <v>425</v>
-      </c>
-      <c r="E108" t="s" s="4">
-        <v>81</v>
-      </c>
-      <c r="F108" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G108" s="5"/>
-      <c r="H108" s="3">
-        <v>2</v>
-      </c>
-      <c r="I108" s="3">
-        <v>13</v>
-      </c>
-      <c r="J108" s="4">
-        <v>13.5</v>
-      </c>
-      <c r="K108" t="s" s="4">
-        <v>400</v>
-      </c>
-      <c r="L108" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="109" ht="15.000000" customHeight="1">
-      <c r="A109" s="4">
-        <v>105</v>
-      </c>
-      <c r="B109" t="s" s="4">
-        <v>426</v>
-      </c>
-      <c r="C109" t="s" s="4">
-        <v>427</v>
-      </c>
-      <c r="D109" t="s" s="4">
-        <v>151</v>
-      </c>
-      <c r="E109" t="s" s="4">
-        <v>81</v>
-      </c>
-      <c r="F109" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G109" s="5"/>
-      <c r="H109" s="3">
-        <v>2</v>
-      </c>
-      <c r="I109" s="3">
-        <v>12</v>
-      </c>
-      <c r="J109" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="K109" t="s" s="4">
-        <v>400</v>
-      </c>
-      <c r="L109" t="s" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="110" ht="15.000000" customHeight="1">
-      <c r="A110" s="4">
-        <v>106</v>
-      </c>
-      <c r="B110" t="s" s="4">
-        <v>428</v>
-      </c>
-      <c r="C110" t="s" s="4">
-        <v>429</v>
-      </c>
-      <c r="D110" t="s" s="4">
-        <v>430</v>
-      </c>
-      <c r="E110" t="s" s="4">
-        <v>431</v>
-      </c>
-      <c r="F110" t="s" s="4">
-        <v>432</v>
-      </c>
-      <c r="G110" s="4">
-        <v>01</v>
-      </c>
-      <c r="H110" s="3">
-        <v>1</v>
-      </c>
-      <c r="I110" s="4">
-        <v>10.25</v>
-      </c>
-      <c r="J110" s="4">
-        <v>13.75</v>
-      </c>
-      <c r="K110" t="s" s="4">
-        <v>400</v>
-      </c>
-      <c r="L110" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" ht="15.000000" customHeight="1">
-      <c r="A111" s="4">
-        <v>107</v>
-      </c>
-      <c r="B111" t="s" s="4">
-        <v>433</v>
-      </c>
-      <c r="C111" t="s" s="4">
-        <v>434</v>
-      </c>
-      <c r="D111" t="s" s="4">
-        <v>435</v>
-      </c>
-      <c r="E111" t="s" s="4">
-        <v>241</v>
-      </c>
-      <c r="F111" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G111" s="5"/>
-      <c r="H111" s="3">
-        <v>2</v>
-      </c>
-      <c r="I111" s="4">
-        <v>11.5</v>
-      </c>
-      <c r="J111" s="3">
-        <v>12</v>
-      </c>
-      <c r="K111" t="s" s="4">
-        <v>436</v>
-      </c>
-      <c r="L111" t="s" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="112" ht="15.000000" customHeight="1">
-      <c r="A112" s="4">
-        <v>108</v>
-      </c>
-      <c r="B112" t="s" s="4">
-        <v>437</v>
-      </c>
-      <c r="C112" t="s" s="4">
-        <v>438</v>
-      </c>
-      <c r="D112" t="s" s="4">
-        <v>439</v>
-      </c>
-      <c r="E112" t="s" s="4">
-        <v>273</v>
-      </c>
-      <c r="F112" t="s" s="4">
-        <v>106</v>
-      </c>
-      <c r="G112" s="5"/>
-      <c r="H112" s="3">
-        <v>2</v>
-      </c>
-      <c r="I112" s="4">
-        <v>13.25</v>
-      </c>
-      <c r="J112" s="4">
-        <v>13.75</v>
-      </c>
-      <c r="K112" t="s" s="4">
-        <v>436</v>
-      </c>
-      <c r="L112" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="113" ht="15.019980" customHeight="1">
-      <c r="A113" s="4">
-        <v>109</v>
-      </c>
-      <c r="B113" t="s" s="4">
-        <v>440</v>
-      </c>
-      <c r="C113" t="s" s="4">
-        <v>441</v>
-      </c>
-      <c r="D113" t="s" s="4">
-        <v>442</v>
-      </c>
-      <c r="E113" t="s" s="4">
-        <v>443</v>
-      </c>
-      <c r="F113" t="s" s="4">
-        <v>213</v>
-      </c>
-      <c r="G113" s="5"/>
-      <c r="H113" s="3">
-        <v>2</v>
-      </c>
-      <c r="I113" s="4">
-        <v>11.75</v>
-      </c>
-      <c r="J113" s="4">
-        <v>12.25</v>
-      </c>
-      <c r="K113" t="s" s="4">
-        <v>436</v>
-      </c>
-      <c r="L113" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="114" ht="15.000000" customHeight="1">
-      <c r="A114" s="4">
-        <v>110</v>
-      </c>
-      <c r="B114" t="s" s="4">
-        <v>444</v>
-      </c>
-      <c r="C114" t="s" s="4">
-        <v>445</v>
-      </c>
-      <c r="D114" t="s" s="4">
-        <v>446</v>
-      </c>
-      <c r="E114" t="s" s="4">
-        <v>196</v>
-      </c>
-      <c r="F114" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G114" s="5"/>
-      <c r="H114" s="3">
-        <v>3</v>
-      </c>
-      <c r="I114" s="4">
-        <v>13.75</v>
-      </c>
-      <c r="J114" s="4">
-        <v>13.75</v>
-      </c>
-      <c r="K114" t="s" s="4">
-        <v>436</v>
-      </c>
-      <c r="L114" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" ht="15.000000" customHeight="1">
-      <c r="A115" s="4">
-        <v>111</v>
-      </c>
-      <c r="B115" t="s" s="4">
-        <v>447</v>
-      </c>
-      <c r="C115" t="s" s="4">
-        <v>448</v>
-      </c>
-      <c r="D115" t="s" s="4">
-        <v>324</v>
-      </c>
-      <c r="E115" t="s" s="4">
-        <v>449</v>
-      </c>
-      <c r="F115" t="s" s="4">
-        <v>106</v>
-      </c>
-      <c r="G115" s="5"/>
-      <c r="H115" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="I115" s="3">
-        <v>14</v>
-      </c>
-      <c r="J115" s="3">
-        <v>15</v>
-      </c>
-      <c r="K115" t="s" s="4">
+      <c r="K18" t="s" s="23">
         <v>450</v>
       </c>
-      <c r="L115" t="s" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="116" ht="15.000000" customHeight="1">
-      <c r="A116" s="4">
-        <v>112</v>
-      </c>
-      <c r="B116" t="s" s="4">
-        <v>451</v>
-      </c>
-      <c r="C116" t="s" s="4">
-        <v>452</v>
-      </c>
-      <c r="D116" t="s" s="4">
-        <v>453</v>
-      </c>
-      <c r="E116" t="s" s="4">
-        <v>196</v>
-      </c>
-      <c r="F116" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G116" s="5"/>
-      <c r="H116" s="3">
-        <v>3</v>
-      </c>
-      <c r="I116" s="4">
-        <v>17.25</v>
-      </c>
-      <c r="J116" s="4">
-        <v>17.25</v>
-      </c>
-      <c r="K116" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L116" t="s" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="117" ht="15.000000" customHeight="1">
-      <c r="A117" s="4">
-        <v>113</v>
-      </c>
-      <c r="B117" t="s" s="4">
-        <v>454</v>
-      </c>
-      <c r="C117" t="s" s="4">
-        <v>455</v>
-      </c>
-      <c r="D117" t="s" s="4">
-        <v>456</v>
-      </c>
-      <c r="E117" t="s" s="4">
-        <v>457</v>
-      </c>
-      <c r="F117" t="s" s="4">
-        <v>213</v>
-      </c>
-      <c r="G117" s="5"/>
-      <c r="H117" s="3">
-        <v>1</v>
-      </c>
-      <c r="I117" s="4">
-        <v>13.25</v>
-      </c>
-      <c r="J117" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="K117" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L117" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="118" ht="15.000000" customHeight="1">
-      <c r="A118" s="4">
-        <v>114</v>
-      </c>
-      <c r="B118" t="s" s="4">
-        <v>458</v>
-      </c>
-      <c r="C118" t="s" s="4">
-        <v>459</v>
-      </c>
-      <c r="D118" t="s" s="4">
-        <v>460</v>
-      </c>
-      <c r="E118" t="s" s="4">
-        <v>350</v>
-      </c>
-      <c r="F118" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G118" s="5"/>
-      <c r="H118" s="3">
-        <v>3</v>
-      </c>
-      <c r="I118" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="J118" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="K118" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L118" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="119" ht="15.000000" customHeight="1">
-      <c r="A119" s="4">
-        <v>115</v>
-      </c>
-      <c r="B119" t="s" s="4">
-        <v>461</v>
-      </c>
-      <c r="C119" t="s" s="4">
-        <v>462</v>
-      </c>
-      <c r="D119" t="s" s="4">
-        <v>406</v>
-      </c>
-      <c r="E119" t="s" s="4">
-        <v>291</v>
-      </c>
-      <c r="F119" t="s" s="4">
-        <v>192</v>
-      </c>
-      <c r="G119" s="5"/>
-      <c r="H119" s="3">
-        <v>1</v>
-      </c>
-      <c r="I119" s="3">
-        <v>13</v>
-      </c>
-      <c r="J119" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="K119" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L119" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" ht="15.020000" customHeight="1">
-      <c r="A120" s="4">
-        <v>116</v>
-      </c>
-      <c r="B120" t="s" s="4">
-        <v>463</v>
-      </c>
-      <c r="C120" t="s" s="4">
-        <v>464</v>
-      </c>
-      <c r="D120" t="s" s="4">
-        <v>113</v>
-      </c>
-      <c r="E120" t="s" s="4">
-        <v>208</v>
-      </c>
-      <c r="F120" t="s" s="4">
-        <v>101</v>
-      </c>
-      <c r="G120" s="5"/>
-      <c r="H120" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="I120" s="3">
-        <v>14</v>
-      </c>
-      <c r="J120" s="3">
-        <v>15</v>
-      </c>
-      <c r="K120" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L120" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="121" ht="15.000000" customHeight="1">
-      <c r="A121" s="4">
-        <v>117</v>
-      </c>
-      <c r="B121" t="s" s="4">
-        <v>465</v>
-      </c>
-      <c r="C121" t="s" s="4">
-        <v>466</v>
-      </c>
-      <c r="D121" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="E121" t="s" s="4">
-        <v>333</v>
-      </c>
-      <c r="F121" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G121" s="5"/>
-      <c r="H121" s="3">
-        <v>3</v>
-      </c>
-      <c r="I121" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="J121" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="K121" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L121" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="122" ht="15.000000" customHeight="1">
-      <c r="A122" s="4">
-        <v>118</v>
-      </c>
-      <c r="B122" t="s" s="4">
-        <v>467</v>
-      </c>
-      <c r="C122" t="s" s="4">
-        <v>468</v>
-      </c>
-      <c r="D122" t="s" s="4">
-        <v>469</v>
-      </c>
-      <c r="E122" t="s" s="4">
-        <v>470</v>
-      </c>
-      <c r="F122" t="s" s="4">
-        <v>471</v>
-      </c>
-      <c r="G122" s="4">
-        <v>01</v>
-      </c>
-      <c r="H122" s="3">
-        <v>1</v>
-      </c>
-      <c r="I122" s="4">
-        <v>11.75</v>
-      </c>
-      <c r="J122" s="4">
-        <v>15.25</v>
-      </c>
-      <c r="K122" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L122" t="s" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="123" ht="15.000020" customHeight="1">
-      <c r="A123" s="4">
-        <v>119</v>
-      </c>
-      <c r="B123" t="s" s="4">
-        <v>472</v>
-      </c>
-      <c r="C123" t="s" s="4">
-        <v>473</v>
-      </c>
-      <c r="D123" t="s" s="4">
-        <v>147</v>
-      </c>
-      <c r="E123" t="s" s="4">
-        <v>177</v>
-      </c>
-      <c r="F123" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G123" s="5"/>
-      <c r="H123" s="3">
-        <v>3</v>
-      </c>
-      <c r="I123" s="3">
-        <v>15</v>
-      </c>
-      <c r="J123" s="3">
-        <v>15</v>
-      </c>
-      <c r="K123" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L123" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="124" ht="15.000000" customHeight="1">
-      <c r="A124" s="4">
-        <v>120</v>
-      </c>
-      <c r="B124" t="s" s="4">
-        <v>474</v>
-      </c>
-      <c r="C124" t="s" s="4">
-        <v>475</v>
-      </c>
-      <c r="D124" t="s" s="4">
-        <v>476</v>
-      </c>
-      <c r="E124" t="s" s="4">
-        <v>155</v>
-      </c>
-      <c r="F124" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G124" s="5"/>
-      <c r="H124" s="3">
-        <v>2</v>
-      </c>
-      <c r="I124" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="J124" s="3">
-        <v>17</v>
-      </c>
-      <c r="K124" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L124" t="s" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="125" ht="15.000000" customHeight="1">
-      <c r="A125" s="4">
-        <v>121</v>
-      </c>
-      <c r="B125" t="s" s="4">
-        <v>477</v>
-      </c>
-      <c r="C125" t="s" s="4">
-        <v>478</v>
-      </c>
-      <c r="D125" t="s" s="4">
-        <v>435</v>
-      </c>
-      <c r="E125" t="s" s="4">
-        <v>258</v>
-      </c>
-      <c r="F125" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G125" s="5"/>
-      <c r="H125" s="3">
-        <v>2</v>
-      </c>
-      <c r="I125" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="J125" s="3">
-        <v>15</v>
-      </c>
-      <c r="K125" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L125" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="126" ht="15.000000" customHeight="1">
-      <c r="A126" s="4">
-        <v>122</v>
-      </c>
-      <c r="B126" t="s" s="4">
-        <v>479</v>
-      </c>
-      <c r="C126" t="s" s="4">
-        <v>480</v>
-      </c>
-      <c r="D126" t="s" s="4">
-        <v>240</v>
-      </c>
-      <c r="E126" t="s" s="4">
-        <v>262</v>
-      </c>
-      <c r="F126" t="s" s="4">
-        <v>213</v>
-      </c>
-      <c r="G126" s="5"/>
-      <c r="H126" s="3">
-        <v>2</v>
-      </c>
-      <c r="I126" s="4">
-        <v>14.25</v>
-      </c>
-      <c r="J126" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="K126" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L126" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="127" ht="15.023000" customHeight="1">
-      <c r="A127" s="4">
-        <v>123</v>
-      </c>
-      <c r="B127" t="s" s="4">
-        <v>481</v>
-      </c>
-      <c r="C127" t="s" s="4">
-        <v>482</v>
-      </c>
-      <c r="D127" t="s" s="4">
-        <v>483</v>
-      </c>
-      <c r="E127" t="s" s="4">
-        <v>484</v>
-      </c>
-      <c r="F127" t="s" s="4">
-        <v>315</v>
-      </c>
-      <c r="G127" s="5"/>
-      <c r="H127" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="I127" s="3">
-        <v>14</v>
-      </c>
-      <c r="J127" s="3">
-        <v>15</v>
-      </c>
-      <c r="K127" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L127" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128" ht="24.390000" customHeight="1">
-      <c r="A128" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B128" t="s" s="1">
-        <v>1</v>
-      </c>
-      <c r="C128" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="D128" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="E128" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="F128" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="G128" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="H128" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="J128" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="K128" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="L128" t="s" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" ht="15.000000" customHeight="1">
-      <c r="A129" s="4">
-        <v>124</v>
-      </c>
-      <c r="B129" t="s" s="4">
-        <v>485</v>
-      </c>
-      <c r="C129" t="s" s="4">
-        <v>486</v>
-      </c>
-      <c r="D129" t="s" s="4">
-        <v>487</v>
-      </c>
-      <c r="E129" t="s" s="4">
-        <v>136</v>
-      </c>
-      <c r="F129" t="s" s="4">
-        <v>137</v>
-      </c>
-      <c r="G129" s="5"/>
-      <c r="H129" s="3">
-        <v>1</v>
-      </c>
-      <c r="I129" s="4">
-        <v>13.25</v>
-      </c>
-      <c r="J129" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="K129" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L129" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="130" ht="15.000000" customHeight="1">
-      <c r="A130" s="4">
-        <v>125</v>
-      </c>
-      <c r="B130" t="s" s="4">
-        <v>488</v>
-      </c>
-      <c r="C130" t="s" s="4">
-        <v>489</v>
-      </c>
-      <c r="D130" t="s" s="4">
-        <v>490</v>
-      </c>
-      <c r="E130" t="s" s="4">
-        <v>491</v>
-      </c>
-      <c r="F130" t="s" s="4">
-        <v>329</v>
-      </c>
-      <c r="G130" s="4">
-        <v>01</v>
-      </c>
-      <c r="H130" s="3">
-        <v>1</v>
-      </c>
-      <c r="I130" s="4">
-        <v>11.5</v>
-      </c>
-      <c r="J130" s="3">
-        <v>15</v>
-      </c>
-      <c r="K130" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L130" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="131" ht="14.999990" customHeight="1">
-      <c r="A131" s="4">
-        <v>126</v>
-      </c>
-      <c r="B131" t="s" s="4">
-        <v>492</v>
-      </c>
-      <c r="C131" t="s" s="4">
-        <v>493</v>
-      </c>
-      <c r="D131" t="s" s="4">
-        <v>298</v>
-      </c>
-      <c r="E131" t="s" s="4">
-        <v>494</v>
-      </c>
-      <c r="F131" t="s" s="4">
-        <v>377</v>
-      </c>
-      <c r="G131" s="5"/>
-      <c r="H131" s="3">
-        <v>1</v>
-      </c>
-      <c r="I131" s="3">
-        <v>13</v>
-      </c>
-      <c r="J131" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="K131" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L131" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="132" ht="15.030010" customHeight="1">
-      <c r="A132" s="4">
-        <v>127</v>
-      </c>
-      <c r="B132" t="s" s="4">
-        <v>495</v>
-      </c>
-      <c r="C132" t="s" s="4">
-        <v>496</v>
-      </c>
-      <c r="D132" t="s" s="4">
-        <v>497</v>
-      </c>
-      <c r="E132" t="s" s="4">
-        <v>200</v>
-      </c>
-      <c r="F132" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G132" s="5"/>
-      <c r="H132" s="3">
-        <v>2</v>
-      </c>
-      <c r="I132" s="3">
-        <v>14</v>
-      </c>
-      <c r="J132" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="K132" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L132" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="133" ht="15.000000" customHeight="1">
-      <c r="A133" s="4">
-        <v>128</v>
-      </c>
-      <c r="B133" t="s" s="4">
-        <v>498</v>
-      </c>
-      <c r="C133" t="s" s="4">
-        <v>499</v>
-      </c>
-      <c r="D133" t="s" s="4">
-        <v>91</v>
-      </c>
-      <c r="E133" t="s" s="4">
-        <v>418</v>
-      </c>
-      <c r="F133" t="s" s="4">
-        <v>192</v>
-      </c>
-      <c r="G133" s="5"/>
-      <c r="H133" s="3">
-        <v>1</v>
-      </c>
-      <c r="I133" s="4">
-        <v>13.5</v>
-      </c>
-      <c r="J133" s="3">
-        <v>15</v>
-      </c>
-      <c r="K133" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L133" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="134" ht="15.000000" customHeight="1">
-      <c r="A134" s="4">
-        <v>129</v>
-      </c>
-      <c r="B134" t="s" s="4">
-        <v>500</v>
-      </c>
-      <c r="C134" t="s" s="4">
-        <v>501</v>
-      </c>
-      <c r="D134" t="s" s="4">
-        <v>313</v>
-      </c>
-      <c r="E134" t="s" s="4">
-        <v>502</v>
-      </c>
-      <c r="F134" t="s" s="4">
-        <v>247</v>
-      </c>
-      <c r="G134" s="5"/>
-      <c r="H134" s="3">
-        <v>1</v>
-      </c>
-      <c r="I134" s="4">
-        <v>18.75</v>
-      </c>
-      <c r="J134" s="4">
-        <v>20.25</v>
-      </c>
-      <c r="K134" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L134" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="135" ht="15.000000" customHeight="1">
-      <c r="A135" s="4">
-        <v>130</v>
-      </c>
-      <c r="B135" t="s" s="4">
-        <v>503</v>
-      </c>
-      <c r="C135" t="s" s="4">
-        <v>504</v>
-      </c>
-      <c r="D135" t="s" s="4">
-        <v>505</v>
-      </c>
-      <c r="E135" t="s" s="4">
-        <v>502</v>
-      </c>
-      <c r="F135" t="s" s="4">
-        <v>247</v>
-      </c>
-      <c r="G135" s="5"/>
-      <c r="H135" s="3">
-        <v>1</v>
-      </c>
-      <c r="I135" s="4">
-        <v>13.75</v>
-      </c>
-      <c r="J135" s="4">
-        <v>15.25</v>
-      </c>
-      <c r="K135" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L135" t="s" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="136" ht="15.000000" customHeight="1">
-      <c r="A136" s="4">
-        <v>131</v>
-      </c>
-      <c r="B136" t="s" s="4">
-        <v>506</v>
-      </c>
-      <c r="C136" t="s" s="4">
-        <v>507</v>
-      </c>
-      <c r="D136" t="s" s="4">
-        <v>508</v>
-      </c>
-      <c r="E136" t="s" s="4">
-        <v>509</v>
-      </c>
-      <c r="F136" t="s" s="4">
-        <v>213</v>
-      </c>
-      <c r="G136" s="5"/>
-      <c r="H136" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="I136" s="3">
-        <v>14</v>
-      </c>
-      <c r="J136" s="3">
-        <v>15</v>
-      </c>
-      <c r="K136" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L136" t="s" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="137" ht="15.000000" customHeight="1">
-      <c r="A137" s="4">
-        <v>132</v>
-      </c>
-      <c r="B137" t="s" s="4">
-        <v>510</v>
-      </c>
-      <c r="C137" t="s" s="4">
-        <v>511</v>
-      </c>
-      <c r="D137" t="s" s="4">
-        <v>512</v>
-      </c>
-      <c r="E137" t="s" s="4">
-        <v>81</v>
-      </c>
-      <c r="F137" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G137" s="5"/>
-      <c r="H137" s="3">
-        <v>1</v>
-      </c>
-      <c r="I137" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="J137" s="4">
-        <v>16.25</v>
-      </c>
-      <c r="K137" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L137" t="s" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" ht="14.999990" customHeight="1">
-      <c r="A138" s="4">
-        <v>133</v>
-      </c>
-      <c r="B138" t="s" s="4">
-        <v>513</v>
-      </c>
-      <c r="C138" t="s" s="4">
-        <v>514</v>
-      </c>
-      <c r="D138" t="s" s="4">
-        <v>515</v>
-      </c>
-      <c r="E138" t="s" s="4">
-        <v>61</v>
-      </c>
-      <c r="F138" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G138" s="5"/>
-      <c r="H138" s="3">
-        <v>2</v>
-      </c>
-      <c r="I138" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="J138" s="3">
-        <v>15</v>
-      </c>
-      <c r="K138" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L138" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="139" ht="15.020020" customHeight="1">
-      <c r="A139" s="4">
-        <v>134</v>
-      </c>
-      <c r="B139" t="s" s="4">
-        <v>516</v>
-      </c>
-      <c r="C139" t="s" s="4">
-        <v>517</v>
-      </c>
-      <c r="D139" t="s" s="4">
-        <v>518</v>
-      </c>
-      <c r="E139" t="s" s="4">
-        <v>422</v>
-      </c>
-      <c r="F139" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G139" s="5"/>
-      <c r="H139" s="3">
-        <v>2</v>
-      </c>
-      <c r="I139" s="4">
-        <v>15.25</v>
-      </c>
-      <c r="J139" s="4">
-        <v>15.75</v>
-      </c>
-      <c r="K139" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L139" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="140" ht="15.000000" customHeight="1">
-      <c r="A140" s="4">
-        <v>135</v>
-      </c>
-      <c r="B140" t="s" s="4">
-        <v>519</v>
-      </c>
-      <c r="C140" t="s" s="4">
-        <v>520</v>
-      </c>
-      <c r="D140" t="s" s="4">
-        <v>126</v>
-      </c>
-      <c r="E140" t="s" s="4">
-        <v>291</v>
-      </c>
-      <c r="F140" t="s" s="4">
-        <v>192</v>
-      </c>
-      <c r="G140" s="5"/>
-      <c r="H140" s="3">
-        <v>1</v>
-      </c>
-      <c r="I140" s="3">
-        <v>14</v>
-      </c>
-      <c r="J140" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="K140" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L140" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="141" ht="15.000000" customHeight="1">
-      <c r="A141" s="4">
-        <v>136</v>
-      </c>
-      <c r="B141" t="s" s="4">
-        <v>521</v>
-      </c>
-      <c r="C141" t="s" s="4">
-        <v>522</v>
-      </c>
-      <c r="D141" t="s" s="4">
-        <v>523</v>
-      </c>
-      <c r="E141" t="s" s="4">
-        <v>524</v>
-      </c>
-      <c r="F141" t="s" s="4">
-        <v>137</v>
-      </c>
-      <c r="G141" s="5"/>
-      <c r="H141" s="3">
-        <v>1</v>
-      </c>
-      <c r="I141" s="3">
-        <v>14</v>
-      </c>
-      <c r="J141" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="K141" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L141" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="142" ht="15.000000" customHeight="1">
-      <c r="A142" s="4">
-        <v>137</v>
-      </c>
-      <c r="B142" t="s" s="4">
-        <v>525</v>
-      </c>
-      <c r="C142" t="s" s="4">
-        <v>526</v>
-      </c>
-      <c r="D142" t="s" s="4">
-        <v>527</v>
-      </c>
-      <c r="E142" t="s" s="4">
-        <v>528</v>
-      </c>
-      <c r="F142" t="s" s="4">
-        <v>529</v>
-      </c>
-      <c r="G142" s="4">
-        <v>01</v>
-      </c>
-      <c r="H142" s="3">
-        <v>1</v>
-      </c>
-      <c r="I142" s="3">
-        <v>12</v>
-      </c>
-      <c r="J142" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="K142" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L142" t="s" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="143" ht="15.000000" customHeight="1">
-      <c r="A143" s="4">
-        <v>138</v>
-      </c>
-      <c r="B143" t="s" s="4">
-        <v>530</v>
-      </c>
-      <c r="C143" t="s" s="4">
-        <v>531</v>
-      </c>
-      <c r="D143" t="s" s="4">
-        <v>324</v>
-      </c>
-      <c r="E143" t="s" s="4">
-        <v>532</v>
-      </c>
-      <c r="F143" t="s" s="4">
-        <v>101</v>
-      </c>
-      <c r="G143" s="5"/>
-      <c r="H143" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="I143" s="4">
-        <v>13.75</v>
-      </c>
-      <c r="J143" s="4">
-        <v>14.75</v>
-      </c>
-      <c r="K143" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L143" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="144" ht="15.000000" customHeight="1">
-      <c r="A144" s="4">
-        <v>139</v>
-      </c>
-      <c r="B144" t="s" s="4">
-        <v>533</v>
-      </c>
-      <c r="C144" t="s" s="4">
-        <v>534</v>
-      </c>
-      <c r="D144" t="s" s="4">
-        <v>121</v>
-      </c>
-      <c r="E144" t="s" s="4">
-        <v>535</v>
-      </c>
-      <c r="F144" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="G144" s="5"/>
-      <c r="H144" s="3">
-        <v>2</v>
-      </c>
-      <c r="I144" s="4">
-        <v>15.25</v>
-      </c>
-      <c r="J144" s="4">
-        <v>15.75</v>
-      </c>
-      <c r="K144" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L144" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="145" ht="15.000000" customHeight="1">
-      <c r="A145" s="4">
-        <v>140</v>
-      </c>
-      <c r="B145" t="s" s="4">
-        <v>536</v>
-      </c>
-      <c r="C145" t="s" s="4">
-        <v>537</v>
-      </c>
-      <c r="D145" t="s" s="4">
-        <v>538</v>
-      </c>
-      <c r="E145" t="s" s="4">
-        <v>539</v>
-      </c>
-      <c r="F145" t="s" s="4">
-        <v>35</v>
-      </c>
-      <c r="G145" s="5"/>
-      <c r="H145" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="I145" s="3">
-        <v>14</v>
-      </c>
-      <c r="J145" s="3">
-        <v>15</v>
-      </c>
-      <c r="K145" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="L145" t="s" s="4">
+      <c r="L18" t="s" s="23">
         <v>50</v>
       </c>
     </row>

--- a/DHTNMT-HN/Cao dang.xlsx
+++ b/DHTNMT-HN/Cao dang.xlsx
@@ -8,10 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="page 1" sheetId="1" r:id="rId3"/>
-    <sheet name="page 2" sheetId="2" r:id="rId4"/>
-    <sheet name="page 3" sheetId="3" r:id="rId5"/>
-    <sheet name="page 4" sheetId="4" r:id="rId6"/>
-    <sheet name="page 5" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -13904,7 +13900,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -13927,71 +13923,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -14007,66 +13943,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1" applyBorder="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyAlignment="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyAlignment="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyAlignment="1" applyBorder="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyAlignment="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyAlignment="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyAlignment="1" applyBorder="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyAlignment="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyAlignment="1" applyBorder="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyAlignment="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyAlignment="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyAlignment="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyAlignment="1" applyBorder="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14362,7 +14238,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15392,4349 +15268,4241 @@
         <v>18</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L33"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.761905" customWidth="1"/>
-    <col min="2" max="2" width="12.000000" customWidth="1"/>
-    <col min="3" max="3" width="29.142857" customWidth="1"/>
-    <col min="4" max="4" width="12.000000" customWidth="1"/>
-    <col min="5" max="5" width="22.476190" customWidth="1"/>
-    <col min="6" max="6" width="12.952381" customWidth="1"/>
-    <col min="7" max="7" width="5.523810" customWidth="1"/>
-    <col min="8" max="8" width="5.333333" customWidth="1"/>
-    <col min="9" max="9" width="10.666667" customWidth="1"/>
-    <col min="10" max="10" width="10.095238" customWidth="1"/>
-    <col min="11" max="11" width="10.666667" customWidth="1"/>
-    <col min="12" max="12" width="16.380952" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="24.390000" customHeight="1">
-      <c r="A1" t="s" s="6">
+    <row r="29" ht="24.390000" customHeight="1">
+      <c r="A29" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="6">
+      <c r="B29" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="6">
+      <c r="C29" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="6">
+      <c r="D29" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="6">
+      <c r="E29" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="6">
+      <c r="F29" t="s" s="1">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="6">
+      <c r="G29" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="6">
+      <c r="H29" t="s" s="1">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="7">
+      <c r="I29" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="6">
+      <c r="J29" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="6">
+      <c r="K29" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="6">
+      <c r="L29" t="s" s="1">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" ht="15.000000" customHeight="1">
-      <c r="A2" s="8">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="8">
-        <v>133</v>
-      </c>
-      <c r="C2" t="s" s="8">
-        <v>134</v>
-      </c>
-      <c r="D2" t="s" s="8">
-        <v>135</v>
-      </c>
-      <c r="E2" t="s" s="8">
-        <v>136</v>
-      </c>
-      <c r="F2" t="s" s="8">
-        <v>137</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10">
-        <v>1</v>
-      </c>
-      <c r="I2" s="10">
-        <v>13</v>
-      </c>
-      <c r="J2" s="8">
-        <v>14.5</v>
-      </c>
-      <c r="K2" t="s" s="8">
-        <v>110</v>
-      </c>
-      <c r="L2" t="s" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" ht="15.000000" customHeight="1">
-      <c r="A3" s="8">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s" s="8">
-        <v>138</v>
-      </c>
-      <c r="C3" t="s" s="8">
-        <v>139</v>
-      </c>
-      <c r="D3" t="s" s="8">
-        <v>140</v>
-      </c>
-      <c r="E3" t="s" s="8">
-        <v>92</v>
-      </c>
-      <c r="F3" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10">
-        <v>2</v>
-      </c>
-      <c r="I3" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="J3" s="8">
-        <v>12.75</v>
-      </c>
-      <c r="K3" t="s" s="8">
-        <v>141</v>
-      </c>
-      <c r="L3" t="s" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" ht="14.999990" customHeight="1">
-      <c r="A4" s="8">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s" s="8">
-        <v>142</v>
-      </c>
-      <c r="C4" t="s" s="8">
-        <v>143</v>
-      </c>
-      <c r="D4" t="s" s="8">
-        <v>144</v>
-      </c>
-      <c r="E4" t="s" s="8">
-        <v>92</v>
-      </c>
-      <c r="F4" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10">
-        <v>2</v>
-      </c>
-      <c r="I4" s="10">
-        <v>13</v>
-      </c>
-      <c r="J4" s="8">
-        <v>13.5</v>
-      </c>
-      <c r="K4" t="s" s="8">
-        <v>141</v>
-      </c>
-      <c r="L4" t="s" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" ht="15.030010" customHeight="1">
-      <c r="A5" s="8">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s" s="8">
-        <v>145</v>
-      </c>
-      <c r="C5" t="s" s="8">
-        <v>146</v>
-      </c>
-      <c r="D5" t="s" s="8">
-        <v>147</v>
-      </c>
-      <c r="E5" t="s" s="8">
-        <v>148</v>
-      </c>
-      <c r="F5" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10">
-        <v>2</v>
-      </c>
-      <c r="I5" s="8">
-        <v>11.75</v>
-      </c>
-      <c r="J5" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="K5" t="s" s="8">
-        <v>141</v>
-      </c>
-      <c r="L5" t="s" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" ht="15.000000" customHeight="1">
-      <c r="A6" s="8">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s" s="8">
-        <v>149</v>
-      </c>
-      <c r="C6" t="s" s="8">
-        <v>150</v>
-      </c>
-      <c r="D6" t="s" s="8">
-        <v>151</v>
-      </c>
-      <c r="E6" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10">
-        <v>2</v>
-      </c>
-      <c r="I6" s="10">
-        <v>12</v>
-      </c>
-      <c r="J6" s="8">
-        <v>12.5</v>
-      </c>
-      <c r="K6" t="s" s="8">
-        <v>141</v>
-      </c>
-      <c r="L6" t="s" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" ht="15.000000" customHeight="1">
-      <c r="A7" s="8">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s" s="8">
-        <v>152</v>
-      </c>
-      <c r="C7" t="s" s="8">
-        <v>153</v>
-      </c>
-      <c r="D7" t="s" s="8">
-        <v>154</v>
-      </c>
-      <c r="E7" t="s" s="8">
-        <v>155</v>
-      </c>
-      <c r="F7" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10">
-        <v>2</v>
-      </c>
-      <c r="I7" s="8">
-        <v>12.5</v>
-      </c>
-      <c r="J7" s="10">
-        <v>13</v>
-      </c>
-      <c r="K7" t="s" s="8">
-        <v>141</v>
-      </c>
-      <c r="L7" t="s" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" ht="15.000000" customHeight="1">
-      <c r="A8" s="8">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s" s="8">
-        <v>156</v>
-      </c>
-      <c r="C8" t="s" s="8">
-        <v>157</v>
-      </c>
-      <c r="D8" t="s" s="8">
-        <v>158</v>
-      </c>
-      <c r="E8" t="s" s="8">
-        <v>159</v>
-      </c>
-      <c r="F8" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10">
-        <v>2</v>
-      </c>
-      <c r="I8" s="8">
-        <v>11.75</v>
-      </c>
-      <c r="J8" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="K8" t="s" s="8">
-        <v>141</v>
-      </c>
-      <c r="L8" t="s" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" ht="15.000000" customHeight="1">
-      <c r="A9" s="8">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s" s="8">
-        <v>160</v>
-      </c>
-      <c r="C9" t="s" s="8">
-        <v>161</v>
-      </c>
-      <c r="D9" t="s" s="8">
-        <v>162</v>
-      </c>
-      <c r="E9" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="F9" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10">
-        <v>3</v>
-      </c>
-      <c r="I9" s="8">
-        <v>14.5</v>
-      </c>
-      <c r="J9" s="8">
-        <v>14.5</v>
-      </c>
-      <c r="K9" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="L9" t="s" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" ht="15.000000" customHeight="1">
-      <c r="A10" s="8">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s" s="8">
-        <v>164</v>
-      </c>
-      <c r="C10" t="s" s="8">
-        <v>165</v>
-      </c>
-      <c r="D10" t="s" s="8">
-        <v>166</v>
-      </c>
-      <c r="E10" t="s" s="8">
-        <v>49</v>
-      </c>
-      <c r="F10" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="I10" s="10">
-        <v>15</v>
-      </c>
-      <c r="J10" s="10">
-        <v>16</v>
-      </c>
-      <c r="K10" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="L10" t="s" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" ht="14.999990" customHeight="1">
-      <c r="A11" s="8">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s" s="8">
-        <v>167</v>
-      </c>
-      <c r="C11" t="s" s="8">
-        <v>168</v>
-      </c>
-      <c r="D11" t="s" s="8">
-        <v>169</v>
-      </c>
-      <c r="E11" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10">
-        <v>3</v>
-      </c>
-      <c r="I11" s="8">
-        <v>13.25</v>
-      </c>
-      <c r="J11" s="8">
-        <v>13.25</v>
-      </c>
-      <c r="K11" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="L11" t="s" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" ht="15.020020" customHeight="1">
-      <c r="A12" s="8">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s" s="8">
-        <v>170</v>
-      </c>
-      <c r="C12" t="s" s="8">
-        <v>171</v>
-      </c>
-      <c r="D12" t="s" s="8">
-        <v>172</v>
-      </c>
-      <c r="E12" t="s" s="8">
-        <v>173</v>
-      </c>
-      <c r="F12" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10">
-        <v>2</v>
-      </c>
-      <c r="I12" s="8">
-        <v>14.5</v>
-      </c>
-      <c r="J12" s="10">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="L12" t="s" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" ht="15.000000" customHeight="1">
-      <c r="A13" s="8">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s" s="8">
-        <v>174</v>
-      </c>
-      <c r="C13" t="s" s="8">
-        <v>175</v>
-      </c>
-      <c r="D13" t="s" s="8">
-        <v>176</v>
-      </c>
-      <c r="E13" t="s" s="8">
-        <v>177</v>
-      </c>
-      <c r="F13" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10">
-        <v>3</v>
-      </c>
-      <c r="I13" s="10">
-        <v>14</v>
-      </c>
-      <c r="J13" s="10">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="L13" t="s" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" ht="15.000000" customHeight="1">
-      <c r="A14" s="8">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s" s="8">
-        <v>178</v>
-      </c>
-      <c r="C14" t="s" s="8">
-        <v>179</v>
-      </c>
-      <c r="D14" t="s" s="8">
-        <v>180</v>
-      </c>
-      <c r="E14" t="s" s="8">
-        <v>181</v>
-      </c>
-      <c r="F14" t="s" s="8">
-        <v>106</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="I14" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="J14" s="8">
-        <v>15.25</v>
-      </c>
-      <c r="K14" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="L14" t="s" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" ht="15.000000" customHeight="1">
-      <c r="A15" s="8">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s" s="8">
-        <v>182</v>
-      </c>
-      <c r="C15" t="s" s="8">
-        <v>183</v>
-      </c>
-      <c r="D15" t="s" s="8">
-        <v>184</v>
-      </c>
-      <c r="E15" t="s" s="8">
-        <v>185</v>
-      </c>
-      <c r="F15" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10">
-        <v>3</v>
-      </c>
-      <c r="I15" s="8">
-        <v>13.25</v>
-      </c>
-      <c r="J15" s="8">
-        <v>13.25</v>
-      </c>
-      <c r="K15" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="L15" t="s" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" ht="15.000000" customHeight="1">
-      <c r="A16" s="8">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s" s="8">
-        <v>186</v>
-      </c>
-      <c r="C16" t="s" s="8">
-        <v>187</v>
-      </c>
-      <c r="D16" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s" s="8">
-        <v>105</v>
-      </c>
-      <c r="F16" t="s" s="8">
-        <v>106</v>
-      </c>
-      <c r="G16" s="8">
-        <v>06</v>
-      </c>
-      <c r="H16" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="I16" s="8">
-        <v>11.5</v>
-      </c>
-      <c r="J16" s="8">
-        <v>13.5</v>
-      </c>
-      <c r="K16" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="L16" t="s" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" ht="15.000000" customHeight="1">
-      <c r="A17" s="8">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s" s="8">
-        <v>188</v>
-      </c>
-      <c r="C17" t="s" s="8">
-        <v>189</v>
-      </c>
-      <c r="D17" t="s" s="8">
-        <v>190</v>
-      </c>
-      <c r="E17" t="s" s="8">
-        <v>191</v>
-      </c>
-      <c r="F17" t="s" s="8">
-        <v>192</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10">
-        <v>1</v>
-      </c>
-      <c r="I17" s="10">
-        <v>13</v>
-      </c>
-      <c r="J17" s="8">
-        <v>14.5</v>
-      </c>
-      <c r="K17" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="L17" t="s" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" ht="15.000000" customHeight="1">
-      <c r="A18" s="8">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s" s="8">
-        <v>193</v>
-      </c>
-      <c r="C18" t="s" s="8">
-        <v>194</v>
-      </c>
-      <c r="D18" t="s" s="8">
-        <v>195</v>
-      </c>
-      <c r="E18" t="s" s="8">
-        <v>196</v>
-      </c>
-      <c r="F18" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10">
-        <v>3</v>
-      </c>
-      <c r="I18" s="8">
-        <v>15.25</v>
-      </c>
-      <c r="J18" s="8">
-        <v>15.25</v>
-      </c>
-      <c r="K18" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="L18" t="s" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" ht="15.019980" customHeight="1">
-      <c r="A19" s="8">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s" s="8">
-        <v>197</v>
-      </c>
-      <c r="C19" t="s" s="8">
-        <v>198</v>
-      </c>
-      <c r="D19" t="s" s="8">
-        <v>199</v>
-      </c>
-      <c r="E19" t="s" s="8">
-        <v>200</v>
-      </c>
-      <c r="F19" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10">
-        <v>2</v>
-      </c>
-      <c r="I19" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="J19" s="8">
-        <v>14.75</v>
-      </c>
-      <c r="K19" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="L19" t="s" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" ht="15.000000" customHeight="1">
-      <c r="A20" s="8">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s" s="8">
-        <v>201</v>
-      </c>
-      <c r="C20" t="s" s="8">
-        <v>202</v>
-      </c>
-      <c r="D20" t="s" s="8">
-        <v>203</v>
-      </c>
-      <c r="E20" t="s" s="8">
-        <v>204</v>
-      </c>
-      <c r="F20" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="I20" s="10">
-        <v>12</v>
-      </c>
-      <c r="J20" s="10">
-        <v>13</v>
-      </c>
-      <c r="K20" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="L20" t="s" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" ht="15.000000" customHeight="1">
-      <c r="A21" s="8">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s" s="8">
-        <v>205</v>
-      </c>
-      <c r="C21" t="s" s="8">
-        <v>206</v>
-      </c>
-      <c r="D21" t="s" s="8">
-        <v>207</v>
-      </c>
-      <c r="E21" t="s" s="8">
-        <v>208</v>
-      </c>
-      <c r="F21" t="s" s="8">
-        <v>101</v>
-      </c>
-      <c r="G21" s="8">
-        <v>03</v>
-      </c>
-      <c r="H21" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="I21" s="8">
-        <v>11.25</v>
-      </c>
-      <c r="J21" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="K21" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="L21" t="s" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" ht="15.000000" customHeight="1">
-      <c r="A22" s="8">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s" s="8">
-        <v>209</v>
-      </c>
-      <c r="C22" t="s" s="8">
-        <v>210</v>
-      </c>
-      <c r="D22" t="s" s="8">
-        <v>211</v>
-      </c>
-      <c r="E22" t="s" s="8">
-        <v>212</v>
-      </c>
-      <c r="F22" t="s" s="8">
-        <v>213</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10">
-        <v>2</v>
-      </c>
-      <c r="I22" s="10">
-        <v>13</v>
-      </c>
-      <c r="J22" s="8">
-        <v>13.5</v>
-      </c>
-      <c r="K22" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="L22" t="s" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" ht="15.000000" customHeight="1">
-      <c r="A23" s="8">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s" s="8">
-        <v>214</v>
-      </c>
-      <c r="C23" t="s" s="8">
-        <v>215</v>
-      </c>
-      <c r="D23" t="s" s="8">
-        <v>216</v>
-      </c>
-      <c r="E23" t="s" s="8">
-        <v>92</v>
-      </c>
-      <c r="F23" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10">
-        <v>2</v>
-      </c>
-      <c r="I23" s="10">
-        <v>12</v>
-      </c>
-      <c r="J23" s="8">
-        <v>12.5</v>
-      </c>
-      <c r="K23" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="L23" t="s" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" ht="15.000000" customHeight="1">
-      <c r="A24" s="8">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s" s="8">
-        <v>217</v>
-      </c>
-      <c r="C24" t="s" s="8">
-        <v>218</v>
-      </c>
-      <c r="D24" t="s" s="8">
-        <v>219</v>
-      </c>
-      <c r="E24" t="s" s="8">
-        <v>220</v>
-      </c>
-      <c r="F24" t="s" s="8">
-        <v>221</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10">
-        <v>2</v>
-      </c>
-      <c r="I24" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="J24" s="8">
-        <v>12.75</v>
-      </c>
-      <c r="K24" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="L24" t="s" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" ht="15.000000" customHeight="1">
-      <c r="A25" s="8">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s" s="8">
-        <v>222</v>
-      </c>
-      <c r="C25" t="s" s="8">
-        <v>223</v>
-      </c>
-      <c r="D25" t="s" s="8">
-        <v>224</v>
-      </c>
-      <c r="E25" t="s" s="8">
-        <v>225</v>
-      </c>
-      <c r="F25" t="s" s="8">
-        <v>226</v>
-      </c>
-      <c r="G25" s="8">
-        <v>01</v>
-      </c>
-      <c r="H25" s="10">
-        <v>1</v>
-      </c>
-      <c r="I25" s="8">
-        <v>10.5</v>
-      </c>
-      <c r="J25" s="10">
-        <v>14</v>
-      </c>
-      <c r="K25" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="L25" t="s" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" ht="15.020000" customHeight="1">
-      <c r="A26" s="8">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s" s="8">
-        <v>227</v>
-      </c>
-      <c r="C26" t="s" s="8">
-        <v>228</v>
-      </c>
-      <c r="D26" t="s" s="8">
-        <v>229</v>
-      </c>
-      <c r="E26" t="s" s="8">
-        <v>196</v>
-      </c>
-      <c r="F26" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10">
-        <v>3</v>
-      </c>
-      <c r="I26" s="10">
-        <v>15</v>
-      </c>
-      <c r="J26" s="10">
-        <v>15</v>
-      </c>
-      <c r="K26" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="L26" t="s" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" ht="15.000000" customHeight="1">
-      <c r="A27" s="8">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s" s="8">
-        <v>230</v>
-      </c>
-      <c r="C27" t="s" s="8">
-        <v>231</v>
-      </c>
-      <c r="D27" t="s" s="8">
-        <v>232</v>
-      </c>
-      <c r="E27" t="s" s="8">
-        <v>233</v>
-      </c>
-      <c r="F27" t="s" s="8">
-        <v>234</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="I27" s="8">
-        <v>11.75</v>
-      </c>
-      <c r="J27" s="8">
-        <v>12.75</v>
-      </c>
-      <c r="K27" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="L27" t="s" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" ht="15.000000" customHeight="1">
-      <c r="A28" s="8">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s" s="8">
-        <v>235</v>
-      </c>
-      <c r="C28" t="s" s="8">
-        <v>236</v>
-      </c>
-      <c r="D28" t="s" s="8">
-        <v>237</v>
-      </c>
-      <c r="E28" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="F28" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10">
-        <v>3</v>
-      </c>
-      <c r="I28" s="10">
-        <v>13</v>
-      </c>
-      <c r="J28" s="10">
-        <v>13</v>
-      </c>
-      <c r="K28" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="L28" t="s" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" ht="15.000020" customHeight="1">
-      <c r="A29" s="8">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s" s="8">
-        <v>238</v>
-      </c>
-      <c r="C29" t="s" s="8">
-        <v>239</v>
-      </c>
-      <c r="D29" t="s" s="8">
-        <v>240</v>
-      </c>
-      <c r="E29" t="s" s="8">
-        <v>241</v>
-      </c>
-      <c r="F29" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10">
-        <v>2</v>
-      </c>
-      <c r="I29" s="8">
-        <v>11.75</v>
-      </c>
-      <c r="J29" s="8">
-        <v>12.25</v>
-      </c>
-      <c r="K29" t="s" s="8">
-        <v>242</v>
-      </c>
-      <c r="L29" t="s" s="8">
-        <v>30</v>
       </c>
     </row>
     <row r="30" ht="15.000000" customHeight="1">
-      <c r="A30" s="8">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s" s="8">
-        <v>243</v>
-      </c>
-      <c r="C30" t="s" s="8">
-        <v>244</v>
-      </c>
-      <c r="D30" t="s" s="8">
-        <v>245</v>
-      </c>
-      <c r="E30" t="s" s="8">
-        <v>246</v>
-      </c>
-      <c r="F30" t="s" s="8">
-        <v>247</v>
-      </c>
-      <c r="G30" s="8">
-        <v>01</v>
-      </c>
-      <c r="H30" s="10">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s" s="4">
+        <v>133</v>
+      </c>
+      <c r="C30" t="s" s="4">
+        <v>134</v>
+      </c>
+      <c r="D30" t="s" s="4">
+        <v>135</v>
+      </c>
+      <c r="E30" t="s" s="4">
+        <v>136</v>
+      </c>
+      <c r="F30" t="s" s="4">
+        <v>137</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="3">
         <v>1</v>
       </c>
-      <c r="I30" s="8">
-        <v>9.25</v>
-      </c>
-      <c r="J30" s="8">
-        <v>12.75</v>
-      </c>
-      <c r="K30" t="s" s="8">
-        <v>242</v>
-      </c>
-      <c r="L30" t="s" s="8">
+      <c r="I30" s="3">
+        <v>13</v>
+      </c>
+      <c r="J30" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="K30" t="s" s="4">
+        <v>110</v>
+      </c>
+      <c r="L30" t="s" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="31" ht="15.000000" customHeight="1">
-      <c r="A31" s="8">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s" s="4">
+        <v>138</v>
+      </c>
+      <c r="C31" t="s" s="4">
+        <v>139</v>
+      </c>
+      <c r="D31" t="s" s="4">
+        <v>140</v>
+      </c>
+      <c r="E31" t="s" s="4">
+        <v>92</v>
+      </c>
+      <c r="F31" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="3">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4">
+        <v>12.25</v>
+      </c>
+      <c r="J31" s="4">
+        <v>12.75</v>
+      </c>
+      <c r="K31" t="s" s="4">
+        <v>141</v>
+      </c>
+      <c r="L31" t="s" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" ht="14.999990" customHeight="1">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s" s="4">
+        <v>142</v>
+      </c>
+      <c r="C32" t="s" s="4">
+        <v>143</v>
+      </c>
+      <c r="D32" t="s" s="4">
+        <v>144</v>
+      </c>
+      <c r="E32" t="s" s="4">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="3">
+        <v>2</v>
+      </c>
+      <c r="I32" s="3">
+        <v>13</v>
+      </c>
+      <c r="J32" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="K32" t="s" s="4">
+        <v>141</v>
+      </c>
+      <c r="L32" t="s" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" ht="15.030010" customHeight="1">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s" s="4">
+        <v>145</v>
+      </c>
+      <c r="C33" t="s" s="4">
+        <v>146</v>
+      </c>
+      <c r="D33" t="s" s="4">
+        <v>147</v>
+      </c>
+      <c r="E33" t="s" s="4">
+        <v>148</v>
+      </c>
+      <c r="F33" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="3">
+        <v>2</v>
+      </c>
+      <c r="I33" s="4">
+        <v>11.75</v>
+      </c>
+      <c r="J33" s="4">
+        <v>12.25</v>
+      </c>
+      <c r="K33" t="s" s="4">
+        <v>141</v>
+      </c>
+      <c r="L33" t="s" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" ht="15.000000" customHeight="1">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s" s="4">
+        <v>149</v>
+      </c>
+      <c r="C34" t="s" s="4">
+        <v>150</v>
+      </c>
+      <c r="D34" t="s" s="4">
+        <v>151</v>
+      </c>
+      <c r="E34" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="3">
+        <v>2</v>
+      </c>
+      <c r="I34" s="3">
+        <v>12</v>
+      </c>
+      <c r="J34" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="K34" t="s" s="4">
+        <v>141</v>
+      </c>
+      <c r="L34" t="s" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" ht="15.000000" customHeight="1">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s" s="4">
+        <v>152</v>
+      </c>
+      <c r="C35" t="s" s="4">
+        <v>153</v>
+      </c>
+      <c r="D35" t="s" s="4">
+        <v>154</v>
+      </c>
+      <c r="E35" t="s" s="4">
+        <v>155</v>
+      </c>
+      <c r="F35" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="3">
+        <v>2</v>
+      </c>
+      <c r="I35" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="J35" s="3">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s" s="4">
+        <v>141</v>
+      </c>
+      <c r="L35" t="s" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" ht="15.000000" customHeight="1">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s" s="4">
+        <v>156</v>
+      </c>
+      <c r="C36" t="s" s="4">
+        <v>157</v>
+      </c>
+      <c r="D36" t="s" s="4">
+        <v>158</v>
+      </c>
+      <c r="E36" t="s" s="4">
+        <v>159</v>
+      </c>
+      <c r="F36" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="3">
+        <v>2</v>
+      </c>
+      <c r="I36" s="4">
+        <v>11.75</v>
+      </c>
+      <c r="J36" s="4">
+        <v>12.25</v>
+      </c>
+      <c r="K36" t="s" s="4">
+        <v>141</v>
+      </c>
+      <c r="L36" t="s" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" ht="15.000000" customHeight="1">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s" s="4">
+        <v>160</v>
+      </c>
+      <c r="C37" t="s" s="4">
+        <v>161</v>
+      </c>
+      <c r="D37" t="s" s="4">
+        <v>162</v>
+      </c>
+      <c r="E37" t="s" s="4">
+        <v>61</v>
+      </c>
+      <c r="F37" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="3">
+        <v>3</v>
+      </c>
+      <c r="I37" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="J37" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="K37" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="L37" t="s" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" ht="15.000000" customHeight="1">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s" s="4">
+        <v>164</v>
+      </c>
+      <c r="C38" t="s" s="4">
+        <v>165</v>
+      </c>
+      <c r="D38" t="s" s="4">
+        <v>166</v>
+      </c>
+      <c r="E38" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="F38" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="I38" s="3">
+        <v>15</v>
+      </c>
+      <c r="J38" s="3">
+        <v>16</v>
+      </c>
+      <c r="K38" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="L38" t="s" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" ht="14.999990" customHeight="1">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s" s="4">
+        <v>167</v>
+      </c>
+      <c r="C39" t="s" s="4">
+        <v>168</v>
+      </c>
+      <c r="D39" t="s" s="4">
+        <v>169</v>
+      </c>
+      <c r="E39" t="s" s="4">
+        <v>61</v>
+      </c>
+      <c r="F39" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="3">
+        <v>3</v>
+      </c>
+      <c r="I39" s="4">
+        <v>13.25</v>
+      </c>
+      <c r="J39" s="4">
+        <v>13.25</v>
+      </c>
+      <c r="K39" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="L39" t="s" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" ht="15.020020" customHeight="1">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s" s="4">
+        <v>170</v>
+      </c>
+      <c r="C40" t="s" s="4">
+        <v>171</v>
+      </c>
+      <c r="D40" t="s" s="4">
+        <v>172</v>
+      </c>
+      <c r="E40" t="s" s="4">
+        <v>173</v>
+      </c>
+      <c r="F40" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="3">
+        <v>2</v>
+      </c>
+      <c r="I40" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="J40" s="3">
+        <v>15</v>
+      </c>
+      <c r="K40" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="L40" t="s" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" ht="15.000000" customHeight="1">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s" s="4">
+        <v>174</v>
+      </c>
+      <c r="C41" t="s" s="4">
+        <v>175</v>
+      </c>
+      <c r="D41" t="s" s="4">
+        <v>176</v>
+      </c>
+      <c r="E41" t="s" s="4">
+        <v>177</v>
+      </c>
+      <c r="F41" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="3">
+        <v>3</v>
+      </c>
+      <c r="I41" s="3">
+        <v>14</v>
+      </c>
+      <c r="J41" s="3">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="L41" t="s" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" ht="15.000000" customHeight="1">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s" s="4">
+        <v>178</v>
+      </c>
+      <c r="C42" t="s" s="4">
+        <v>179</v>
+      </c>
+      <c r="D42" t="s" s="4">
+        <v>180</v>
+      </c>
+      <c r="E42" t="s" s="4">
+        <v>181</v>
+      </c>
+      <c r="F42" t="s" s="4">
+        <v>106</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="I42" s="4">
+        <v>14.25</v>
+      </c>
+      <c r="J42" s="4">
+        <v>15.25</v>
+      </c>
+      <c r="K42" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="L42" t="s" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" ht="15.000000" customHeight="1">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s" s="4">
+        <v>182</v>
+      </c>
+      <c r="C43" t="s" s="4">
+        <v>183</v>
+      </c>
+      <c r="D43" t="s" s="4">
+        <v>184</v>
+      </c>
+      <c r="E43" t="s" s="4">
+        <v>185</v>
+      </c>
+      <c r="F43" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="3">
+        <v>3</v>
+      </c>
+      <c r="I43" s="4">
+        <v>13.25</v>
+      </c>
+      <c r="J43" s="4">
+        <v>13.25</v>
+      </c>
+      <c r="K43" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="L43" t="s" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" ht="15.000000" customHeight="1">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s" s="4">
+        <v>186</v>
+      </c>
+      <c r="C44" t="s" s="4">
+        <v>187</v>
+      </c>
+      <c r="D44" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s" s="4">
+        <v>105</v>
+      </c>
+      <c r="F44" t="s" s="4">
+        <v>106</v>
+      </c>
+      <c r="G44" s="4">
+        <v>06</v>
+      </c>
+      <c r="H44" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="I44" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="J44" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="K44" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="L44" t="s" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" ht="15.000000" customHeight="1">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s" s="4">
+        <v>188</v>
+      </c>
+      <c r="C45" t="s" s="4">
+        <v>189</v>
+      </c>
+      <c r="D45" t="s" s="4">
+        <v>190</v>
+      </c>
+      <c r="E45" t="s" s="4">
+        <v>191</v>
+      </c>
+      <c r="F45" t="s" s="4">
+        <v>192</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3">
+        <v>13</v>
+      </c>
+      <c r="J45" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="K45" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="L45" t="s" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" ht="15.000000" customHeight="1">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s" s="4">
+        <v>193</v>
+      </c>
+      <c r="C46" t="s" s="4">
+        <v>194</v>
+      </c>
+      <c r="D46" t="s" s="4">
+        <v>195</v>
+      </c>
+      <c r="E46" t="s" s="4">
+        <v>196</v>
+      </c>
+      <c r="F46" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="3">
+        <v>3</v>
+      </c>
+      <c r="I46" s="4">
+        <v>15.25</v>
+      </c>
+      <c r="J46" s="4">
+        <v>15.25</v>
+      </c>
+      <c r="K46" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="L46" t="s" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" ht="15.019980" customHeight="1">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s" s="4">
+        <v>197</v>
+      </c>
+      <c r="C47" t="s" s="4">
+        <v>198</v>
+      </c>
+      <c r="D47" t="s" s="4">
+        <v>199</v>
+      </c>
+      <c r="E47" t="s" s="4">
+        <v>200</v>
+      </c>
+      <c r="F47" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="3">
+        <v>2</v>
+      </c>
+      <c r="I47" s="4">
+        <v>14.25</v>
+      </c>
+      <c r="J47" s="4">
+        <v>14.75</v>
+      </c>
+      <c r="K47" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="L47" t="s" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" ht="15.000000" customHeight="1">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s" s="4">
+        <v>201</v>
+      </c>
+      <c r="C48" t="s" s="4">
+        <v>202</v>
+      </c>
+      <c r="D48" t="s" s="4">
+        <v>203</v>
+      </c>
+      <c r="E48" t="s" s="4">
+        <v>204</v>
+      </c>
+      <c r="F48" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="I48" s="3">
+        <v>12</v>
+      </c>
+      <c r="J48" s="3">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="L48" t="s" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" ht="15.000000" customHeight="1">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s" s="4">
+        <v>205</v>
+      </c>
+      <c r="C49" t="s" s="4">
+        <v>206</v>
+      </c>
+      <c r="D49" t="s" s="4">
+        <v>207</v>
+      </c>
+      <c r="E49" t="s" s="4">
+        <v>208</v>
+      </c>
+      <c r="F49" t="s" s="4">
+        <v>101</v>
+      </c>
+      <c r="G49" s="4">
+        <v>03</v>
+      </c>
+      <c r="H49" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="I49" s="4">
+        <v>11.25</v>
+      </c>
+      <c r="J49" s="4">
+        <v>14.25</v>
+      </c>
+      <c r="K49" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="L49" t="s" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" ht="15.000000" customHeight="1">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s" s="4">
+        <v>209</v>
+      </c>
+      <c r="C50" t="s" s="4">
+        <v>210</v>
+      </c>
+      <c r="D50" t="s" s="4">
+        <v>211</v>
+      </c>
+      <c r="E50" t="s" s="4">
+        <v>212</v>
+      </c>
+      <c r="F50" t="s" s="4">
+        <v>213</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="3">
+        <v>2</v>
+      </c>
+      <c r="I50" s="3">
+        <v>13</v>
+      </c>
+      <c r="J50" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="K50" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="L50" t="s" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" ht="15.000000" customHeight="1">
+      <c r="A51" s="4">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s" s="4">
+        <v>214</v>
+      </c>
+      <c r="C51" t="s" s="4">
+        <v>215</v>
+      </c>
+      <c r="D51" t="s" s="4">
+        <v>216</v>
+      </c>
+      <c r="E51" t="s" s="4">
+        <v>92</v>
+      </c>
+      <c r="F51" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="3">
+        <v>2</v>
+      </c>
+      <c r="I51" s="3">
+        <v>12</v>
+      </c>
+      <c r="J51" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="K51" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="L51" t="s" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" ht="15.000000" customHeight="1">
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s" s="4">
+        <v>217</v>
+      </c>
+      <c r="C52" t="s" s="4">
+        <v>218</v>
+      </c>
+      <c r="D52" t="s" s="4">
+        <v>219</v>
+      </c>
+      <c r="E52" t="s" s="4">
+        <v>220</v>
+      </c>
+      <c r="F52" t="s" s="4">
+        <v>221</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="3">
+        <v>2</v>
+      </c>
+      <c r="I52" s="4">
+        <v>12.25</v>
+      </c>
+      <c r="J52" s="4">
+        <v>12.75</v>
+      </c>
+      <c r="K52" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="L52" t="s" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" ht="15.000000" customHeight="1">
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s" s="4">
+        <v>222</v>
+      </c>
+      <c r="C53" t="s" s="4">
+        <v>223</v>
+      </c>
+      <c r="D53" t="s" s="4">
+        <v>224</v>
+      </c>
+      <c r="E53" t="s" s="4">
+        <v>225</v>
+      </c>
+      <c r="F53" t="s" s="4">
+        <v>226</v>
+      </c>
+      <c r="G53" s="4">
+        <v>01</v>
+      </c>
+      <c r="H53" s="3">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="J53" s="3">
+        <v>14</v>
+      </c>
+      <c r="K53" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="L53" t="s" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" ht="15.020000" customHeight="1">
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s" s="4">
+        <v>227</v>
+      </c>
+      <c r="C54" t="s" s="4">
+        <v>228</v>
+      </c>
+      <c r="D54" t="s" s="4">
+        <v>229</v>
+      </c>
+      <c r="E54" t="s" s="4">
+        <v>196</v>
+      </c>
+      <c r="F54" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="3">
+        <v>3</v>
+      </c>
+      <c r="I54" s="3">
+        <v>15</v>
+      </c>
+      <c r="J54" s="3">
+        <v>15</v>
+      </c>
+      <c r="K54" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="L54" t="s" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" ht="15.000000" customHeight="1">
+      <c r="A55" s="4">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s" s="4">
+        <v>230</v>
+      </c>
+      <c r="C55" t="s" s="4">
+        <v>231</v>
+      </c>
+      <c r="D55" t="s" s="4">
+        <v>232</v>
+      </c>
+      <c r="E55" t="s" s="4">
+        <v>233</v>
+      </c>
+      <c r="F55" t="s" s="4">
+        <v>234</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="I55" s="4">
+        <v>11.75</v>
+      </c>
+      <c r="J55" s="4">
+        <v>12.75</v>
+      </c>
+      <c r="K55" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="L55" t="s" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" ht="15.000000" customHeight="1">
+      <c r="A56" s="4">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s" s="4">
+        <v>235</v>
+      </c>
+      <c r="C56" t="s" s="4">
+        <v>236</v>
+      </c>
+      <c r="D56" t="s" s="4">
+        <v>237</v>
+      </c>
+      <c r="E56" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="F56" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="3">
+        <v>3</v>
+      </c>
+      <c r="I56" s="3">
+        <v>13</v>
+      </c>
+      <c r="J56" s="3">
+        <v>13</v>
+      </c>
+      <c r="K56" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="L56" t="s" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" ht="15.000020" customHeight="1">
+      <c r="A57" s="4">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s" s="4">
+        <v>238</v>
+      </c>
+      <c r="C57" t="s" s="4">
+        <v>239</v>
+      </c>
+      <c r="D57" t="s" s="4">
+        <v>240</v>
+      </c>
+      <c r="E57" t="s" s="4">
+        <v>241</v>
+      </c>
+      <c r="F57" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="G57" s="5"/>
+      <c r="H57" s="3">
+        <v>2</v>
+      </c>
+      <c r="I57" s="4">
+        <v>11.75</v>
+      </c>
+      <c r="J57" s="4">
+        <v>12.25</v>
+      </c>
+      <c r="K57" t="s" s="4">
+        <v>242</v>
+      </c>
+      <c r="L57" t="s" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" ht="15.000000" customHeight="1">
+      <c r="A58" s="4">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s" s="4">
+        <v>243</v>
+      </c>
+      <c r="C58" t="s" s="4">
+        <v>244</v>
+      </c>
+      <c r="D58" t="s" s="4">
+        <v>245</v>
+      </c>
+      <c r="E58" t="s" s="4">
+        <v>246</v>
+      </c>
+      <c r="F58" t="s" s="4">
+        <v>247</v>
+      </c>
+      <c r="G58" s="4">
+        <v>01</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1</v>
+      </c>
+      <c r="I58" s="4">
+        <v>9.25</v>
+      </c>
+      <c r="J58" s="4">
+        <v>12.75</v>
+      </c>
+      <c r="K58" t="s" s="4">
+        <v>242</v>
+      </c>
+      <c r="L58" t="s" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" ht="15.000000" customHeight="1">
+      <c r="A59" s="4">
         <v>57</v>
       </c>
-      <c r="B31" t="s" s="8">
+      <c r="B59" t="s" s="4">
         <v>248</v>
       </c>
-      <c r="C31" t="s" s="8">
+      <c r="C59" t="s" s="4">
         <v>249</v>
       </c>
-      <c r="D31" t="s" s="8">
+      <c r="D59" t="s" s="4">
         <v>250</v>
       </c>
-      <c r="E31" t="s" s="8">
+      <c r="E59" t="s" s="4">
         <v>40</v>
       </c>
-      <c r="F31" t="s" s="8">
+      <c r="F59" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="10">
+      <c r="G59" s="5"/>
+      <c r="H59" s="3">
         <v>2</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I59" s="3">
         <v>12</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J59" s="4">
         <v>12.5</v>
       </c>
-      <c r="K31" t="s" s="8">
+      <c r="K59" t="s" s="4">
         <v>242</v>
       </c>
-      <c r="L31" t="s" s="8">
+      <c r="L59" t="s" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="32" ht="15.000000" customHeight="1">
-      <c r="A32" s="8">
+    <row r="60" ht="15.000000" customHeight="1">
+      <c r="A60" s="4">
         <v>58</v>
       </c>
-      <c r="B32" t="s" s="8">
+      <c r="B60" t="s" s="4">
         <v>251</v>
       </c>
-      <c r="C32" t="s" s="8">
+      <c r="C60" t="s" s="4">
         <v>252</v>
       </c>
-      <c r="D32" t="s" s="8">
+      <c r="D60" t="s" s="4">
         <v>253</v>
       </c>
-      <c r="E32" t="s" s="8">
+      <c r="E60" t="s" s="4">
         <v>254</v>
       </c>
-      <c r="F32" t="s" s="8">
+      <c r="F60" t="s" s="4">
         <v>45</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="10">
+      <c r="G60" s="5"/>
+      <c r="H60" s="3">
         <v>2</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I60" s="3">
         <v>16</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J60" s="4">
         <v>16.5</v>
       </c>
-      <c r="K32" t="s" s="8">
+      <c r="K60" t="s" s="4">
         <v>242</v>
       </c>
-      <c r="L32" t="s" s="8">
+      <c r="L60" t="s" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="33" ht="15.023000" customHeight="1">
-      <c r="A33" s="8">
+    <row r="61" ht="15.023000" customHeight="1">
+      <c r="A61" s="4">
         <v>59</v>
       </c>
-      <c r="B33" t="s" s="8">
+      <c r="B61" t="s" s="4">
         <v>255</v>
       </c>
-      <c r="C33" t="s" s="8">
+      <c r="C61" t="s" s="4">
         <v>256</v>
       </c>
-      <c r="D33" t="s" s="8">
+      <c r="D61" t="s" s="4">
         <v>257</v>
       </c>
-      <c r="E33" t="s" s="8">
+      <c r="E61" t="s" s="4">
         <v>258</v>
       </c>
-      <c r="F33" t="s" s="8">
+      <c r="F61" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10">
+      <c r="G61" s="5"/>
+      <c r="H61" s="3">
         <v>2</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I61" s="4">
         <v>11.75</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J61" s="4">
         <v>12.25</v>
       </c>
-      <c r="K33" t="s" s="8">
+      <c r="K61" t="s" s="4">
         <v>242</v>
       </c>
-      <c r="L33" t="s" s="8">
+      <c r="L61" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L33"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.761905" customWidth="1"/>
-    <col min="2" max="2" width="12.000000" customWidth="1"/>
-    <col min="3" max="3" width="29.142857" customWidth="1"/>
-    <col min="4" max="4" width="12.000000" customWidth="1"/>
-    <col min="5" max="5" width="22.476190" customWidth="1"/>
-    <col min="6" max="6" width="12.952381" customWidth="1"/>
-    <col min="7" max="7" width="5.523810" customWidth="1"/>
-    <col min="8" max="8" width="5.333333" customWidth="1"/>
-    <col min="9" max="9" width="10.666667" customWidth="1"/>
-    <col min="10" max="10" width="10.095238" customWidth="1"/>
-    <col min="11" max="11" width="10.666667" customWidth="1"/>
-    <col min="12" max="12" width="16.380952" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="24.390000" customHeight="1">
-      <c r="A1" t="s" s="11">
+    <row r="62" ht="24.390000" customHeight="1">
+      <c r="A62" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="11">
+      <c r="B62" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="11">
+      <c r="C62" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="11">
+      <c r="D62" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="11">
+      <c r="E62" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="11">
+      <c r="F62" t="s" s="1">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="11">
+      <c r="G62" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="11">
+      <c r="H62" t="s" s="1">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="12">
+      <c r="I62" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="11">
+      <c r="J62" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="11">
+      <c r="K62" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="11">
+      <c r="L62" t="s" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="15.000000" customHeight="1">
-      <c r="A2" s="13">
+    <row r="63" ht="15.000000" customHeight="1">
+      <c r="A63" s="4">
         <v>60</v>
       </c>
-      <c r="B2" t="s" s="13">
+      <c r="B63" t="s" s="4">
         <v>259</v>
       </c>
-      <c r="C2" t="s" s="13">
+      <c r="C63" t="s" s="4">
         <v>260</v>
       </c>
-      <c r="D2" t="s" s="13">
+      <c r="D63" t="s" s="4">
         <v>261</v>
       </c>
-      <c r="E2" t="s" s="13">
+      <c r="E63" t="s" s="4">
         <v>262</v>
       </c>
-      <c r="F2" t="s" s="13">
+      <c r="F63" t="s" s="4">
         <v>213</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15">
+      <c r="G63" s="5"/>
+      <c r="H63" s="3">
         <v>2</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I63" s="4">
         <v>13.25</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J63" s="4">
         <v>13.75</v>
       </c>
-      <c r="K2" t="s" s="13">
+      <c r="K63" t="s" s="4">
         <v>242</v>
       </c>
-      <c r="L2" t="s" s="13">
+      <c r="L63" t="s" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="15.000000" customHeight="1">
-      <c r="A3" s="13">
+    <row r="64" ht="15.000000" customHeight="1">
+      <c r="A64" s="4">
         <v>61</v>
       </c>
-      <c r="B3" t="s" s="13">
+      <c r="B64" t="s" s="4">
         <v>263</v>
       </c>
-      <c r="C3" t="s" s="13">
+      <c r="C64" t="s" s="4">
         <v>264</v>
       </c>
-      <c r="D3" t="s" s="13">
+      <c r="D64" t="s" s="4">
         <v>265</v>
       </c>
-      <c r="E3" t="s" s="13">
+      <c r="E64" t="s" s="4">
         <v>241</v>
       </c>
-      <c r="F3" t="s" s="13">
+      <c r="F64" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15">
+      <c r="G64" s="5"/>
+      <c r="H64" s="3">
         <v>2</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I64" s="4">
         <v>13.5</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J64" s="3">
         <v>14</v>
       </c>
-      <c r="K3" t="s" s="13">
+      <c r="K64" t="s" s="4">
         <v>242</v>
       </c>
-      <c r="L3" t="s" s="13">
+      <c r="L64" t="s" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="14.999990" customHeight="1">
-      <c r="A4" s="13">
+    <row r="65" ht="14.999990" customHeight="1">
+      <c r="A65" s="4">
         <v>62</v>
       </c>
-      <c r="B4" t="s" s="13">
+      <c r="B65" t="s" s="4">
         <v>266</v>
       </c>
-      <c r="C4" t="s" s="13">
+      <c r="C65" t="s" s="4">
         <v>267</v>
       </c>
-      <c r="D4" t="s" s="13">
+      <c r="D65" t="s" s="4">
         <v>268</v>
       </c>
-      <c r="E4" t="s" s="13">
+      <c r="E65" t="s" s="4">
         <v>269</v>
       </c>
-      <c r="F4" t="s" s="13">
+      <c r="F65" t="s" s="4">
         <v>192</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15">
+      <c r="G65" s="5"/>
+      <c r="H65" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I65" s="3">
         <v>11</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J65" s="4">
         <v>12.5</v>
       </c>
-      <c r="K4" t="s" s="13">
+      <c r="K65" t="s" s="4">
         <v>242</v>
       </c>
-      <c r="L4" t="s" s="13">
+      <c r="L65" t="s" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="15.030010" customHeight="1">
-      <c r="A5" s="13">
+    <row r="66" ht="15.030010" customHeight="1">
+      <c r="A66" s="4">
         <v>63</v>
       </c>
-      <c r="B5" t="s" s="13">
+      <c r="B66" t="s" s="4">
         <v>270</v>
       </c>
-      <c r="C5" t="s" s="13">
+      <c r="C66" t="s" s="4">
         <v>271</v>
       </c>
-      <c r="D5" t="s" s="13">
+      <c r="D66" t="s" s="4">
         <v>272</v>
       </c>
-      <c r="E5" t="s" s="13">
+      <c r="E66" t="s" s="4">
         <v>273</v>
       </c>
-      <c r="F5" t="s" s="13">
+      <c r="F66" t="s" s="4">
         <v>106</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15">
+      <c r="G66" s="5"/>
+      <c r="H66" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I66" s="3">
         <v>12</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J66" s="4">
         <v>12.5</v>
       </c>
-      <c r="K5" t="s" s="13">
+      <c r="K66" t="s" s="4">
         <v>242</v>
       </c>
-      <c r="L5" t="s" s="13">
+      <c r="L66" t="s" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="6" ht="15.000000" customHeight="1">
-      <c r="A6" s="13">
+    <row r="67" ht="15.000000" customHeight="1">
+      <c r="A67" s="4">
         <v>64</v>
       </c>
-      <c r="B6" t="s" s="13">
+      <c r="B67" t="s" s="4">
         <v>274</v>
       </c>
-      <c r="C6" t="s" s="13">
+      <c r="C67" t="s" s="4">
         <v>275</v>
       </c>
-      <c r="D6" t="s" s="13">
+      <c r="D67" t="s" s="4">
         <v>276</v>
       </c>
-      <c r="E6" t="s" s="13">
+      <c r="E67" t="s" s="4">
         <v>277</v>
       </c>
-      <c r="F6" t="s" s="13">
+      <c r="F67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" t="s" s="13">
+      <c r="G67" s="5"/>
+      <c r="H67" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I67" s="4">
         <v>15.5</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J67" s="4">
         <v>16.5</v>
       </c>
-      <c r="K6" t="s" s="13">
+      <c r="K67" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L6" t="s" s="13">
+      <c r="L67" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="15.000000" customHeight="1">
-      <c r="A7" s="13">
+    <row r="68" ht="15.000000" customHeight="1">
+      <c r="A68" s="4">
         <v>65</v>
       </c>
-      <c r="B7" t="s" s="13">
+      <c r="B68" t="s" s="4">
         <v>279</v>
       </c>
-      <c r="C7" t="s" s="13">
+      <c r="C68" t="s" s="4">
         <v>280</v>
       </c>
-      <c r="D7" t="s" s="13">
+      <c r="D68" t="s" s="4">
         <v>281</v>
       </c>
-      <c r="E7" t="s" s="13">
+      <c r="E68" t="s" s="4">
         <v>282</v>
       </c>
-      <c r="F7" t="s" s="13">
+      <c r="F68" t="s" s="4">
         <v>283</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15">
+      <c r="G68" s="5"/>
+      <c r="H68" s="3">
         <v>3</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I68" s="4">
         <v>14.75</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J68" s="4">
         <v>14.75</v>
       </c>
-      <c r="K7" t="s" s="13">
+      <c r="K68" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L7" t="s" s="13">
+      <c r="L68" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="15.000000" customHeight="1">
-      <c r="A8" s="13">
+    <row r="69" ht="15.000000" customHeight="1">
+      <c r="A69" s="4">
         <v>66</v>
       </c>
-      <c r="B8" t="s" s="13">
+      <c r="B69" t="s" s="4">
         <v>284</v>
       </c>
-      <c r="C8" t="s" s="13">
+      <c r="C69" t="s" s="4">
         <v>285</v>
       </c>
-      <c r="D8" t="s" s="13">
+      <c r="D69" t="s" s="4">
         <v>286</v>
       </c>
-      <c r="E8" t="s" s="13">
+      <c r="E69" t="s" s="4">
         <v>287</v>
       </c>
-      <c r="F8" t="s" s="13">
+      <c r="F69" t="s" s="4">
         <v>137</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15">
+      <c r="G69" s="5"/>
+      <c r="H69" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I69" s="4">
         <v>11.75</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J69" s="4">
         <v>13.25</v>
       </c>
-      <c r="K8" t="s" s="13">
+      <c r="K69" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L8" t="s" s="13">
+      <c r="L69" t="s" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="15.000000" customHeight="1">
-      <c r="A9" s="13">
+    <row r="70" ht="15.000000" customHeight="1">
+      <c r="A70" s="4">
         <v>67</v>
       </c>
-      <c r="B9" t="s" s="13">
+      <c r="B70" t="s" s="4">
         <v>288</v>
       </c>
-      <c r="C9" t="s" s="13">
+      <c r="C70" t="s" s="4">
         <v>289</v>
       </c>
-      <c r="D9" t="s" s="13">
+      <c r="D70" t="s" s="4">
         <v>290</v>
       </c>
-      <c r="E9" t="s" s="13">
+      <c r="E70" t="s" s="4">
         <v>291</v>
       </c>
-      <c r="F9" t="s" s="13">
+      <c r="F70" t="s" s="4">
         <v>192</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15">
+      <c r="G70" s="5"/>
+      <c r="H70" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I70" s="4">
         <v>12.75</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J70" s="4">
         <v>14.25</v>
       </c>
-      <c r="K9" t="s" s="13">
+      <c r="K70" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L9" t="s" s="13">
+      <c r="L70" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="15.000000" customHeight="1">
-      <c r="A10" s="13">
+    <row r="71" ht="15.000000" customHeight="1">
+      <c r="A71" s="4">
         <v>68</v>
       </c>
-      <c r="B10" t="s" s="13">
+      <c r="B71" t="s" s="4">
         <v>292</v>
       </c>
-      <c r="C10" t="s" s="13">
+      <c r="C71" t="s" s="4">
         <v>293</v>
       </c>
-      <c r="D10" t="s" s="13">
+      <c r="D71" t="s" s="4">
         <v>294</v>
       </c>
-      <c r="E10" t="s" s="13">
+      <c r="E71" t="s" s="4">
         <v>295</v>
       </c>
-      <c r="F10" t="s" s="13">
+      <c r="F71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15">
+      <c r="G71" s="5"/>
+      <c r="H71" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I71" s="4">
         <v>12.75</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J71" s="4">
         <v>14.25</v>
       </c>
-      <c r="K10" t="s" s="13">
+      <c r="K71" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L10" t="s" s="13">
+      <c r="L71" t="s" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="14.999990" customHeight="1">
-      <c r="A11" s="13">
+    <row r="72" ht="14.999990" customHeight="1">
+      <c r="A72" s="4">
         <v>69</v>
       </c>
-      <c r="B11" t="s" s="13">
+      <c r="B72" t="s" s="4">
         <v>296</v>
       </c>
-      <c r="C11" t="s" s="13">
+      <c r="C72" t="s" s="4">
         <v>297</v>
       </c>
-      <c r="D11" t="s" s="13">
+      <c r="D72" t="s" s="4">
         <v>298</v>
       </c>
-      <c r="E11" t="s" s="13">
+      <c r="E72" t="s" s="4">
         <v>100</v>
       </c>
-      <c r="F11" t="s" s="13">
+      <c r="F72" t="s" s="4">
         <v>101</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" t="s" s="13">
+      <c r="G72" s="5"/>
+      <c r="H72" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I72" s="4">
         <v>12.75</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J72" s="4">
         <v>13.75</v>
       </c>
-      <c r="K11" t="s" s="13">
+      <c r="K72" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L11" t="s" s="13">
+      <c r="L72" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="12" ht="15.020020" customHeight="1">
-      <c r="A12" s="13">
+    <row r="73" ht="15.020020" customHeight="1">
+      <c r="A73" s="4">
         <v>70</v>
       </c>
-      <c r="B12" t="s" s="13">
+      <c r="B73" t="s" s="4">
         <v>299</v>
       </c>
-      <c r="C12" t="s" s="13">
+      <c r="C73" t="s" s="4">
         <v>300</v>
       </c>
-      <c r="D12" t="s" s="13">
+      <c r="D73" t="s" s="4">
         <v>301</v>
       </c>
-      <c r="E12" t="s" s="13">
+      <c r="E73" t="s" s="4">
         <v>302</v>
       </c>
-      <c r="F12" t="s" s="13">
+      <c r="F73" t="s" s="4">
         <v>132</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15">
+      <c r="G73" s="5"/>
+      <c r="H73" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I73" s="4">
         <v>11.75</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J73" s="4">
         <v>13.25</v>
       </c>
-      <c r="K12" t="s" s="13">
+      <c r="K73" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L12" t="s" s="13">
+      <c r="L73" t="s" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="15.000000" customHeight="1">
-      <c r="A13" s="13">
+    <row r="74" ht="15.000000" customHeight="1">
+      <c r="A74" s="4">
         <v>71</v>
       </c>
-      <c r="B13" t="s" s="13">
+      <c r="B74" t="s" s="4">
         <v>303</v>
       </c>
-      <c r="C13" t="s" s="13">
+      <c r="C74" t="s" s="4">
         <v>304</v>
       </c>
-      <c r="D13" t="s" s="13">
+      <c r="D74" t="s" s="4">
         <v>305</v>
       </c>
-      <c r="E13" t="s" s="13">
+      <c r="E74" t="s" s="4">
         <v>306</v>
       </c>
-      <c r="F13" t="s" s="13">
+      <c r="F74" t="s" s="4">
         <v>307</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" t="s" s="13">
+      <c r="G74" s="5"/>
+      <c r="H74" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I74" s="4">
         <v>13.25</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J74" s="4">
         <v>14.25</v>
       </c>
-      <c r="K13" t="s" s="13">
+      <c r="K74" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L13" t="s" s="13">
+      <c r="L74" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="14" ht="15.000000" customHeight="1">
-      <c r="A14" s="13">
+    <row r="75" ht="15.000000" customHeight="1">
+      <c r="A75" s="4">
         <v>72</v>
       </c>
-      <c r="B14" t="s" s="13">
+      <c r="B75" t="s" s="4">
         <v>308</v>
       </c>
-      <c r="C14" t="s" s="13">
+      <c r="C75" t="s" s="4">
         <v>309</v>
       </c>
-      <c r="D14" t="s" s="13">
+      <c r="D75" t="s" s="4">
         <v>310</v>
       </c>
-      <c r="E14" t="s" s="13">
+      <c r="E75" t="s" s="4">
         <v>61</v>
       </c>
-      <c r="F14" t="s" s="13">
+      <c r="F75" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15">
+      <c r="G75" s="5"/>
+      <c r="H75" s="3">
         <v>2</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I75" s="4">
         <v>13.75</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J75" s="4">
         <v>14.25</v>
       </c>
-      <c r="K14" t="s" s="13">
+      <c r="K75" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L14" t="s" s="13">
+      <c r="L75" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="15.000000" customHeight="1">
-      <c r="A15" s="13">
+    <row r="76" ht="15.000000" customHeight="1">
+      <c r="A76" s="4">
         <v>73</v>
       </c>
-      <c r="B15" t="s" s="13">
+      <c r="B76" t="s" s="4">
         <v>311</v>
       </c>
-      <c r="C15" t="s" s="13">
+      <c r="C76" t="s" s="4">
         <v>312</v>
       </c>
-      <c r="D15" t="s" s="13">
+      <c r="D76" t="s" s="4">
         <v>313</v>
       </c>
-      <c r="E15" t="s" s="13">
+      <c r="E76" t="s" s="4">
         <v>314</v>
       </c>
-      <c r="F15" t="s" s="13">
+      <c r="F76" t="s" s="4">
         <v>315</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" t="s" s="13">
+      <c r="G76" s="5"/>
+      <c r="H76" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I76" s="4">
         <v>14.75</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J76" s="4">
         <v>15.75</v>
       </c>
-      <c r="K15" t="s" s="13">
+      <c r="K76" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L15" t="s" s="13">
+      <c r="L76" t="s" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="16" ht="15.000000" customHeight="1">
-      <c r="A16" s="13">
+    <row r="77" ht="15.000000" customHeight="1">
+      <c r="A77" s="4">
         <v>74</v>
       </c>
-      <c r="B16" t="s" s="13">
+      <c r="B77" t="s" s="4">
         <v>316</v>
       </c>
-      <c r="C16" t="s" s="13">
+      <c r="C77" t="s" s="4">
         <v>317</v>
       </c>
-      <c r="D16" t="s" s="13">
+      <c r="D77" t="s" s="4">
         <v>318</v>
       </c>
-      <c r="E16" t="s" s="13">
+      <c r="E77" t="s" s="4">
         <v>254</v>
       </c>
-      <c r="F16" t="s" s="13">
+      <c r="F77" t="s" s="4">
         <v>45</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15">
+      <c r="G77" s="5"/>
+      <c r="H77" s="3">
         <v>2</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I77" s="3">
         <v>15</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J77" s="4">
         <v>15.5</v>
       </c>
-      <c r="K16" t="s" s="13">
+      <c r="K77" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L16" t="s" s="13">
+      <c r="L77" t="s" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="17" ht="15.000000" customHeight="1">
-      <c r="A17" s="13">
+    <row r="78" ht="15.000000" customHeight="1">
+      <c r="A78" s="4">
         <v>75</v>
       </c>
-      <c r="B17" t="s" s="13">
+      <c r="B78" t="s" s="4">
         <v>319</v>
       </c>
-      <c r="C17" t="s" s="13">
+      <c r="C78" t="s" s="4">
         <v>320</v>
       </c>
-      <c r="D17" t="s" s="13">
+      <c r="D78" t="s" s="4">
         <v>321</v>
       </c>
-      <c r="E17" t="s" s="13">
+      <c r="E78" t="s" s="4">
         <v>61</v>
       </c>
-      <c r="F17" t="s" s="13">
+      <c r="F78" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15">
+      <c r="G78" s="5"/>
+      <c r="H78" s="3">
         <v>2</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I78" s="4">
         <v>12.75</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J78" s="4">
         <v>13.25</v>
       </c>
-      <c r="K17" t="s" s="13">
+      <c r="K78" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L17" t="s" s="13">
+      <c r="L78" t="s" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="18" ht="15.000000" customHeight="1">
-      <c r="A18" s="13">
+    <row r="79" ht="15.000000" customHeight="1">
+      <c r="A79" s="4">
         <v>76</v>
       </c>
-      <c r="B18" t="s" s="13">
+      <c r="B79" t="s" s="4">
         <v>322</v>
       </c>
-      <c r="C18" t="s" s="13">
+      <c r="C79" t="s" s="4">
         <v>323</v>
       </c>
-      <c r="D18" t="s" s="13">
+      <c r="D79" t="s" s="4">
         <v>324</v>
       </c>
-      <c r="E18" t="s" s="13">
+      <c r="E79" t="s" s="4">
         <v>118</v>
       </c>
-      <c r="F18" t="s" s="13">
+      <c r="F79" t="s" s="4">
         <v>45</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" t="s" s="13">
+      <c r="G79" s="5"/>
+      <c r="H79" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I79" s="4">
         <v>13.25</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J79" s="4">
         <v>14.25</v>
       </c>
-      <c r="K18" t="s" s="13">
+      <c r="K79" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L18" t="s" s="13">
+      <c r="L79" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="19" ht="15.019980" customHeight="1">
-      <c r="A19" s="13">
+    <row r="80" ht="15.019980" customHeight="1">
+      <c r="A80" s="4">
         <v>77</v>
       </c>
-      <c r="B19" t="s" s="13">
+      <c r="B80" t="s" s="4">
         <v>325</v>
       </c>
-      <c r="C19" t="s" s="13">
+      <c r="C80" t="s" s="4">
         <v>326</v>
       </c>
-      <c r="D19" t="s" s="13">
+      <c r="D80" t="s" s="4">
         <v>327</v>
       </c>
-      <c r="E19" t="s" s="13">
+      <c r="E80" t="s" s="4">
         <v>328</v>
       </c>
-      <c r="F19" t="s" s="13">
+      <c r="F80" t="s" s="4">
         <v>329</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15">
+      <c r="G80" s="5"/>
+      <c r="H80" s="3">
         <v>1</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I80" s="4">
         <v>13.5</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J80" s="3">
         <v>15</v>
       </c>
-      <c r="K19" t="s" s="13">
+      <c r="K80" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L19" t="s" s="13">
+      <c r="L80" t="s" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="15.000000" customHeight="1">
-      <c r="A20" s="13">
+    <row r="81" ht="15.000000" customHeight="1">
+      <c r="A81" s="4">
         <v>78</v>
       </c>
-      <c r="B20" t="s" s="13">
+      <c r="B81" t="s" s="4">
         <v>330</v>
       </c>
-      <c r="C20" t="s" s="13">
+      <c r="C81" t="s" s="4">
         <v>331</v>
       </c>
-      <c r="D20" t="s" s="13">
+      <c r="D81" t="s" s="4">
         <v>332</v>
       </c>
-      <c r="E20" t="s" s="13">
+      <c r="E81" t="s" s="4">
         <v>333</v>
       </c>
-      <c r="F20" t="s" s="13">
+      <c r="F81" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15">
+      <c r="G81" s="5"/>
+      <c r="H81" s="3">
         <v>2</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I81" s="3">
         <v>15</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J81" s="4">
         <v>15.5</v>
       </c>
-      <c r="K20" t="s" s="13">
+      <c r="K81" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L20" t="s" s="13">
+      <c r="L81" t="s" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="21" ht="15.000000" customHeight="1">
-      <c r="A21" s="13">
+    <row r="82" ht="15.000000" customHeight="1">
+      <c r="A82" s="4">
         <v>79</v>
       </c>
-      <c r="B21" t="s" s="13">
+      <c r="B82" t="s" s="4">
         <v>334</v>
       </c>
-      <c r="C21" t="s" s="13">
+      <c r="C82" t="s" s="4">
         <v>335</v>
       </c>
-      <c r="D21" t="s" s="13">
+      <c r="D82" t="s" s="4">
         <v>336</v>
       </c>
-      <c r="E21" t="s" s="13">
+      <c r="E82" t="s" s="4">
         <v>337</v>
       </c>
-      <c r="F21" t="s" s="13">
+      <c r="F82" t="s" s="4">
         <v>132</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15">
+      <c r="G82" s="5"/>
+      <c r="H82" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I82" s="4">
         <v>12.75</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J82" s="4">
         <v>14.25</v>
       </c>
-      <c r="K21" t="s" s="13">
+      <c r="K82" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L21" t="s" s="13">
+      <c r="L82" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="22" ht="15.000000" customHeight="1">
-      <c r="A22" s="13">
+    <row r="83" ht="15.000000" customHeight="1">
+      <c r="A83" s="4">
         <v>80</v>
       </c>
-      <c r="B22" t="s" s="13">
+      <c r="B83" t="s" s="4">
         <v>338</v>
       </c>
-      <c r="C22" t="s" s="13">
+      <c r="C83" t="s" s="4">
         <v>339</v>
       </c>
-      <c r="D22" t="s" s="13">
+      <c r="D83" t="s" s="4">
         <v>340</v>
       </c>
-      <c r="E22" t="s" s="13">
+      <c r="E83" t="s" s="4">
         <v>204</v>
       </c>
-      <c r="F22" t="s" s="13">
+      <c r="F83" t="s" s="4">
         <v>35</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" t="s" s="13">
+      <c r="G83" s="5"/>
+      <c r="H83" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I83" s="4">
         <v>13.25</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J83" s="4">
         <v>14.25</v>
       </c>
-      <c r="K22" t="s" s="13">
+      <c r="K83" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L22" t="s" s="13">
+      <c r="L83" t="s" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="23" ht="15.000000" customHeight="1">
-      <c r="A23" s="13">
+    <row r="84" ht="15.000000" customHeight="1">
+      <c r="A84" s="4">
         <v>81</v>
       </c>
-      <c r="B23" t="s" s="13">
+      <c r="B84" t="s" s="4">
         <v>341</v>
       </c>
-      <c r="C23" t="s" s="13">
+      <c r="C84" t="s" s="4">
         <v>342</v>
       </c>
-      <c r="D23" t="s" s="13">
+      <c r="D84" t="s" s="4">
         <v>343</v>
       </c>
-      <c r="E23" t="s" s="13">
+      <c r="E84" t="s" s="4">
         <v>262</v>
       </c>
-      <c r="F23" t="s" s="13">
+      <c r="F84" t="s" s="4">
         <v>213</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15">
+      <c r="G84" s="5"/>
+      <c r="H84" s="3">
         <v>2</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I84" s="4">
         <v>14.25</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J84" s="4">
         <v>14.75</v>
       </c>
-      <c r="K23" t="s" s="13">
+      <c r="K84" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L23" t="s" s="13">
+      <c r="L84" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="24" ht="15.000000" customHeight="1">
-      <c r="A24" s="13">
+    <row r="85" ht="15.000000" customHeight="1">
+      <c r="A85" s="4">
         <v>82</v>
       </c>
-      <c r="B24" t="s" s="13">
+      <c r="B85" t="s" s="4">
         <v>344</v>
       </c>
-      <c r="C24" t="s" s="13">
+      <c r="C85" t="s" s="4">
         <v>345</v>
       </c>
-      <c r="D24" t="s" s="13">
+      <c r="D85" t="s" s="4">
         <v>346</v>
       </c>
-      <c r="E24" t="s" s="13">
+      <c r="E85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="F24" t="s" s="13">
+      <c r="F85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15">
+      <c r="G85" s="5"/>
+      <c r="H85" s="3">
         <v>2</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I85" s="4">
         <v>13.75</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J85" s="4">
         <v>14.25</v>
       </c>
-      <c r="K24" t="s" s="13">
+      <c r="K85" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L24" t="s" s="13">
+      <c r="L85" t="s" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="25" ht="15.000000" customHeight="1">
-      <c r="A25" s="13">
+    <row r="86" ht="15.000000" customHeight="1">
+      <c r="A86" s="4">
         <v>83</v>
       </c>
-      <c r="B25" t="s" s="13">
+      <c r="B86" t="s" s="4">
         <v>347</v>
       </c>
-      <c r="C25" t="s" s="13">
+      <c r="C86" t="s" s="4">
         <v>348</v>
       </c>
-      <c r="D25" t="s" s="13">
+      <c r="D86" t="s" s="4">
         <v>349</v>
       </c>
-      <c r="E25" t="s" s="13">
+      <c r="E86" t="s" s="4">
         <v>350</v>
       </c>
-      <c r="F25" t="s" s="13">
+      <c r="F86" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15">
+      <c r="G86" s="5"/>
+      <c r="H86" s="3">
         <v>2</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I86" s="4">
         <v>14.75</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J86" s="4">
         <v>15.25</v>
       </c>
-      <c r="K25" t="s" s="13">
+      <c r="K86" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L25" t="s" s="13">
+      <c r="L86" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="26" ht="15.020000" customHeight="1">
-      <c r="A26" s="13">
+    <row r="87" ht="15.020000" customHeight="1">
+      <c r="A87" s="4">
         <v>84</v>
       </c>
-      <c r="B26" t="s" s="13">
+      <c r="B87" t="s" s="4">
         <v>351</v>
       </c>
-      <c r="C26" t="s" s="13">
+      <c r="C87" t="s" s="4">
         <v>352</v>
       </c>
-      <c r="D26" t="s" s="13">
+      <c r="D87" t="s" s="4">
         <v>353</v>
       </c>
-      <c r="E26" t="s" s="13">
+      <c r="E87" t="s" s="4">
         <v>258</v>
       </c>
-      <c r="F26" t="s" s="13">
+      <c r="F87" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15">
+      <c r="G87" s="5"/>
+      <c r="H87" s="3">
         <v>2</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I87" s="4">
         <v>12.75</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J87" s="4">
         <v>13.25</v>
       </c>
-      <c r="K26" t="s" s="13">
+      <c r="K87" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L26" t="s" s="13">
+      <c r="L87" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="27" ht="15.000000" customHeight="1">
-      <c r="A27" s="13">
+    <row r="88" ht="15.000000" customHeight="1">
+      <c r="A88" s="4">
         <v>85</v>
       </c>
-      <c r="B27" t="s" s="13">
+      <c r="B88" t="s" s="4">
         <v>354</v>
       </c>
-      <c r="C27" t="s" s="13">
+      <c r="C88" t="s" s="4">
         <v>355</v>
       </c>
-      <c r="D27" t="s" s="13">
+      <c r="D88" t="s" s="4">
         <v>343</v>
       </c>
-      <c r="E27" t="s" s="13">
+      <c r="E88" t="s" s="4">
         <v>356</v>
       </c>
-      <c r="F27" t="s" s="13">
+      <c r="F88" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15">
+      <c r="G88" s="5"/>
+      <c r="H88" s="3">
         <v>3</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I88" s="4">
         <v>14.75</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J88" s="4">
         <v>14.75</v>
       </c>
-      <c r="K27" t="s" s="13">
+      <c r="K88" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L27" t="s" s="13">
+      <c r="L88" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="28" ht="15.000000" customHeight="1">
-      <c r="A28" s="13">
+    <row r="89" ht="15.000000" customHeight="1">
+      <c r="A89" s="4">
         <v>86</v>
       </c>
-      <c r="B28" t="s" s="13">
+      <c r="B89" t="s" s="4">
         <v>357</v>
       </c>
-      <c r="C28" t="s" s="13">
+      <c r="C89" t="s" s="4">
         <v>358</v>
       </c>
-      <c r="D28" t="s" s="13">
+      <c r="D89" t="s" s="4">
         <v>359</v>
       </c>
-      <c r="E28" t="s" s="13">
+      <c r="E89" t="s" s="4">
         <v>360</v>
       </c>
-      <c r="F28" t="s" s="13">
+      <c r="F89" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15">
+      <c r="G89" s="5"/>
+      <c r="H89" s="3">
         <v>2</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I89" s="4">
         <v>14.25</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J89" s="4">
         <v>14.75</v>
       </c>
-      <c r="K28" t="s" s="13">
+      <c r="K89" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L28" t="s" s="13">
+      <c r="L89" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="29" ht="15.000020" customHeight="1">
-      <c r="A29" s="13">
+    <row r="90" ht="15.000020" customHeight="1">
+      <c r="A90" s="4">
         <v>87</v>
       </c>
-      <c r="B29" t="s" s="13">
+      <c r="B90" t="s" s="4">
         <v>361</v>
       </c>
-      <c r="C29" t="s" s="13">
+      <c r="C90" t="s" s="4">
         <v>362</v>
       </c>
-      <c r="D29" t="s" s="13">
+      <c r="D90" t="s" s="4">
         <v>363</v>
       </c>
-      <c r="E29" t="s" s="13">
+      <c r="E90" t="s" s="4">
         <v>364</v>
       </c>
-      <c r="F29" t="s" s="13">
+      <c r="F90" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15">
+      <c r="G90" s="5"/>
+      <c r="H90" s="3">
         <v>2</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I90" s="3">
         <v>13</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J90" s="4">
         <v>13.5</v>
       </c>
-      <c r="K29" t="s" s="13">
+      <c r="K90" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L29" t="s" s="13">
+      <c r="L90" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="30" ht="15.000000" customHeight="1">
-      <c r="A30" s="13">
+    <row r="91" ht="15.000000" customHeight="1">
+      <c r="A91" s="4">
         <v>88</v>
       </c>
-      <c r="B30" t="s" s="13">
+      <c r="B91" t="s" s="4">
         <v>365</v>
       </c>
-      <c r="C30" t="s" s="13">
+      <c r="C91" t="s" s="4">
         <v>366</v>
       </c>
-      <c r="D30" t="s" s="13">
+      <c r="D91" t="s" s="4">
         <v>367</v>
       </c>
-      <c r="E30" t="s" s="13">
+      <c r="E91" t="s" s="4">
         <v>368</v>
       </c>
-      <c r="F30" t="s" s="13">
+      <c r="F91" t="s" s="4">
         <v>369</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15">
+      <c r="G91" s="5"/>
+      <c r="H91" s="3">
         <v>1</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I91" s="4">
         <v>13.25</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J91" s="4">
         <v>14.75</v>
       </c>
-      <c r="K30" t="s" s="13">
+      <c r="K91" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L30" t="s" s="13">
+      <c r="L91" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="31" ht="15.000000" customHeight="1">
-      <c r="A31" s="13">
+    <row r="92" ht="15.000000" customHeight="1">
+      <c r="A92" s="4">
         <v>89</v>
       </c>
-      <c r="B31" t="s" s="13">
+      <c r="B92" t="s" s="4">
         <v>370</v>
       </c>
-      <c r="C31" t="s" s="13">
+      <c r="C92" t="s" s="4">
         <v>371</v>
       </c>
-      <c r="D31" t="s" s="13">
+      <c r="D92" t="s" s="4">
         <v>372</v>
       </c>
-      <c r="E31" t="s" s="13">
+      <c r="E92" t="s" s="4">
         <v>291</v>
       </c>
-      <c r="F31" t="s" s="13">
+      <c r="F92" t="s" s="4">
         <v>192</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15">
+      <c r="G92" s="5"/>
+      <c r="H92" s="3">
         <v>1</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I92" s="3">
         <v>13</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J92" s="4">
         <v>14.5</v>
       </c>
-      <c r="K31" t="s" s="13">
+      <c r="K92" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L31" t="s" s="13">
+      <c r="L92" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="32" ht="15.000000" customHeight="1">
-      <c r="A32" s="13">
+    <row r="93" ht="15.000000" customHeight="1">
+      <c r="A93" s="4">
         <v>90</v>
       </c>
-      <c r="B32" t="s" s="13">
+      <c r="B93" t="s" s="4">
         <v>373</v>
       </c>
-      <c r="C32" t="s" s="13">
+      <c r="C93" t="s" s="4">
         <v>374</v>
       </c>
-      <c r="D32" t="s" s="13">
+      <c r="D93" t="s" s="4">
         <v>375</v>
       </c>
-      <c r="E32" t="s" s="13">
+      <c r="E93" t="s" s="4">
         <v>376</v>
       </c>
-      <c r="F32" t="s" s="13">
+      <c r="F93" t="s" s="4">
         <v>377</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="15">
+      <c r="G93" s="5"/>
+      <c r="H93" s="3">
         <v>1</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I93" s="3">
         <v>12</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J93" s="4">
         <v>13.5</v>
       </c>
-      <c r="K32" t="s" s="13">
+      <c r="K93" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L32" t="s" s="13">
+      <c r="L93" t="s" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="33" ht="15.023000" customHeight="1">
-      <c r="A33" s="13">
+    <row r="94" ht="15.023000" customHeight="1">
+      <c r="A94" s="4">
         <v>91</v>
       </c>
-      <c r="B33" t="s" s="13">
+      <c r="B94" t="s" s="4">
         <v>378</v>
       </c>
-      <c r="C33" t="s" s="13">
+      <c r="C94" t="s" s="4">
         <v>379</v>
       </c>
-      <c r="D33" t="s" s="13">
+      <c r="D94" t="s" s="4">
         <v>380</v>
       </c>
-      <c r="E33" t="s" s="13">
+      <c r="E94" t="s" s="4">
         <v>314</v>
       </c>
-      <c r="F33" t="s" s="13">
+      <c r="F94" t="s" s="4">
         <v>315</v>
       </c>
-      <c r="G33" s="14"/>
-      <c r="H33" t="s" s="13">
+      <c r="G94" s="5"/>
+      <c r="H94" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I94" s="4">
         <v>12.5</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J94" s="4">
         <v>13.5</v>
       </c>
-      <c r="K33" t="s" s="13">
+      <c r="K94" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L33" t="s" s="13">
+      <c r="L94" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L33"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.761905" customWidth="1"/>
-    <col min="2" max="2" width="12.000000" customWidth="1"/>
-    <col min="3" max="3" width="29.142857" customWidth="1"/>
-    <col min="4" max="4" width="12.000000" customWidth="1"/>
-    <col min="5" max="5" width="22.476190" customWidth="1"/>
-    <col min="6" max="6" width="12.952381" customWidth="1"/>
-    <col min="7" max="7" width="5.523810" customWidth="1"/>
-    <col min="8" max="8" width="5.333333" customWidth="1"/>
-    <col min="9" max="9" width="10.666667" customWidth="1"/>
-    <col min="10" max="10" width="10.095238" customWidth="1"/>
-    <col min="11" max="11" width="10.666667" customWidth="1"/>
-    <col min="12" max="12" width="16.380952" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="24.390000" customHeight="1">
-      <c r="A1" t="s" s="16">
+    <row r="95" ht="24.390000" customHeight="1">
+      <c r="A95" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="16">
+      <c r="B95" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="16">
+      <c r="C95" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="16">
+      <c r="D95" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="16">
+      <c r="E95" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="16">
+      <c r="F95" t="s" s="1">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="16">
+      <c r="G95" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="16">
+      <c r="H95" t="s" s="1">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="17">
+      <c r="I95" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="16">
+      <c r="J95" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="16">
+      <c r="K95" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="16">
+      <c r="L95" t="s" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="15.000000" customHeight="1">
-      <c r="A2" s="18">
+    <row r="96" ht="15.000000" customHeight="1">
+      <c r="A96" s="4">
         <v>92</v>
       </c>
-      <c r="B2" t="s" s="18">
+      <c r="B96" t="s" s="4">
         <v>381</v>
       </c>
-      <c r="C2" t="s" s="18">
+      <c r="C96" t="s" s="4">
         <v>382</v>
       </c>
-      <c r="D2" t="s" s="18">
+      <c r="D96" t="s" s="4">
         <v>383</v>
       </c>
-      <c r="E2" t="s" s="18">
+      <c r="E96" t="s" s="4">
         <v>114</v>
       </c>
-      <c r="F2" t="s" s="18">
+      <c r="F96" t="s" s="4">
         <v>101</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" t="s" s="18">
+      <c r="G96" s="5"/>
+      <c r="H96" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I96" s="4">
         <v>13.75</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J96" s="4">
         <v>14.75</v>
       </c>
-      <c r="K2" t="s" s="18">
+      <c r="K96" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L2" t="s" s="18">
+      <c r="L96" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="15.000000" customHeight="1">
-      <c r="A3" s="18">
+    <row r="97" ht="15.000000" customHeight="1">
+      <c r="A97" s="4">
         <v>93</v>
       </c>
-      <c r="B3" t="s" s="18">
+      <c r="B97" t="s" s="4">
         <v>384</v>
       </c>
-      <c r="C3" t="s" s="18">
+      <c r="C97" t="s" s="4">
         <v>385</v>
       </c>
-      <c r="D3" t="s" s="18">
+      <c r="D97" t="s" s="4">
         <v>386</v>
       </c>
-      <c r="E3" t="s" s="18">
+      <c r="E97" t="s" s="4">
         <v>258</v>
       </c>
-      <c r="F3" t="s" s="18">
+      <c r="F97" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20">
+      <c r="G97" s="5"/>
+      <c r="H97" s="3">
         <v>2</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I97" s="3">
         <v>14</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J97" s="4">
         <v>14.5</v>
       </c>
-      <c r="K3" t="s" s="18">
+      <c r="K97" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L3" t="s" s="18">
+      <c r="L97" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="4" ht="14.999990" customHeight="1">
-      <c r="A4" s="18">
+    <row r="98" ht="14.999990" customHeight="1">
+      <c r="A98" s="4">
         <v>94</v>
       </c>
-      <c r="B4" t="s" s="18">
+      <c r="B98" t="s" s="4">
         <v>387</v>
       </c>
-      <c r="C4" t="s" s="18">
+      <c r="C98" t="s" s="4">
         <v>388</v>
       </c>
-      <c r="D4" t="s" s="18">
+      <c r="D98" t="s" s="4">
         <v>389</v>
       </c>
-      <c r="E4" t="s" s="18">
+      <c r="E98" t="s" s="4">
         <v>40</v>
       </c>
-      <c r="F4" t="s" s="18">
+      <c r="F98" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20">
+      <c r="G98" s="5"/>
+      <c r="H98" s="3">
         <v>2</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I98" s="4">
         <v>13.25</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J98" s="4">
         <v>13.75</v>
       </c>
-      <c r="K4" t="s" s="18">
+      <c r="K98" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L4" t="s" s="18">
+      <c r="L98" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="5" ht="15.030010" customHeight="1">
-      <c r="A5" s="18">
+    <row r="99" ht="15.030010" customHeight="1">
+      <c r="A99" s="4">
         <v>95</v>
       </c>
-      <c r="B5" t="s" s="18">
+      <c r="B99" t="s" s="4">
         <v>390</v>
       </c>
-      <c r="C5" t="s" s="18">
+      <c r="C99" t="s" s="4">
         <v>391</v>
       </c>
-      <c r="D5" t="s" s="18">
+      <c r="D99" t="s" s="4">
         <v>199</v>
       </c>
-      <c r="E5" t="s" s="18">
+      <c r="E99" t="s" s="4">
         <v>392</v>
       </c>
-      <c r="F5" t="s" s="18">
+      <c r="F99" t="s" s="4">
         <v>213</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20">
+      <c r="G99" s="5"/>
+      <c r="H99" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I99" s="3">
         <v>13</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J99" s="4">
         <v>14.5</v>
       </c>
-      <c r="K5" t="s" s="18">
+      <c r="K99" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L5" t="s" s="18">
+      <c r="L99" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="15.000000" customHeight="1">
-      <c r="A6" s="18">
+    <row r="100" ht="15.000000" customHeight="1">
+      <c r="A100" s="4">
         <v>96</v>
       </c>
-      <c r="B6" t="s" s="18">
+      <c r="B100" t="s" s="4">
         <v>393</v>
       </c>
-      <c r="C6" t="s" s="18">
+      <c r="C100" t="s" s="4">
         <v>394</v>
       </c>
-      <c r="D6" t="s" s="18">
+      <c r="D100" t="s" s="4">
         <v>395</v>
       </c>
-      <c r="E6" t="s" s="18">
+      <c r="E100" t="s" s="4">
         <v>396</v>
       </c>
-      <c r="F6" t="s" s="18">
+      <c r="F100" t="s" s="4">
         <v>234</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" t="s" s="18">
+      <c r="G100" s="5"/>
+      <c r="H100" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I100" s="4">
         <v>13.75</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J100" s="4">
         <v>14.75</v>
       </c>
-      <c r="K6" t="s" s="18">
+      <c r="K100" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="L6" t="s" s="18">
+      <c r="L100" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="15.000000" customHeight="1">
-      <c r="A7" s="18">
+    <row r="101" ht="15.000000" customHeight="1">
+      <c r="A101" s="4">
         <v>97</v>
       </c>
-      <c r="B7" t="s" s="18">
+      <c r="B101" t="s" s="4">
         <v>397</v>
       </c>
-      <c r="C7" t="s" s="18">
+      <c r="C101" t="s" s="4">
         <v>398</v>
       </c>
-      <c r="D7" t="s" s="18">
+      <c r="D101" t="s" s="4">
         <v>399</v>
       </c>
-      <c r="E7" t="s" s="18">
+      <c r="E101" t="s" s="4">
         <v>196</v>
       </c>
-      <c r="F7" t="s" s="18">
+      <c r="F101" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20">
+      <c r="G101" s="5"/>
+      <c r="H101" s="3">
         <v>3</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I101" s="4">
         <v>12.25</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J101" s="4">
         <v>12.25</v>
       </c>
-      <c r="K7" t="s" s="18">
+      <c r="K101" t="s" s="4">
         <v>400</v>
       </c>
-      <c r="L7" t="s" s="18">
+      <c r="L101" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="15.000000" customHeight="1">
-      <c r="A8" s="18">
+    <row r="102" ht="15.000000" customHeight="1">
+      <c r="A102" s="4">
         <v>98</v>
       </c>
-      <c r="B8" t="s" s="18">
+      <c r="B102" t="s" s="4">
         <v>401</v>
       </c>
-      <c r="C8" t="s" s="18">
+      <c r="C102" t="s" s="4">
         <v>402</v>
       </c>
-      <c r="D8" t="s" s="18">
+      <c r="D102" t="s" s="4">
         <v>403</v>
       </c>
-      <c r="E8" t="s" s="18">
+      <c r="E102" t="s" s="4">
         <v>200</v>
       </c>
-      <c r="F8" t="s" s="18">
+      <c r="F102" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20">
+      <c r="G102" s="5"/>
+      <c r="H102" s="3">
         <v>2</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I102" s="4">
         <v>12.25</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J102" s="4">
         <v>12.75</v>
       </c>
-      <c r="K8" t="s" s="18">
+      <c r="K102" t="s" s="4">
         <v>400</v>
       </c>
-      <c r="L8" t="s" s="18">
+      <c r="L102" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="15.000000" customHeight="1">
-      <c r="A9" s="18">
+    <row r="103" ht="15.000000" customHeight="1">
+      <c r="A103" s="4">
         <v>99</v>
       </c>
-      <c r="B9" t="s" s="18">
+      <c r="B103" t="s" s="4">
         <v>404</v>
       </c>
-      <c r="C9" t="s" s="18">
+      <c r="C103" t="s" s="4">
         <v>405</v>
       </c>
-      <c r="D9" t="s" s="18">
+      <c r="D103" t="s" s="4">
         <v>406</v>
       </c>
-      <c r="E9" t="s" s="18">
+      <c r="E103" t="s" s="4">
         <v>407</v>
       </c>
-      <c r="F9" t="s" s="18">
+      <c r="F103" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20">
+      <c r="G103" s="5"/>
+      <c r="H103" s="3">
         <v>2</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I103" s="3">
         <v>12</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J103" s="4">
         <v>12.5</v>
       </c>
-      <c r="K9" t="s" s="18">
+      <c r="K103" t="s" s="4">
         <v>400</v>
       </c>
-      <c r="L9" t="s" s="18">
+      <c r="L103" t="s" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="15.000000" customHeight="1">
-      <c r="A10" s="18">
+    <row r="104" ht="15.000000" customHeight="1">
+      <c r="A104" s="4">
         <v>100</v>
       </c>
-      <c r="B10" t="s" s="18">
+      <c r="B104" t="s" s="4">
         <v>408</v>
       </c>
-      <c r="C10" t="s" s="18">
+      <c r="C104" t="s" s="4">
         <v>409</v>
       </c>
-      <c r="D10" t="s" s="18">
+      <c r="D104" t="s" s="4">
         <v>99</v>
       </c>
-      <c r="E10" t="s" s="18">
+      <c r="E104" t="s" s="4">
         <v>410</v>
       </c>
-      <c r="F10" t="s" s="18">
+      <c r="F104" t="s" s="4">
         <v>137</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G104" s="4">
         <v>01</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H104" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I104" s="3">
         <v>9</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J104" s="4">
         <v>12.5</v>
       </c>
-      <c r="K10" t="s" s="18">
+      <c r="K104" t="s" s="4">
         <v>400</v>
       </c>
-      <c r="L10" t="s" s="18">
+      <c r="L104" t="s" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="14.999990" customHeight="1">
-      <c r="A11" s="18">
+    <row r="105" ht="14.999990" customHeight="1">
+      <c r="A105" s="4">
         <v>101</v>
       </c>
-      <c r="B11" t="s" s="18">
+      <c r="B105" t="s" s="4">
         <v>411</v>
       </c>
-      <c r="C11" t="s" s="18">
+      <c r="C105" t="s" s="4">
         <v>412</v>
       </c>
-      <c r="D11" t="s" s="18">
+      <c r="D105" t="s" s="4">
         <v>413</v>
       </c>
-      <c r="E11" t="s" s="18">
+      <c r="E105" t="s" s="4">
         <v>414</v>
       </c>
-      <c r="F11" t="s" s="18">
+      <c r="F105" t="s" s="4">
         <v>247</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20">
+      <c r="G105" s="5"/>
+      <c r="H105" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I105" s="3">
         <v>11</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J105" s="4">
         <v>12.5</v>
       </c>
-      <c r="K11" t="s" s="18">
+      <c r="K105" t="s" s="4">
         <v>400</v>
       </c>
-      <c r="L11" t="s" s="18">
+      <c r="L105" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="12" ht="15.020020" customHeight="1">
-      <c r="A12" s="18">
+    <row r="106" ht="15.020020" customHeight="1">
+      <c r="A106" s="4">
         <v>102</v>
       </c>
-      <c r="B12" t="s" s="18">
+      <c r="B106" t="s" s="4">
         <v>415</v>
       </c>
-      <c r="C12" t="s" s="18">
+      <c r="C106" t="s" s="4">
         <v>416</v>
       </c>
-      <c r="D12" t="s" s="18">
+      <c r="D106" t="s" s="4">
         <v>417</v>
       </c>
-      <c r="E12" t="s" s="18">
+      <c r="E106" t="s" s="4">
         <v>418</v>
       </c>
-      <c r="F12" t="s" s="18">
+      <c r="F106" t="s" s="4">
         <v>192</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20">
+      <c r="G106" s="5"/>
+      <c r="H106" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I106" s="3">
         <v>12</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J106" s="4">
         <v>13.5</v>
       </c>
-      <c r="K12" t="s" s="18">
+      <c r="K106" t="s" s="4">
         <v>400</v>
       </c>
-      <c r="L12" t="s" s="18">
+      <c r="L106" t="s" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="15.000000" customHeight="1">
-      <c r="A13" s="18">
+    <row r="107" ht="15.000000" customHeight="1">
+      <c r="A107" s="4">
         <v>103</v>
       </c>
-      <c r="B13" t="s" s="18">
+      <c r="B107" t="s" s="4">
         <v>419</v>
       </c>
-      <c r="C13" t="s" s="18">
+      <c r="C107" t="s" s="4">
         <v>420</v>
       </c>
-      <c r="D13" t="s" s="18">
+      <c r="D107" t="s" s="4">
         <v>421</v>
       </c>
-      <c r="E13" t="s" s="18">
+      <c r="E107" t="s" s="4">
         <v>422</v>
       </c>
-      <c r="F13" t="s" s="18">
+      <c r="F107" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20">
+      <c r="G107" s="5"/>
+      <c r="H107" s="3">
         <v>2</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I107" s="4">
         <v>11.5</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J107" s="3">
         <v>12</v>
       </c>
-      <c r="K13" t="s" s="18">
+      <c r="K107" t="s" s="4">
         <v>400</v>
       </c>
-      <c r="L13" t="s" s="18">
+      <c r="L107" t="s" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="15.000000" customHeight="1">
-      <c r="A14" s="18">
+    <row r="108" ht="15.000000" customHeight="1">
+      <c r="A108" s="4">
         <v>104</v>
       </c>
-      <c r="B14" t="s" s="18">
+      <c r="B108" t="s" s="4">
         <v>423</v>
       </c>
-      <c r="C14" t="s" s="18">
+      <c r="C108" t="s" s="4">
         <v>424</v>
       </c>
-      <c r="D14" t="s" s="18">
+      <c r="D108" t="s" s="4">
         <v>425</v>
       </c>
-      <c r="E14" t="s" s="18">
+      <c r="E108" t="s" s="4">
         <v>81</v>
       </c>
-      <c r="F14" t="s" s="18">
+      <c r="F108" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20">
+      <c r="G108" s="5"/>
+      <c r="H108" s="3">
         <v>2</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I108" s="3">
         <v>13</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J108" s="4">
         <v>13.5</v>
       </c>
-      <c r="K14" t="s" s="18">
+      <c r="K108" t="s" s="4">
         <v>400</v>
       </c>
-      <c r="L14" t="s" s="18">
+      <c r="L108" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="15.000000" customHeight="1">
-      <c r="A15" s="18">
+    <row r="109" ht="15.000000" customHeight="1">
+      <c r="A109" s="4">
         <v>105</v>
       </c>
-      <c r="B15" t="s" s="18">
+      <c r="B109" t="s" s="4">
         <v>426</v>
       </c>
-      <c r="C15" t="s" s="18">
+      <c r="C109" t="s" s="4">
         <v>427</v>
       </c>
-      <c r="D15" t="s" s="18">
+      <c r="D109" t="s" s="4">
         <v>151</v>
       </c>
-      <c r="E15" t="s" s="18">
+      <c r="E109" t="s" s="4">
         <v>81</v>
       </c>
-      <c r="F15" t="s" s="18">
+      <c r="F109" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20">
+      <c r="G109" s="5"/>
+      <c r="H109" s="3">
         <v>2</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I109" s="3">
         <v>12</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J109" s="4">
         <v>12.5</v>
       </c>
-      <c r="K15" t="s" s="18">
+      <c r="K109" t="s" s="4">
         <v>400</v>
       </c>
-      <c r="L15" t="s" s="18">
+      <c r="L109" t="s" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="16" ht="15.000000" customHeight="1">
-      <c r="A16" s="18">
+    <row r="110" ht="15.000000" customHeight="1">
+      <c r="A110" s="4">
         <v>106</v>
       </c>
-      <c r="B16" t="s" s="18">
+      <c r="B110" t="s" s="4">
         <v>428</v>
       </c>
-      <c r="C16" t="s" s="18">
+      <c r="C110" t="s" s="4">
         <v>429</v>
       </c>
-      <c r="D16" t="s" s="18">
+      <c r="D110" t="s" s="4">
         <v>430</v>
       </c>
-      <c r="E16" t="s" s="18">
+      <c r="E110" t="s" s="4">
         <v>431</v>
       </c>
-      <c r="F16" t="s" s="18">
+      <c r="F110" t="s" s="4">
         <v>432</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G110" s="4">
         <v>01</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H110" s="3">
         <v>1</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I110" s="4">
         <v>10.25</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J110" s="4">
         <v>13.75</v>
       </c>
-      <c r="K16" t="s" s="18">
+      <c r="K110" t="s" s="4">
         <v>400</v>
       </c>
-      <c r="L16" t="s" s="18">
+      <c r="L110" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="17" ht="15.000000" customHeight="1">
-      <c r="A17" s="18">
+    <row r="111" ht="15.000000" customHeight="1">
+      <c r="A111" s="4">
         <v>107</v>
       </c>
-      <c r="B17" t="s" s="18">
+      <c r="B111" t="s" s="4">
         <v>433</v>
       </c>
-      <c r="C17" t="s" s="18">
+      <c r="C111" t="s" s="4">
         <v>434</v>
       </c>
-      <c r="D17" t="s" s="18">
+      <c r="D111" t="s" s="4">
         <v>435</v>
       </c>
-      <c r="E17" t="s" s="18">
+      <c r="E111" t="s" s="4">
         <v>241</v>
       </c>
-      <c r="F17" t="s" s="18">
+      <c r="F111" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20">
+      <c r="G111" s="5"/>
+      <c r="H111" s="3">
         <v>2</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I111" s="4">
         <v>11.5</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J111" s="3">
         <v>12</v>
       </c>
-      <c r="K17" t="s" s="18">
+      <c r="K111" t="s" s="4">
         <v>436</v>
       </c>
-      <c r="L17" t="s" s="18">
+      <c r="L111" t="s" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="18" ht="15.000000" customHeight="1">
-      <c r="A18" s="18">
+    <row r="112" ht="15.000000" customHeight="1">
+      <c r="A112" s="4">
         <v>108</v>
       </c>
-      <c r="B18" t="s" s="18">
+      <c r="B112" t="s" s="4">
         <v>437</v>
       </c>
-      <c r="C18" t="s" s="18">
+      <c r="C112" t="s" s="4">
         <v>438</v>
       </c>
-      <c r="D18" t="s" s="18">
+      <c r="D112" t="s" s="4">
         <v>439</v>
       </c>
-      <c r="E18" t="s" s="18">
+      <c r="E112" t="s" s="4">
         <v>273</v>
       </c>
-      <c r="F18" t="s" s="18">
+      <c r="F112" t="s" s="4">
         <v>106</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20">
+      <c r="G112" s="5"/>
+      <c r="H112" s="3">
         <v>2</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I112" s="4">
         <v>13.25</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J112" s="4">
         <v>13.75</v>
       </c>
-      <c r="K18" t="s" s="18">
+      <c r="K112" t="s" s="4">
         <v>436</v>
       </c>
-      <c r="L18" t="s" s="18">
+      <c r="L112" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="19" ht="15.019980" customHeight="1">
-      <c r="A19" s="18">
+    <row r="113" ht="15.019980" customHeight="1">
+      <c r="A113" s="4">
         <v>109</v>
       </c>
-      <c r="B19" t="s" s="18">
+      <c r="B113" t="s" s="4">
         <v>440</v>
       </c>
-      <c r="C19" t="s" s="18">
+      <c r="C113" t="s" s="4">
         <v>441</v>
       </c>
-      <c r="D19" t="s" s="18">
+      <c r="D113" t="s" s="4">
         <v>442</v>
       </c>
-      <c r="E19" t="s" s="18">
+      <c r="E113" t="s" s="4">
         <v>443</v>
       </c>
-      <c r="F19" t="s" s="18">
+      <c r="F113" t="s" s="4">
         <v>213</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20">
+      <c r="G113" s="5"/>
+      <c r="H113" s="3">
         <v>2</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I113" s="4">
         <v>11.75</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J113" s="4">
         <v>12.25</v>
       </c>
-      <c r="K19" t="s" s="18">
+      <c r="K113" t="s" s="4">
         <v>436</v>
       </c>
-      <c r="L19" t="s" s="18">
+      <c r="L113" t="s" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="15.000000" customHeight="1">
-      <c r="A20" s="18">
+    <row r="114" ht="15.000000" customHeight="1">
+      <c r="A114" s="4">
         <v>110</v>
       </c>
-      <c r="B20" t="s" s="18">
+      <c r="B114" t="s" s="4">
         <v>444</v>
       </c>
-      <c r="C20" t="s" s="18">
+      <c r="C114" t="s" s="4">
         <v>445</v>
       </c>
-      <c r="D20" t="s" s="18">
+      <c r="D114" t="s" s="4">
         <v>446</v>
       </c>
-      <c r="E20" t="s" s="18">
+      <c r="E114" t="s" s="4">
         <v>196</v>
       </c>
-      <c r="F20" t="s" s="18">
+      <c r="F114" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20">
+      <c r="G114" s="5"/>
+      <c r="H114" s="3">
         <v>3</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I114" s="4">
         <v>13.75</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J114" s="4">
         <v>13.75</v>
       </c>
-      <c r="K20" t="s" s="18">
+      <c r="K114" t="s" s="4">
         <v>436</v>
       </c>
-      <c r="L20" t="s" s="18">
+      <c r="L114" t="s" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="21" ht="15.000000" customHeight="1">
-      <c r="A21" s="18">
+    <row r="115" ht="15.000000" customHeight="1">
+      <c r="A115" s="4">
         <v>111</v>
       </c>
-      <c r="B21" t="s" s="18">
+      <c r="B115" t="s" s="4">
         <v>447</v>
       </c>
-      <c r="C21" t="s" s="18">
+      <c r="C115" t="s" s="4">
         <v>448</v>
       </c>
-      <c r="D21" t="s" s="18">
+      <c r="D115" t="s" s="4">
         <v>324</v>
       </c>
-      <c r="E21" t="s" s="18">
+      <c r="E115" t="s" s="4">
         <v>449</v>
       </c>
-      <c r="F21" t="s" s="18">
+      <c r="F115" t="s" s="4">
         <v>106</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" t="s" s="18">
+      <c r="G115" s="5"/>
+      <c r="H115" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I115" s="3">
         <v>14</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J115" s="3">
         <v>15</v>
       </c>
-      <c r="K21" t="s" s="18">
+      <c r="K115" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L21" t="s" s="18">
+      <c r="L115" t="s" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="22" ht="15.000000" customHeight="1">
-      <c r="A22" s="18">
+    <row r="116" ht="15.000000" customHeight="1">
+      <c r="A116" s="4">
         <v>112</v>
       </c>
-      <c r="B22" t="s" s="18">
+      <c r="B116" t="s" s="4">
         <v>451</v>
       </c>
-      <c r="C22" t="s" s="18">
+      <c r="C116" t="s" s="4">
         <v>452</v>
       </c>
-      <c r="D22" t="s" s="18">
+      <c r="D116" t="s" s="4">
         <v>453</v>
       </c>
-      <c r="E22" t="s" s="18">
+      <c r="E116" t="s" s="4">
         <v>196</v>
       </c>
-      <c r="F22" t="s" s="18">
+      <c r="F116" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20">
+      <c r="G116" s="5"/>
+      <c r="H116" s="3">
         <v>3</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I116" s="4">
         <v>17.25</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J116" s="4">
         <v>17.25</v>
       </c>
-      <c r="K22" t="s" s="18">
+      <c r="K116" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L22" t="s" s="18">
+      <c r="L116" t="s" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="23" ht="15.000000" customHeight="1">
-      <c r="A23" s="18">
+    <row r="117" ht="15.000000" customHeight="1">
+      <c r="A117" s="4">
         <v>113</v>
       </c>
-      <c r="B23" t="s" s="18">
+      <c r="B117" t="s" s="4">
         <v>454</v>
       </c>
-      <c r="C23" t="s" s="18">
+      <c r="C117" t="s" s="4">
         <v>455</v>
       </c>
-      <c r="D23" t="s" s="18">
+      <c r="D117" t="s" s="4">
         <v>456</v>
       </c>
-      <c r="E23" t="s" s="18">
+      <c r="E117" t="s" s="4">
         <v>457</v>
       </c>
-      <c r="F23" t="s" s="18">
+      <c r="F117" t="s" s="4">
         <v>213</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20">
+      <c r="G117" s="5"/>
+      <c r="H117" s="3">
         <v>1</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I117" s="4">
         <v>13.25</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J117" s="4">
         <v>14.75</v>
       </c>
-      <c r="K23" t="s" s="18">
+      <c r="K117" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L23" t="s" s="18">
+      <c r="L117" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="24" ht="15.000000" customHeight="1">
-      <c r="A24" s="18">
+    <row r="118" ht="15.000000" customHeight="1">
+      <c r="A118" s="4">
         <v>114</v>
       </c>
-      <c r="B24" t="s" s="18">
+      <c r="B118" t="s" s="4">
         <v>458</v>
       </c>
-      <c r="C24" t="s" s="18">
+      <c r="C118" t="s" s="4">
         <v>459</v>
       </c>
-      <c r="D24" t="s" s="18">
+      <c r="D118" t="s" s="4">
         <v>460</v>
       </c>
-      <c r="E24" t="s" s="18">
+      <c r="E118" t="s" s="4">
         <v>350</v>
       </c>
-      <c r="F24" t="s" s="18">
+      <c r="F118" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20">
+      <c r="G118" s="5"/>
+      <c r="H118" s="3">
         <v>3</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I118" s="4">
         <v>14.75</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J118" s="4">
         <v>14.75</v>
       </c>
-      <c r="K24" t="s" s="18">
+      <c r="K118" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L24" t="s" s="18">
+      <c r="L118" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="25" ht="15.000000" customHeight="1">
-      <c r="A25" s="18">
+    <row r="119" ht="15.000000" customHeight="1">
+      <c r="A119" s="4">
         <v>115</v>
       </c>
-      <c r="B25" t="s" s="18">
+      <c r="B119" t="s" s="4">
         <v>461</v>
       </c>
-      <c r="C25" t="s" s="18">
+      <c r="C119" t="s" s="4">
         <v>462</v>
       </c>
-      <c r="D25" t="s" s="18">
+      <c r="D119" t="s" s="4">
         <v>406</v>
       </c>
-      <c r="E25" t="s" s="18">
+      <c r="E119" t="s" s="4">
         <v>291</v>
       </c>
-      <c r="F25" t="s" s="18">
+      <c r="F119" t="s" s="4">
         <v>192</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20">
+      <c r="G119" s="5"/>
+      <c r="H119" s="3">
         <v>1</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I119" s="3">
         <v>13</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J119" s="4">
         <v>14.5</v>
       </c>
-      <c r="K25" t="s" s="18">
+      <c r="K119" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L25" t="s" s="18">
+      <c r="L119" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="26" ht="15.020000" customHeight="1">
-      <c r="A26" s="18">
+    <row r="120" ht="15.020000" customHeight="1">
+      <c r="A120" s="4">
         <v>116</v>
       </c>
-      <c r="B26" t="s" s="18">
+      <c r="B120" t="s" s="4">
         <v>463</v>
       </c>
-      <c r="C26" t="s" s="18">
+      <c r="C120" t="s" s="4">
         <v>464</v>
       </c>
-      <c r="D26" t="s" s="18">
+      <c r="D120" t="s" s="4">
         <v>113</v>
       </c>
-      <c r="E26" t="s" s="18">
+      <c r="E120" t="s" s="4">
         <v>208</v>
       </c>
-      <c r="F26" t="s" s="18">
+      <c r="F120" t="s" s="4">
         <v>101</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" t="s" s="18">
+      <c r="G120" s="5"/>
+      <c r="H120" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I120" s="3">
         <v>14</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J120" s="3">
         <v>15</v>
       </c>
-      <c r="K26" t="s" s="18">
+      <c r="K120" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L26" t="s" s="18">
+      <c r="L120" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="27" ht="15.000000" customHeight="1">
-      <c r="A27" s="18">
+    <row r="121" ht="15.000000" customHeight="1">
+      <c r="A121" s="4">
         <v>117</v>
       </c>
-      <c r="B27" t="s" s="18">
+      <c r="B121" t="s" s="4">
         <v>465</v>
       </c>
-      <c r="C27" t="s" s="18">
+      <c r="C121" t="s" s="4">
         <v>466</v>
       </c>
-      <c r="D27" t="s" s="18">
+      <c r="D121" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="E27" t="s" s="18">
+      <c r="E121" t="s" s="4">
         <v>333</v>
       </c>
-      <c r="F27" t="s" s="18">
+      <c r="F121" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20">
+      <c r="G121" s="5"/>
+      <c r="H121" s="3">
         <v>3</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I121" s="4">
         <v>14.5</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J121" s="4">
         <v>14.5</v>
       </c>
-      <c r="K27" t="s" s="18">
+      <c r="K121" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L27" t="s" s="18">
+      <c r="L121" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="28" ht="15.000000" customHeight="1">
-      <c r="A28" s="18">
+    <row r="122" ht="15.000000" customHeight="1">
+      <c r="A122" s="4">
         <v>118</v>
       </c>
-      <c r="B28" t="s" s="18">
+      <c r="B122" t="s" s="4">
         <v>467</v>
       </c>
-      <c r="C28" t="s" s="18">
+      <c r="C122" t="s" s="4">
         <v>468</v>
       </c>
-      <c r="D28" t="s" s="18">
+      <c r="D122" t="s" s="4">
         <v>469</v>
       </c>
-      <c r="E28" t="s" s="18">
+      <c r="E122" t="s" s="4">
         <v>470</v>
       </c>
-      <c r="F28" t="s" s="18">
+      <c r="F122" t="s" s="4">
         <v>471</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G122" s="4">
         <v>01</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H122" s="3">
         <v>1</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I122" s="4">
         <v>11.75</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J122" s="4">
         <v>15.25</v>
       </c>
-      <c r="K28" t="s" s="18">
+      <c r="K122" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L28" t="s" s="18">
+      <c r="L122" t="s" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="29" ht="15.000020" customHeight="1">
-      <c r="A29" s="18">
+    <row r="123" ht="15.000020" customHeight="1">
+      <c r="A123" s="4">
         <v>119</v>
       </c>
-      <c r="B29" t="s" s="18">
+      <c r="B123" t="s" s="4">
         <v>472</v>
       </c>
-      <c r="C29" t="s" s="18">
+      <c r="C123" t="s" s="4">
         <v>473</v>
       </c>
-      <c r="D29" t="s" s="18">
+      <c r="D123" t="s" s="4">
         <v>147</v>
       </c>
-      <c r="E29" t="s" s="18">
+      <c r="E123" t="s" s="4">
         <v>177</v>
       </c>
-      <c r="F29" t="s" s="18">
+      <c r="F123" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20">
+      <c r="G123" s="5"/>
+      <c r="H123" s="3">
         <v>3</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I123" s="3">
         <v>15</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J123" s="3">
         <v>15</v>
       </c>
-      <c r="K29" t="s" s="18">
+      <c r="K123" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L29" t="s" s="18">
+      <c r="L123" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="30" ht="15.000000" customHeight="1">
-      <c r="A30" s="18">
+    <row r="124" ht="15.000000" customHeight="1">
+      <c r="A124" s="4">
         <v>120</v>
       </c>
-      <c r="B30" t="s" s="18">
+      <c r="B124" t="s" s="4">
         <v>474</v>
       </c>
-      <c r="C30" t="s" s="18">
+      <c r="C124" t="s" s="4">
         <v>475</v>
       </c>
-      <c r="D30" t="s" s="18">
+      <c r="D124" t="s" s="4">
         <v>476</v>
       </c>
-      <c r="E30" t="s" s="18">
+      <c r="E124" t="s" s="4">
         <v>155</v>
       </c>
-      <c r="F30" t="s" s="18">
+      <c r="F124" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20">
+      <c r="G124" s="5"/>
+      <c r="H124" s="3">
         <v>2</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I124" s="4">
         <v>16.5</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J124" s="3">
         <v>17</v>
       </c>
-      <c r="K30" t="s" s="18">
+      <c r="K124" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L30" t="s" s="18">
+      <c r="L124" t="s" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="31" ht="15.000000" customHeight="1">
-      <c r="A31" s="18">
+    <row r="125" ht="15.000000" customHeight="1">
+      <c r="A125" s="4">
         <v>121</v>
       </c>
-      <c r="B31" t="s" s="18">
+      <c r="B125" t="s" s="4">
         <v>477</v>
       </c>
-      <c r="C31" t="s" s="18">
+      <c r="C125" t="s" s="4">
         <v>478</v>
       </c>
-      <c r="D31" t="s" s="18">
+      <c r="D125" t="s" s="4">
         <v>435</v>
       </c>
-      <c r="E31" t="s" s="18">
+      <c r="E125" t="s" s="4">
         <v>258</v>
       </c>
-      <c r="F31" t="s" s="18">
+      <c r="F125" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20">
+      <c r="G125" s="5"/>
+      <c r="H125" s="3">
         <v>2</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I125" s="4">
         <v>14.5</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J125" s="3">
         <v>15</v>
       </c>
-      <c r="K31" t="s" s="18">
+      <c r="K125" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L31" t="s" s="18">
+      <c r="L125" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="32" ht="15.000000" customHeight="1">
-      <c r="A32" s="18">
+    <row r="126" ht="15.000000" customHeight="1">
+      <c r="A126" s="4">
         <v>122</v>
       </c>
-      <c r="B32" t="s" s="18">
+      <c r="B126" t="s" s="4">
         <v>479</v>
       </c>
-      <c r="C32" t="s" s="18">
+      <c r="C126" t="s" s="4">
         <v>480</v>
       </c>
-      <c r="D32" t="s" s="18">
+      <c r="D126" t="s" s="4">
         <v>240</v>
       </c>
-      <c r="E32" t="s" s="18">
+      <c r="E126" t="s" s="4">
         <v>262</v>
       </c>
-      <c r="F32" t="s" s="18">
+      <c r="F126" t="s" s="4">
         <v>213</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20">
+      <c r="G126" s="5"/>
+      <c r="H126" s="3">
         <v>2</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I126" s="4">
         <v>14.25</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J126" s="4">
         <v>14.75</v>
       </c>
-      <c r="K32" t="s" s="18">
+      <c r="K126" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L32" t="s" s="18">
+      <c r="L126" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="33" ht="15.023000" customHeight="1">
-      <c r="A33" s="18">
+    <row r="127" ht="15.023000" customHeight="1">
+      <c r="A127" s="4">
         <v>123</v>
       </c>
-      <c r="B33" t="s" s="18">
+      <c r="B127" t="s" s="4">
         <v>481</v>
       </c>
-      <c r="C33" t="s" s="18">
+      <c r="C127" t="s" s="4">
         <v>482</v>
       </c>
-      <c r="D33" t="s" s="18">
+      <c r="D127" t="s" s="4">
         <v>483</v>
       </c>
-      <c r="E33" t="s" s="18">
+      <c r="E127" t="s" s="4">
         <v>484</v>
       </c>
-      <c r="F33" t="s" s="18">
+      <c r="F127" t="s" s="4">
         <v>315</v>
       </c>
-      <c r="G33" s="19"/>
-      <c r="H33" t="s" s="18">
+      <c r="G127" s="5"/>
+      <c r="H127" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I127" s="3">
         <v>14</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J127" s="3">
         <v>15</v>
       </c>
-      <c r="K33" t="s" s="18">
+      <c r="K127" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L33" t="s" s="18">
+      <c r="L127" t="s" s="4">
         <v>18</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L18"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.761905" customWidth="1"/>
-    <col min="2" max="2" width="12.000000" customWidth="1"/>
-    <col min="3" max="3" width="29.142857" customWidth="1"/>
-    <col min="4" max="4" width="12.000000" customWidth="1"/>
-    <col min="5" max="5" width="22.476190" customWidth="1"/>
-    <col min="6" max="6" width="12.952381" customWidth="1"/>
-    <col min="7" max="7" width="5.523810" customWidth="1"/>
-    <col min="8" max="8" width="5.333333" customWidth="1"/>
-    <col min="9" max="9" width="10.666667" customWidth="1"/>
-    <col min="10" max="10" width="10.095238" customWidth="1"/>
-    <col min="11" max="11" width="10.666667" customWidth="1"/>
-    <col min="12" max="12" width="16.380952" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="24.390000" customHeight="1">
-      <c r="A1" t="s" s="21">
+    <row r="128" ht="24.390000" customHeight="1">
+      <c r="A128" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="21">
+      <c r="B128" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="21">
+      <c r="C128" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="21">
+      <c r="D128" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="21">
+      <c r="E128" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="21">
+      <c r="F128" t="s" s="1">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="21">
+      <c r="G128" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="21">
+      <c r="H128" t="s" s="1">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="22">
+      <c r="I128" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="21">
+      <c r="J128" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="21">
+      <c r="K128" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="21">
+      <c r="L128" t="s" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="15.000000" customHeight="1">
-      <c r="A2" s="23">
+    <row r="129" ht="15.000000" customHeight="1">
+      <c r="A129" s="4">
         <v>124</v>
       </c>
-      <c r="B2" t="s" s="23">
+      <c r="B129" t="s" s="4">
         <v>485</v>
       </c>
-      <c r="C2" t="s" s="23">
+      <c r="C129" t="s" s="4">
         <v>486</v>
       </c>
-      <c r="D2" t="s" s="23">
+      <c r="D129" t="s" s="4">
         <v>487</v>
       </c>
-      <c r="E2" t="s" s="23">
+      <c r="E129" t="s" s="4">
         <v>136</v>
       </c>
-      <c r="F2" t="s" s="23">
+      <c r="F129" t="s" s="4">
         <v>137</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25">
+      <c r="G129" s="5"/>
+      <c r="H129" s="3">
         <v>1</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I129" s="4">
         <v>13.25</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J129" s="4">
         <v>14.75</v>
       </c>
-      <c r="K2" t="s" s="23">
+      <c r="K129" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L2" t="s" s="23">
+      <c r="L129" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="15.000000" customHeight="1">
-      <c r="A3" s="23">
+    <row r="130" ht="15.000000" customHeight="1">
+      <c r="A130" s="4">
         <v>125</v>
       </c>
-      <c r="B3" t="s" s="23">
+      <c r="B130" t="s" s="4">
         <v>488</v>
       </c>
-      <c r="C3" t="s" s="23">
+      <c r="C130" t="s" s="4">
         <v>489</v>
       </c>
-      <c r="D3" t="s" s="23">
+      <c r="D130" t="s" s="4">
         <v>490</v>
       </c>
-      <c r="E3" t="s" s="23">
+      <c r="E130" t="s" s="4">
         <v>491</v>
       </c>
-      <c r="F3" t="s" s="23">
+      <c r="F130" t="s" s="4">
         <v>329</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G130" s="4">
         <v>01</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H130" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I130" s="4">
         <v>11.5</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J130" s="3">
         <v>15</v>
       </c>
-      <c r="K3" t="s" s="23">
+      <c r="K130" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L3" t="s" s="23">
+      <c r="L130" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="4" ht="14.999990" customHeight="1">
-      <c r="A4" s="23">
+    <row r="131" ht="14.999990" customHeight="1">
+      <c r="A131" s="4">
         <v>126</v>
       </c>
-      <c r="B4" t="s" s="23">
+      <c r="B131" t="s" s="4">
         <v>492</v>
       </c>
-      <c r="C4" t="s" s="23">
+      <c r="C131" t="s" s="4">
         <v>493</v>
       </c>
-      <c r="D4" t="s" s="23">
+      <c r="D131" t="s" s="4">
         <v>298</v>
       </c>
-      <c r="E4" t="s" s="23">
+      <c r="E131" t="s" s="4">
         <v>494</v>
       </c>
-      <c r="F4" t="s" s="23">
+      <c r="F131" t="s" s="4">
         <v>377</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25">
+      <c r="G131" s="5"/>
+      <c r="H131" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I131" s="3">
         <v>13</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J131" s="4">
         <v>14.5</v>
       </c>
-      <c r="K4" t="s" s="23">
+      <c r="K131" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L4" t="s" s="23">
+      <c r="L131" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="5" ht="15.030010" customHeight="1">
-      <c r="A5" s="23">
+    <row r="132" ht="15.030010" customHeight="1">
+      <c r="A132" s="4">
         <v>127</v>
       </c>
-      <c r="B5" t="s" s="23">
+      <c r="B132" t="s" s="4">
         <v>495</v>
       </c>
-      <c r="C5" t="s" s="23">
+      <c r="C132" t="s" s="4">
         <v>496</v>
       </c>
-      <c r="D5" t="s" s="23">
+      <c r="D132" t="s" s="4">
         <v>497</v>
       </c>
-      <c r="E5" t="s" s="23">
+      <c r="E132" t="s" s="4">
         <v>200</v>
       </c>
-      <c r="F5" t="s" s="23">
+      <c r="F132" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25">
+      <c r="G132" s="5"/>
+      <c r="H132" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I132" s="3">
         <v>14</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J132" s="4">
         <v>14.5</v>
       </c>
-      <c r="K5" t="s" s="23">
+      <c r="K132" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L5" t="s" s="23">
+      <c r="L132" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="15.000000" customHeight="1">
-      <c r="A6" s="23">
+    <row r="133" ht="15.000000" customHeight="1">
+      <c r="A133" s="4">
         <v>128</v>
       </c>
-      <c r="B6" t="s" s="23">
+      <c r="B133" t="s" s="4">
         <v>498</v>
       </c>
-      <c r="C6" t="s" s="23">
+      <c r="C133" t="s" s="4">
         <v>499</v>
       </c>
-      <c r="D6" t="s" s="23">
+      <c r="D133" t="s" s="4">
         <v>91</v>
       </c>
-      <c r="E6" t="s" s="23">
+      <c r="E133" t="s" s="4">
         <v>418</v>
       </c>
-      <c r="F6" t="s" s="23">
+      <c r="F133" t="s" s="4">
         <v>192</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25">
+      <c r="G133" s="5"/>
+      <c r="H133" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I133" s="4">
         <v>13.5</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J133" s="3">
         <v>15</v>
       </c>
-      <c r="K6" t="s" s="23">
+      <c r="K133" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L6" t="s" s="23">
+      <c r="L133" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="15.000000" customHeight="1">
-      <c r="A7" s="23">
+    <row r="134" ht="15.000000" customHeight="1">
+      <c r="A134" s="4">
         <v>129</v>
       </c>
-      <c r="B7" t="s" s="23">
+      <c r="B134" t="s" s="4">
         <v>500</v>
       </c>
-      <c r="C7" t="s" s="23">
+      <c r="C134" t="s" s="4">
         <v>501</v>
       </c>
-      <c r="D7" t="s" s="23">
+      <c r="D134" t="s" s="4">
         <v>313</v>
       </c>
-      <c r="E7" t="s" s="23">
+      <c r="E134" t="s" s="4">
         <v>502</v>
       </c>
-      <c r="F7" t="s" s="23">
+      <c r="F134" t="s" s="4">
         <v>247</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25">
+      <c r="G134" s="5"/>
+      <c r="H134" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I134" s="4">
         <v>18.75</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J134" s="4">
         <v>20.25</v>
       </c>
-      <c r="K7" t="s" s="23">
+      <c r="K134" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L7" t="s" s="23">
+      <c r="L134" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="15.000000" customHeight="1">
-      <c r="A8" s="23">
+    <row r="135" ht="15.000000" customHeight="1">
+      <c r="A135" s="4">
         <v>130</v>
       </c>
-      <c r="B8" t="s" s="23">
+      <c r="B135" t="s" s="4">
         <v>503</v>
       </c>
-      <c r="C8" t="s" s="23">
+      <c r="C135" t="s" s="4">
         <v>504</v>
       </c>
-      <c r="D8" t="s" s="23">
+      <c r="D135" t="s" s="4">
         <v>505</v>
       </c>
-      <c r="E8" t="s" s="23">
+      <c r="E135" t="s" s="4">
         <v>502</v>
       </c>
-      <c r="F8" t="s" s="23">
+      <c r="F135" t="s" s="4">
         <v>247</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25">
+      <c r="G135" s="5"/>
+      <c r="H135" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I135" s="4">
         <v>13.75</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J135" s="4">
         <v>15.25</v>
       </c>
-      <c r="K8" t="s" s="23">
+      <c r="K135" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L8" t="s" s="23">
+      <c r="L135" t="s" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="15.000000" customHeight="1">
-      <c r="A9" s="23">
+    <row r="136" ht="15.000000" customHeight="1">
+      <c r="A136" s="4">
         <v>131</v>
       </c>
-      <c r="B9" t="s" s="23">
+      <c r="B136" t="s" s="4">
         <v>506</v>
       </c>
-      <c r="C9" t="s" s="23">
+      <c r="C136" t="s" s="4">
         <v>507</v>
       </c>
-      <c r="D9" t="s" s="23">
+      <c r="D136" t="s" s="4">
         <v>508</v>
       </c>
-      <c r="E9" t="s" s="23">
+      <c r="E136" t="s" s="4">
         <v>509</v>
       </c>
-      <c r="F9" t="s" s="23">
+      <c r="F136" t="s" s="4">
         <v>213</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" t="s" s="23">
+      <c r="G136" s="5"/>
+      <c r="H136" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I136" s="3">
         <v>14</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J136" s="3">
         <v>15</v>
       </c>
-      <c r="K9" t="s" s="23">
+      <c r="K136" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L9" t="s" s="23">
+      <c r="L136" t="s" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="15.000000" customHeight="1">
-      <c r="A10" s="23">
+    <row r="137" ht="15.000000" customHeight="1">
+      <c r="A137" s="4">
         <v>132</v>
       </c>
-      <c r="B10" t="s" s="23">
+      <c r="B137" t="s" s="4">
         <v>510</v>
       </c>
-      <c r="C10" t="s" s="23">
+      <c r="C137" t="s" s="4">
         <v>511</v>
       </c>
-      <c r="D10" t="s" s="23">
+      <c r="D137" t="s" s="4">
         <v>512</v>
       </c>
-      <c r="E10" t="s" s="23">
+      <c r="E137" t="s" s="4">
         <v>81</v>
       </c>
-      <c r="F10" t="s" s="23">
+      <c r="F137" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25">
+      <c r="G137" s="5"/>
+      <c r="H137" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I137" s="4">
         <v>14.75</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J137" s="4">
         <v>16.25</v>
       </c>
-      <c r="K10" t="s" s="23">
+      <c r="K137" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L10" t="s" s="23">
+      <c r="L137" t="s" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="14.999990" customHeight="1">
-      <c r="A11" s="23">
+    <row r="138" ht="14.999990" customHeight="1">
+      <c r="A138" s="4">
         <v>133</v>
       </c>
-      <c r="B11" t="s" s="23">
+      <c r="B138" t="s" s="4">
         <v>513</v>
       </c>
-      <c r="C11" t="s" s="23">
+      <c r="C138" t="s" s="4">
         <v>514</v>
       </c>
-      <c r="D11" t="s" s="23">
+      <c r="D138" t="s" s="4">
         <v>515</v>
       </c>
-      <c r="E11" t="s" s="23">
+      <c r="E138" t="s" s="4">
         <v>61</v>
       </c>
-      <c r="F11" t="s" s="23">
+      <c r="F138" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25">
+      <c r="G138" s="5"/>
+      <c r="H138" s="3">
         <v>2</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I138" s="4">
         <v>14.5</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J138" s="3">
         <v>15</v>
       </c>
-      <c r="K11" t="s" s="23">
+      <c r="K138" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L11" t="s" s="23">
+      <c r="L138" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="12" ht="15.020020" customHeight="1">
-      <c r="A12" s="23">
+    <row r="139" ht="15.020020" customHeight="1">
+      <c r="A139" s="4">
         <v>134</v>
       </c>
-      <c r="B12" t="s" s="23">
+      <c r="B139" t="s" s="4">
         <v>516</v>
       </c>
-      <c r="C12" t="s" s="23">
+      <c r="C139" t="s" s="4">
         <v>517</v>
       </c>
-      <c r="D12" t="s" s="23">
+      <c r="D139" t="s" s="4">
         <v>518</v>
       </c>
-      <c r="E12" t="s" s="23">
+      <c r="E139" t="s" s="4">
         <v>422</v>
       </c>
-      <c r="F12" t="s" s="23">
+      <c r="F139" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25">
+      <c r="G139" s="5"/>
+      <c r="H139" s="3">
         <v>2</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I139" s="4">
         <v>15.25</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J139" s="4">
         <v>15.75</v>
       </c>
-      <c r="K12" t="s" s="23">
+      <c r="K139" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L12" t="s" s="23">
+      <c r="L139" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="15.000000" customHeight="1">
-      <c r="A13" s="23">
+    <row r="140" ht="15.000000" customHeight="1">
+      <c r="A140" s="4">
         <v>135</v>
       </c>
-      <c r="B13" t="s" s="23">
+      <c r="B140" t="s" s="4">
         <v>519</v>
       </c>
-      <c r="C13" t="s" s="23">
+      <c r="C140" t="s" s="4">
         <v>520</v>
       </c>
-      <c r="D13" t="s" s="23">
+      <c r="D140" t="s" s="4">
         <v>126</v>
       </c>
-      <c r="E13" t="s" s="23">
+      <c r="E140" t="s" s="4">
         <v>291</v>
       </c>
-      <c r="F13" t="s" s="23">
+      <c r="F140" t="s" s="4">
         <v>192</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25">
+      <c r="G140" s="5"/>
+      <c r="H140" s="3">
         <v>1</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I140" s="3">
         <v>14</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J140" s="4">
         <v>15.5</v>
       </c>
-      <c r="K13" t="s" s="23">
+      <c r="K140" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L13" t="s" s="23">
+      <c r="L140" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="14" ht="15.000000" customHeight="1">
-      <c r="A14" s="23">
+    <row r="141" ht="15.000000" customHeight="1">
+      <c r="A141" s="4">
         <v>136</v>
       </c>
-      <c r="B14" t="s" s="23">
+      <c r="B141" t="s" s="4">
         <v>521</v>
       </c>
-      <c r="C14" t="s" s="23">
+      <c r="C141" t="s" s="4">
         <v>522</v>
       </c>
-      <c r="D14" t="s" s="23">
+      <c r="D141" t="s" s="4">
         <v>523</v>
       </c>
-      <c r="E14" t="s" s="23">
+      <c r="E141" t="s" s="4">
         <v>524</v>
       </c>
-      <c r="F14" t="s" s="23">
+      <c r="F141" t="s" s="4">
         <v>137</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25">
+      <c r="G141" s="5"/>
+      <c r="H141" s="3">
         <v>1</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I141" s="3">
         <v>14</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J141" s="4">
         <v>15.5</v>
       </c>
-      <c r="K14" t="s" s="23">
+      <c r="K141" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L14" t="s" s="23">
+      <c r="L141" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="15.000000" customHeight="1">
-      <c r="A15" s="23">
+    <row r="142" ht="15.000000" customHeight="1">
+      <c r="A142" s="4">
         <v>137</v>
       </c>
-      <c r="B15" t="s" s="23">
+      <c r="B142" t="s" s="4">
         <v>525</v>
       </c>
-      <c r="C15" t="s" s="23">
+      <c r="C142" t="s" s="4">
         <v>526</v>
       </c>
-      <c r="D15" t="s" s="23">
+      <c r="D142" t="s" s="4">
         <v>527</v>
       </c>
-      <c r="E15" t="s" s="23">
+      <c r="E142" t="s" s="4">
         <v>528</v>
       </c>
-      <c r="F15" t="s" s="23">
+      <c r="F142" t="s" s="4">
         <v>529</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G142" s="4">
         <v>01</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H142" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I142" s="3">
         <v>12</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J142" s="4">
         <v>15.5</v>
       </c>
-      <c r="K15" t="s" s="23">
+      <c r="K142" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L15" t="s" s="23">
+      <c r="L142" t="s" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="16" ht="15.000000" customHeight="1">
-      <c r="A16" s="23">
+    <row r="143" ht="15.000000" customHeight="1">
+      <c r="A143" s="4">
         <v>138</v>
       </c>
-      <c r="B16" t="s" s="23">
+      <c r="B143" t="s" s="4">
         <v>530</v>
       </c>
-      <c r="C16" t="s" s="23">
+      <c r="C143" t="s" s="4">
         <v>531</v>
       </c>
-      <c r="D16" t="s" s="23">
+      <c r="D143" t="s" s="4">
         <v>324</v>
       </c>
-      <c r="E16" t="s" s="23">
+      <c r="E143" t="s" s="4">
         <v>532</v>
       </c>
-      <c r="F16" t="s" s="23">
+      <c r="F143" t="s" s="4">
         <v>101</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" t="s" s="23">
+      <c r="G143" s="5"/>
+      <c r="H143" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I143" s="4">
         <v>13.75</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J143" s="4">
         <v>14.75</v>
       </c>
-      <c r="K16" t="s" s="23">
+      <c r="K143" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L16" t="s" s="23">
+      <c r="L143" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="17" ht="15.000000" customHeight="1">
-      <c r="A17" s="23">
+    <row r="144" ht="15.000000" customHeight="1">
+      <c r="A144" s="4">
         <v>139</v>
       </c>
-      <c r="B17" t="s" s="23">
+      <c r="B144" t="s" s="4">
         <v>533</v>
       </c>
-      <c r="C17" t="s" s="23">
+      <c r="C144" t="s" s="4">
         <v>534</v>
       </c>
-      <c r="D17" t="s" s="23">
+      <c r="D144" t="s" s="4">
         <v>121</v>
       </c>
-      <c r="E17" t="s" s="23">
+      <c r="E144" t="s" s="4">
         <v>535</v>
       </c>
-      <c r="F17" t="s" s="23">
+      <c r="F144" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25">
+      <c r="G144" s="5"/>
+      <c r="H144" s="3">
         <v>2</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I144" s="4">
         <v>15.25</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J144" s="4">
         <v>15.75</v>
       </c>
-      <c r="K17" t="s" s="23">
+      <c r="K144" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L17" t="s" s="23">
+      <c r="L144" t="s" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="18" ht="15.000000" customHeight="1">
-      <c r="A18" s="23">
+    <row r="145" ht="15.000000" customHeight="1">
+      <c r="A145" s="4">
         <v>140</v>
       </c>
-      <c r="B18" t="s" s="23">
+      <c r="B145" t="s" s="4">
         <v>536</v>
       </c>
-      <c r="C18" t="s" s="23">
+      <c r="C145" t="s" s="4">
         <v>537</v>
       </c>
-      <c r="D18" t="s" s="23">
+      <c r="D145" t="s" s="4">
         <v>538</v>
       </c>
-      <c r="E18" t="s" s="23">
+      <c r="E145" t="s" s="4">
         <v>539</v>
       </c>
-      <c r="F18" t="s" s="23">
+      <c r="F145" t="s" s="4">
         <v>35</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" t="s" s="23">
+      <c r="G145" s="5"/>
+      <c r="H145" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I145" s="3">
         <v>14</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J145" s="3">
         <v>15</v>
       </c>
-      <c r="K18" t="s" s="23">
+      <c r="K145" t="s" s="4">
         <v>450</v>
       </c>
-      <c r="L18" t="s" s="23">
+      <c r="L145" t="s" s="4">
         <v>50</v>
       </c>
     </row>
